--- a/local/data/qPCR/dose_response_curves.xlsx
+++ b/local/data/qPCR/dose_response_curves.xlsx
@@ -1,45 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkinney/Dropbox/21_risdiplam/manuscript/v15/data/qPCR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkinney/github/22_drugs/local/data/qPCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85194621-DE0B-8A4F-8601-3E21F86C2398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EDDFCB-25BD-E343-9D25-12E48526AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27140" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="t25a_ris_v2" sheetId="41" r:id="rId1"/>
-    <sheet name="t25a_bran_v5" sheetId="47" r:id="rId2"/>
-    <sheet name="t25a_asoi6" sheetId="6" r:id="rId3"/>
-    <sheet name="t25a_asoi7_v2" sheetId="44" r:id="rId4"/>
-    <sheet name="t25a_ris_bran_v2" sheetId="52" r:id="rId5"/>
-    <sheet name="t25a_ris_asoi6_v4" sheetId="58" r:id="rId6"/>
-    <sheet name="t25a_ris_asoi7_v2" sheetId="45" r:id="rId7"/>
-    <sheet name="t25a_bran_asoi6_v2" sheetId="60" r:id="rId8"/>
-    <sheet name="t25a_bran_asoi7" sheetId="48" r:id="rId9"/>
-    <sheet name="t25a_asoi6_asoi7_v3" sheetId="62" r:id="rId10"/>
-    <sheet name="smn2_pt1_ris" sheetId="3" r:id="rId11"/>
-    <sheet name="smn2_pt1_bran" sheetId="9" r:id="rId12"/>
-    <sheet name="smn2_pt2_ris" sheetId="2" r:id="rId13"/>
-    <sheet name="smn2_pt2_bran" sheetId="15" r:id="rId14"/>
-    <sheet name="smn2_pt3_ris" sheetId="1" r:id="rId15"/>
-    <sheet name="smn2_pt3_bran" sheetId="16" r:id="rId16"/>
-    <sheet name="elp1_aso" sheetId="7" r:id="rId17"/>
-    <sheet name="elp1_rectas" sheetId="8" r:id="rId18"/>
-    <sheet name="elp1_rectas_aso" sheetId="12" r:id="rId19"/>
+    <sheet name="t25a_ris_pilot" sheetId="67" r:id="rId1"/>
+    <sheet name="t25a_ris_v2" sheetId="41" r:id="rId2"/>
+    <sheet name="t25a_bran_pilot" sheetId="68" r:id="rId3"/>
+    <sheet name="t25a_bran_v5" sheetId="47" r:id="rId4"/>
+    <sheet name="t25a_asoi6" sheetId="6" r:id="rId5"/>
+    <sheet name="t25a_asoi7_v2" sheetId="44" r:id="rId6"/>
+    <sheet name="t25a_ris_bran_v2" sheetId="52" r:id="rId7"/>
+    <sheet name="t25a_ris_asoi6_v4" sheetId="58" r:id="rId8"/>
+    <sheet name="t25a_ris_asoi7_v2" sheetId="45" r:id="rId9"/>
+    <sheet name="t25a_bran_asoi6_v2" sheetId="60" r:id="rId10"/>
+    <sheet name="t25a_bran_asoi7" sheetId="48" r:id="rId11"/>
+    <sheet name="t25a_asoi6_asoi7_v3" sheetId="62" r:id="rId12"/>
+    <sheet name="smn2_pt1_ris" sheetId="3" r:id="rId13"/>
+    <sheet name="smn2_pt1_bran" sheetId="9" r:id="rId14"/>
+    <sheet name="smn2_pt2_ris" sheetId="2" r:id="rId15"/>
+    <sheet name="smn2_pt2_bran" sheetId="15" r:id="rId16"/>
+    <sheet name="smn2_pt2_bran_v2" sheetId="63" r:id="rId17"/>
+    <sheet name="smn2_pt3_ris" sheetId="1" r:id="rId18"/>
+    <sheet name="smn2_pt3_ris_v2" sheetId="64" r:id="rId19"/>
+    <sheet name="smn2_pt3_bran" sheetId="16" r:id="rId20"/>
+    <sheet name="smn2_pt3_bran_v2" sheetId="65" r:id="rId21"/>
+    <sheet name="elp1_aso" sheetId="7" r:id="rId22"/>
+    <sheet name="elp1_rectas" sheetId="8" r:id="rId23"/>
+    <sheet name="elp1_rectas_aso" sheetId="12" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="18">
   <si>
     <t>inclusion</t>
   </si>
@@ -103,12 +111,18 @@
   <si>
     <t>22.10.27</t>
   </si>
+  <si>
+    <t>23.06.12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +263,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -592,12 +611,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -657,7 +679,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -945,25 +967,801 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1366DFFB-D11C-804C-BE53-55A5F9EDDD27}">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C9EFE-4E4A-BD41-95DD-5BAEA9FD34DF}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>500</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>23.497</v>
+      </c>
+      <c r="D4">
+        <v>23.574999999999999</v>
+      </c>
+      <c r="E4">
+        <v>23.771000000000001</v>
+      </c>
+      <c r="F4">
+        <v>32.387</v>
+      </c>
+      <c r="G4">
+        <v>31.738</v>
+      </c>
+      <c r="H4">
+        <v>32.042000000000002</v>
+      </c>
+      <c r="I4">
+        <v>20.484000000000002</v>
+      </c>
+      <c r="J4">
+        <v>21.196999999999999</v>
+      </c>
+      <c r="K4">
+        <v>20.888999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>500</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>23.219000000000001</v>
+      </c>
+      <c r="D5">
+        <v>23.526</v>
+      </c>
+      <c r="E5">
+        <v>23.523</v>
+      </c>
+      <c r="F5">
+        <v>31.099</v>
+      </c>
+      <c r="G5">
+        <v>31.954000000000001</v>
+      </c>
+      <c r="H5">
+        <v>31.664000000000001</v>
+      </c>
+      <c r="I5">
+        <v>20.600999999999999</v>
+      </c>
+      <c r="J5">
+        <v>20.594000000000001</v>
+      </c>
+      <c r="K5">
+        <v>20.657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>24.085000000000001</v>
+      </c>
+      <c r="D6">
+        <v>24.43</v>
+      </c>
+      <c r="E6">
+        <v>24.443000000000001</v>
+      </c>
+      <c r="F6">
+        <v>30.091000000000001</v>
+      </c>
+      <c r="G6">
+        <v>30.472000000000001</v>
+      </c>
+      <c r="H6">
+        <v>30.637</v>
+      </c>
+      <c r="I6">
+        <v>20.989000000000001</v>
+      </c>
+      <c r="J6">
+        <v>21.446999999999999</v>
+      </c>
+      <c r="K6">
+        <v>21.376999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>250</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>24.073</v>
+      </c>
+      <c r="D7">
+        <v>24.295000000000002</v>
+      </c>
+      <c r="E7">
+        <v>24.402000000000001</v>
+      </c>
+      <c r="F7">
+        <v>30.106000000000002</v>
+      </c>
+      <c r="G7">
+        <v>30.724</v>
+      </c>
+      <c r="H7">
+        <v>30.297000000000001</v>
+      </c>
+      <c r="I7">
+        <v>21.149000000000001</v>
+      </c>
+      <c r="J7">
+        <v>21.324000000000002</v>
+      </c>
+      <c r="K7">
+        <v>21.201000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>24.919</v>
+      </c>
+      <c r="D8">
+        <v>24.986000000000001</v>
+      </c>
+      <c r="E8">
+        <v>25.018999999999998</v>
+      </c>
+      <c r="F8">
+        <v>29.125</v>
+      </c>
+      <c r="G8">
+        <v>29.672000000000001</v>
+      </c>
+      <c r="H8">
+        <v>29.391999999999999</v>
+      </c>
+      <c r="I8">
+        <v>21.023</v>
+      </c>
+      <c r="J8">
+        <v>21.635999999999999</v>
+      </c>
+      <c r="K8">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>24.279</v>
+      </c>
+      <c r="D9">
+        <v>24.803999999999998</v>
+      </c>
+      <c r="E9">
+        <v>24.809000000000001</v>
+      </c>
+      <c r="F9">
+        <v>28.928999999999998</v>
+      </c>
+      <c r="G9">
+        <v>29.091999999999999</v>
+      </c>
+      <c r="H9">
+        <v>29.312999999999999</v>
+      </c>
+      <c r="I9">
+        <v>21.085999999999999</v>
+      </c>
+      <c r="J9">
+        <v>21.222999999999999</v>
+      </c>
+      <c r="K9">
+        <v>21.152999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>25.643000000000001</v>
+      </c>
+      <c r="D10">
+        <v>25.736000000000001</v>
+      </c>
+      <c r="E10">
+        <v>25.638999999999999</v>
+      </c>
+      <c r="F10">
+        <v>28.516999999999999</v>
+      </c>
+      <c r="G10">
+        <v>28.513000000000002</v>
+      </c>
+      <c r="H10">
+        <v>28.347999999999999</v>
+      </c>
+      <c r="I10">
+        <v>21.257999999999999</v>
+      </c>
+      <c r="J10">
+        <v>21.536000000000001</v>
+      </c>
+      <c r="K10">
+        <v>21.602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>24.815999999999999</v>
+      </c>
+      <c r="D11">
+        <v>24.966000000000001</v>
+      </c>
+      <c r="E11">
+        <v>24.981999999999999</v>
+      </c>
+      <c r="F11">
+        <v>27.456</v>
+      </c>
+      <c r="G11">
+        <v>27.879000000000001</v>
+      </c>
+      <c r="H11">
+        <v>27.780999999999999</v>
+      </c>
+      <c r="I11">
+        <v>21.233000000000001</v>
+      </c>
+      <c r="J11">
+        <v>21.245999999999999</v>
+      </c>
+      <c r="K11">
+        <v>21.073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>25.048999999999999</v>
+      </c>
+      <c r="D12">
+        <v>24.925999999999998</v>
+      </c>
+      <c r="E12">
+        <v>24.914000000000001</v>
+      </c>
+      <c r="F12">
+        <v>26.940999999999999</v>
+      </c>
+      <c r="G12">
+        <v>26.959</v>
+      </c>
+      <c r="H12">
+        <v>26.957000000000001</v>
+      </c>
+      <c r="I12">
+        <v>21.106999999999999</v>
+      </c>
+      <c r="J12">
+        <v>21.324999999999999</v>
+      </c>
+      <c r="K12">
+        <v>21.076000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>25.22</v>
+      </c>
+      <c r="D13">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="E13">
+        <v>25.312999999999999</v>
+      </c>
+      <c r="F13">
+        <v>26.928999999999998</v>
+      </c>
+      <c r="G13">
+        <v>27.122</v>
+      </c>
+      <c r="H13">
+        <v>27.382000000000001</v>
+      </c>
+      <c r="I13">
+        <v>21.085999999999999</v>
+      </c>
+      <c r="J13">
+        <v>21.265999999999998</v>
+      </c>
+      <c r="K13">
+        <v>20.986000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>25.149000000000001</v>
+      </c>
+      <c r="D14">
+        <v>25.617000000000001</v>
+      </c>
+      <c r="E14">
+        <v>25.440999999999999</v>
+      </c>
+      <c r="F14">
+        <v>26.536000000000001</v>
+      </c>
+      <c r="G14">
+        <v>26.396000000000001</v>
+      </c>
+      <c r="H14">
+        <v>26.196999999999999</v>
+      </c>
+      <c r="I14">
+        <v>21.315999999999999</v>
+      </c>
+      <c r="J14">
+        <v>21.31</v>
+      </c>
+      <c r="K14">
+        <v>21.332999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>25.454000000000001</v>
+      </c>
+      <c r="D15">
+        <v>25.63</v>
+      </c>
+      <c r="E15">
+        <v>25.605</v>
+      </c>
+      <c r="F15">
+        <v>26.765000000000001</v>
+      </c>
+      <c r="G15">
+        <v>26.893000000000001</v>
+      </c>
+      <c r="H15">
+        <v>26.626000000000001</v>
+      </c>
+      <c r="I15">
+        <v>21.31</v>
+      </c>
+      <c r="J15">
+        <v>21.556999999999999</v>
+      </c>
+      <c r="K15">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>25.782</v>
+      </c>
+      <c r="D16">
+        <v>25.754000000000001</v>
+      </c>
+      <c r="E16">
+        <v>25.693999999999999</v>
+      </c>
+      <c r="F16">
+        <v>26.452000000000002</v>
+      </c>
+      <c r="G16">
+        <v>26.643999999999998</v>
+      </c>
+      <c r="H16">
+        <v>26.263999999999999</v>
+      </c>
+      <c r="I16">
+        <v>21.524000000000001</v>
+      </c>
+      <c r="J16">
+        <v>21.721</v>
+      </c>
+      <c r="K16">
+        <v>21.574999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>26.234000000000002</v>
+      </c>
+      <c r="D17">
+        <v>26.454999999999998</v>
+      </c>
+      <c r="E17">
+        <v>26.332000000000001</v>
+      </c>
+      <c r="F17">
+        <v>26.856000000000002</v>
+      </c>
+      <c r="G17">
+        <v>26.984999999999999</v>
+      </c>
+      <c r="H17">
+        <v>26.901</v>
+      </c>
+      <c r="I17">
+        <v>21.632000000000001</v>
+      </c>
+      <c r="J17">
+        <v>21.791</v>
+      </c>
+      <c r="K17">
+        <v>21.628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>25.309000000000001</v>
+      </c>
+      <c r="D18">
+        <v>25.495999999999999</v>
+      </c>
+      <c r="E18">
+        <v>25.338000000000001</v>
+      </c>
+      <c r="F18">
+        <v>25.966999999999999</v>
+      </c>
+      <c r="G18">
+        <v>25.988</v>
+      </c>
+      <c r="H18">
+        <v>25.864000000000001</v>
+      </c>
+      <c r="I18">
+        <v>21.321000000000002</v>
+      </c>
+      <c r="J18">
+        <v>21.324000000000002</v>
+      </c>
+      <c r="K18">
+        <v>21.282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>25.48</v>
+      </c>
+      <c r="D19">
+        <v>25.792999999999999</v>
+      </c>
+      <c r="E19">
+        <v>25.681000000000001</v>
+      </c>
+      <c r="F19">
+        <v>26.018000000000001</v>
+      </c>
+      <c r="G19">
+        <v>26.132000000000001</v>
+      </c>
+      <c r="H19">
+        <v>26.068999999999999</v>
+      </c>
+      <c r="I19">
+        <v>21.131</v>
+      </c>
+      <c r="J19">
+        <v>21.285</v>
+      </c>
+      <c r="K19">
+        <v>20.998999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>25.582999999999998</v>
+      </c>
+      <c r="D20">
+        <v>25.774999999999999</v>
+      </c>
+      <c r="E20">
+        <v>25.87</v>
+      </c>
+      <c r="F20">
+        <v>25.925999999999998</v>
+      </c>
+      <c r="G20">
+        <v>25.971</v>
+      </c>
+      <c r="H20">
+        <v>25.864999999999998</v>
+      </c>
+      <c r="I20">
+        <v>21.132999999999999</v>
+      </c>
+      <c r="J20">
+        <v>21.108000000000001</v>
+      </c>
+      <c r="K20">
+        <v>21.312999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>25.463000000000001</v>
+      </c>
+      <c r="D21">
+        <v>25.677</v>
+      </c>
+      <c r="E21">
+        <v>25.61</v>
+      </c>
+      <c r="F21">
+        <v>25.972999999999999</v>
+      </c>
+      <c r="G21">
+        <v>25.888999999999999</v>
+      </c>
+      <c r="H21">
+        <v>25.561</v>
+      </c>
+      <c r="I21">
+        <v>21.149000000000001</v>
+      </c>
+      <c r="J21">
+        <v>21.420999999999999</v>
+      </c>
+      <c r="K21">
+        <v>21.422999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>25.541</v>
+      </c>
+      <c r="D22">
+        <v>25.757999999999999</v>
+      </c>
+      <c r="F22">
+        <v>25.946000000000002</v>
+      </c>
+      <c r="G22">
+        <v>26.061</v>
+      </c>
+      <c r="I22">
+        <v>21.542999999999999</v>
+      </c>
+      <c r="J22">
+        <v>21.646999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>25.562000000000001</v>
+      </c>
+      <c r="D23">
+        <v>25.521000000000001</v>
+      </c>
+      <c r="F23">
+        <v>25.65</v>
+      </c>
+      <c r="G23">
+        <v>25.904</v>
+      </c>
+      <c r="I23">
+        <v>21.422999999999998</v>
+      </c>
+      <c r="J23">
+        <v>21.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C703571-85D0-F647-A0E7-718AAC439EF6}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -992,7 +1790,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>1</v>
@@ -1037,836 +1837,642 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>21.748470000000001</v>
+        <v>16.809639000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>21.611630000000002</v>
+        <v>16.665997000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>21.791747999999998</v>
+        <v>16.790161000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>21.755852000000001</v>
+        <v>16.835311999999998</v>
       </c>
       <c r="G4" s="2">
-        <v>29.344377999999999</v>
+        <v>24.425608</v>
       </c>
       <c r="H4" s="2">
-        <v>29.605222999999999</v>
+        <v>24.593498</v>
       </c>
       <c r="I4" s="2">
-        <v>29.423200000000001</v>
+        <v>24.556622000000001</v>
       </c>
       <c r="J4" s="2">
-        <v>29.342281</v>
+        <v>24.450997999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>21.474416999999999</v>
+        <v>17.091345</v>
       </c>
       <c r="D5" s="2">
-        <v>21.511303000000002</v>
+        <v>17.101621999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>21.549122000000001</v>
+        <v>16.949850000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>21.415994999999999</v>
+        <v>16.719929</v>
       </c>
       <c r="G5" s="2">
-        <v>29.494457000000001</v>
+        <v>24.67249</v>
       </c>
       <c r="H5" s="2">
-        <v>29.275331000000001</v>
+        <v>24.793469999999999</v>
       </c>
       <c r="I5" s="2">
-        <v>29.404045</v>
+        <v>24.715332</v>
       </c>
       <c r="J5" s="2">
-        <v>29.103546000000001</v>
+        <v>24.821311999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>21.640501</v>
+        <v>17.975871999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>21.62059</v>
+        <v>17.948243999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>21.840841000000001</v>
+        <v>18.151405</v>
       </c>
       <c r="F6" s="2">
-        <v>21.789231999999998</v>
+        <v>18.009444999999999</v>
       </c>
       <c r="G6" s="2">
-        <v>28.601341000000001</v>
+        <v>25.288848999999999</v>
       </c>
       <c r="H6" s="2">
-        <v>28.574819999999999</v>
+        <v>25.267004</v>
       </c>
       <c r="I6" s="2">
-        <v>28.8916</v>
+        <v>25.174752999999999</v>
       </c>
       <c r="J6" s="2">
-        <v>28.719975999999999</v>
+        <v>25.232130000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>21.638895000000002</v>
+        <v>17.952463000000002</v>
       </c>
       <c r="D7" s="2">
-        <v>21.670114999999999</v>
+        <v>17.613610999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>21.969577999999998</v>
+        <v>17.793427999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>21.732903</v>
+        <v>17.889004</v>
       </c>
       <c r="G7" s="2">
-        <v>28.710820999999999</v>
+        <v>25.229652000000002</v>
       </c>
       <c r="H7" s="2">
-        <v>28.412763999999999</v>
+        <v>24.953112000000001</v>
       </c>
       <c r="I7" s="2">
-        <v>29.004733999999999</v>
+        <v>24.876846</v>
       </c>
       <c r="J7" s="2">
-        <v>28.770493999999999</v>
+        <v>24.857455999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>21.981838</v>
+        <v>18.304760000000002</v>
       </c>
       <c r="D8" s="2">
-        <v>21.669993999999999</v>
+        <v>18.356310000000001</v>
       </c>
       <c r="E8" s="2">
-        <v>22.161149999999999</v>
+        <v>18.414650000000002</v>
       </c>
       <c r="F8" s="2">
-        <v>21.800975999999999</v>
+        <v>18.300476</v>
       </c>
       <c r="G8" s="2">
-        <v>27.27553</v>
+        <v>25.011621000000002</v>
       </c>
       <c r="H8" s="2">
-        <v>27.267856999999999</v>
+        <v>24.823153000000001</v>
       </c>
       <c r="I8" s="2">
-        <v>27.545908000000001</v>
+        <v>24.835940999999998</v>
       </c>
       <c r="J8" s="2">
-        <v>27.323405999999999</v>
+        <v>24.817083</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>21.907297</v>
+        <v>18.270178000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>21.787424000000001</v>
+        <v>18.271042000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>22.090911999999999</v>
+        <v>18.76071</v>
       </c>
       <c r="F9" s="2">
-        <v>21.630534999999998</v>
+        <v>18.578458999999999</v>
       </c>
       <c r="G9" s="2">
-        <v>27.396930000000001</v>
+        <v>25.132946</v>
       </c>
       <c r="H9" s="2">
-        <v>27.025504999999999</v>
+        <v>24.997451999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>27.440881999999998</v>
+        <v>25.088799999999999</v>
       </c>
       <c r="J9" s="2">
-        <v>27.260553000000002</v>
+        <v>25.104766999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>22.064194000000001</v>
+        <v>18.337440000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>22.061610999999999</v>
+        <v>18.38269</v>
       </c>
       <c r="E10" s="2">
-        <v>22.273883999999999</v>
+        <v>18.339234999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>22.152287000000001</v>
+        <v>18.314713999999999</v>
       </c>
       <c r="G10" s="2">
-        <v>26.013876</v>
+        <v>24.401257999999999</v>
       </c>
       <c r="H10" s="2">
-        <v>25.959182999999999</v>
+        <v>24.091339999999999</v>
       </c>
       <c r="I10" s="2">
-        <v>26.329260000000001</v>
+        <v>24.187044</v>
       </c>
       <c r="J10" s="2">
-        <v>25.955438999999998</v>
+        <v>24.130184</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>22.530842</v>
+        <v>18.219511000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>22.428733999999999</v>
+        <v>18.378793999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>22.55265</v>
+        <v>18.395140000000001</v>
       </c>
       <c r="F11" s="2">
-        <v>22.317883999999999</v>
+        <v>18.159697000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>26.291163999999998</v>
+        <v>23.989023</v>
       </c>
       <c r="H11" s="2">
-        <v>26.333314999999999</v>
+        <v>23.950558000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>26.487086999999999</v>
+        <v>23.882866</v>
       </c>
       <c r="J11" s="2">
-        <v>26.203040999999999</v>
+        <v>24.05536</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>23.068633999999999</v>
+        <v>18.4102</v>
       </c>
       <c r="D12" s="2">
-        <v>22.818549999999998</v>
+        <v>18.595891999999999</v>
       </c>
       <c r="E12" s="2">
-        <v>22.980509000000001</v>
+        <v>18.560226</v>
       </c>
       <c r="F12" s="2">
-        <v>23.018872999999999</v>
+        <v>18.33419</v>
       </c>
       <c r="G12" s="2">
-        <v>25.63691</v>
+        <v>22.265996999999999</v>
       </c>
       <c r="H12" s="2">
-        <v>25.687297999999998</v>
+        <v>22.424627000000001</v>
       </c>
       <c r="I12" s="2">
-        <v>25.863385999999998</v>
+        <v>22.331378999999998</v>
       </c>
       <c r="J12" s="2">
-        <v>25.675084999999999</v>
+        <v>22.287963999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>22.451460000000001</v>
+        <v>18.467644</v>
       </c>
       <c r="D13" s="2">
-        <v>22.324133</v>
+        <v>18.823370000000001</v>
       </c>
       <c r="E13" s="2">
-        <v>22.327919000000001</v>
+        <v>18.610136000000001</v>
       </c>
       <c r="F13" s="2">
-        <v>22.158604</v>
+        <v>18.551413</v>
       </c>
       <c r="G13" s="2">
-        <v>25.168139</v>
+        <v>22.53173</v>
       </c>
       <c r="H13" s="2">
-        <v>24.948093</v>
+        <v>22.406185000000001</v>
       </c>
       <c r="I13" s="2">
-        <v>25.178864000000001</v>
+        <v>22.455625999999999</v>
       </c>
       <c r="J13" s="2">
-        <v>24.991669999999999</v>
+        <v>22.469975999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>23.007739999999998</v>
+        <v>19.050149999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>22.705220000000001</v>
+        <v>18.964939999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>22.782581</v>
+        <v>19.165600000000001</v>
       </c>
       <c r="F14" s="2">
-        <v>22.838871000000001</v>
+        <v>19.072379999999999</v>
       </c>
       <c r="G14" s="2">
-        <v>24.876670000000001</v>
+        <v>21.789784999999998</v>
       </c>
       <c r="H14" s="2">
-        <v>24.501508999999999</v>
+        <v>21.698232999999998</v>
       </c>
       <c r="I14" s="2">
-        <v>24.765616999999999</v>
+        <v>21.618402</v>
       </c>
       <c r="J14" s="2">
-        <v>24.944739999999999</v>
+        <v>21.810265000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>22.848542999999999</v>
+        <v>18.043776999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>23.014084</v>
+        <v>18.137623000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>23.048113000000001</v>
+        <v>18.069835999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>22.728187999999999</v>
+        <v>18.051690000000001</v>
       </c>
       <c r="G15" s="2">
-        <v>24.747776000000002</v>
+        <v>20.644860999999999</v>
       </c>
       <c r="H15" s="2">
-        <v>24.830214999999999</v>
+        <v>20.670114999999999</v>
       </c>
       <c r="I15" s="2">
-        <v>25.065239999999999</v>
+        <v>20.703223999999999</v>
       </c>
       <c r="J15" s="2">
-        <v>24.839957999999999</v>
+        <v>20.723033999999998</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>23.025587000000002</v>
+        <v>19.398256</v>
       </c>
       <c r="D16" s="2">
-        <v>22.665649999999999</v>
+        <v>19.440804</v>
       </c>
       <c r="E16" s="2">
-        <v>22.776453</v>
+        <v>19.509851000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>22.710802000000001</v>
+        <v>19.467907</v>
       </c>
       <c r="G16" s="2">
-        <v>23.987673000000001</v>
+        <v>21.282927999999998</v>
       </c>
       <c r="H16" s="2">
-        <v>23.938797000000001</v>
+        <v>21.107574</v>
       </c>
       <c r="I16" s="2">
-        <v>23.924123999999999</v>
+        <v>21.109684000000001</v>
       </c>
       <c r="J16" s="2">
-        <v>24.086676000000001</v>
+        <v>21.021201999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>22.381384000000001</v>
+        <v>19.127655000000001</v>
       </c>
       <c r="D17" s="2">
-        <v>22.505623</v>
+        <v>19.107603000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>22.586517000000001</v>
+        <v>18.848002999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>22.21133</v>
+        <v>19.056854000000001</v>
       </c>
       <c r="G17" s="2">
-        <v>23.786963</v>
+        <v>21.028863999999999</v>
       </c>
       <c r="H17" s="2">
-        <v>23.796364000000001</v>
+        <v>20.742892999999999</v>
       </c>
       <c r="I17" s="2">
-        <v>23.961110000000001</v>
+        <v>20.773181999999998</v>
       </c>
       <c r="J17" s="2">
-        <v>23.752098</v>
+        <v>20.906272999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>23.032302999999999</v>
+        <v>20.229208</v>
       </c>
       <c r="D18" s="2">
-        <v>23.06916</v>
+        <v>19.53903</v>
       </c>
       <c r="E18" s="2">
-        <v>22.956049</v>
+        <v>19.746663999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>22.852528</v>
+        <v>19.860351999999999</v>
       </c>
       <c r="G18" s="2">
-        <v>23.896782000000002</v>
+        <v>20.776696999999999</v>
       </c>
       <c r="H18" s="2">
-        <v>23.9132</v>
+        <v>20.876346999999999</v>
       </c>
       <c r="I18" s="2">
-        <v>23.884388000000001</v>
+        <v>20.747921000000002</v>
       </c>
       <c r="J18" s="2">
-        <v>23.586995999999999</v>
+        <v>20.739597</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>23.215630999999998</v>
+        <v>19.764643</v>
       </c>
       <c r="D19" s="2">
-        <v>23.145350000000001</v>
+        <v>19.669650000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>23.291124</v>
+        <v>19.648904999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>23.230295000000002</v>
+        <v>19.857655000000001</v>
       </c>
       <c r="G19" s="2">
-        <v>24.037389999999998</v>
+        <v>20.715277</v>
       </c>
       <c r="H19" s="2">
-        <v>24.182718000000001</v>
+        <v>20.630562000000001</v>
       </c>
       <c r="I19" s="2">
-        <v>24.201215999999999</v>
+        <v>20.557327000000001</v>
       </c>
       <c r="J19" s="2">
-        <v>24.071884000000001</v>
+        <v>20.665150000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>22.694106999999999</v>
+        <v>20.062881000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>22.84375</v>
+        <v>19.936710000000001</v>
       </c>
       <c r="E20" s="2">
-        <v>23.019549999999999</v>
+        <v>19.884546</v>
       </c>
       <c r="F20" s="2">
-        <v>22.716383</v>
+        <v>19.688770000000002</v>
       </c>
       <c r="G20" s="2">
-        <v>23.62396</v>
+        <v>20.495833999999999</v>
       </c>
       <c r="H20" s="2">
-        <v>23.854102999999999</v>
+        <v>20.6022</v>
       </c>
       <c r="I20" s="2">
-        <v>23.531101</v>
+        <v>20.292925</v>
       </c>
       <c r="J20" s="2">
-        <v>23.683810000000001</v>
+        <v>20.368867999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>23.0746</v>
+        <v>19.670116</v>
       </c>
       <c r="D21" s="2">
-        <v>22.996511000000002</v>
+        <v>19.855028000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>22.965585999999998</v>
+        <v>19.575627999999998</v>
       </c>
       <c r="F21" s="2">
-        <v>22.94219</v>
+        <v>19.759357000000001</v>
       </c>
       <c r="G21" s="2">
-        <v>23.659289999999999</v>
+        <v>20.295107000000002</v>
       </c>
       <c r="H21" s="2">
-        <v>23.628360000000001</v>
+        <v>20.334599000000001</v>
       </c>
       <c r="I21" s="2">
-        <v>23.609959</v>
+        <v>20.429988999999999</v>
       </c>
       <c r="J21" s="2">
-        <v>23.684649</v>
+        <v>20.485647</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>23.015041</v>
+        <v>19.366164999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>22.968073</v>
+        <v>19.462536</v>
       </c>
       <c r="E22" s="2">
-        <v>22.851237999999999</v>
+        <v>19.508047000000001</v>
       </c>
       <c r="F22" s="2">
-        <v>22.990055000000002</v>
+        <v>19.340506000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>23.507529999999999</v>
+        <v>19.770095999999999</v>
       </c>
       <c r="H22" s="2">
-        <v>23.685452999999999</v>
+        <v>19.674377</v>
       </c>
       <c r="I22" s="2">
-        <v>23.585315999999999</v>
+        <v>19.806757000000001</v>
       </c>
       <c r="J22" s="2">
-        <v>23.49437</v>
+        <v>19.764244000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>22.859774000000002</v>
+        <v>19.803595999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>22.739346999999999</v>
+        <v>19.489412000000002</v>
       </c>
       <c r="E23" s="2">
-        <v>23.087730000000001</v>
+        <v>19.599257999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>22.441155999999999</v>
+        <v>19.822903</v>
       </c>
       <c r="G23" s="2">
-        <v>23.749407000000001</v>
+        <v>19.964466000000002</v>
       </c>
       <c r="H23" s="2">
-        <v>23.675713999999999</v>
+        <v>19.963297000000001</v>
       </c>
       <c r="I23" s="2">
-        <v>23.496658</v>
+        <v>19.861525</v>
       </c>
       <c r="J23" s="2">
-        <v>23.390416999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>22.681725</v>
-      </c>
-      <c r="D24" s="2">
-        <v>22.659604999999999</v>
-      </c>
-      <c r="E24" s="2">
-        <v>22.976467</v>
-      </c>
-      <c r="F24" s="2">
-        <v>22.863624999999999</v>
-      </c>
-      <c r="G24" s="2">
-        <v>23.600166000000002</v>
-      </c>
-      <c r="H24" s="2">
-        <v>23.394376999999999</v>
-      </c>
-      <c r="I24" s="2">
-        <v>23.346423999999999</v>
-      </c>
-      <c r="J24" s="2">
-        <v>23.383679999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>23.315317</v>
-      </c>
-      <c r="D25" s="2">
-        <v>23.145451999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>23.396090999999998</v>
-      </c>
-      <c r="F25" s="2">
-        <v>23.190328999999998</v>
-      </c>
-      <c r="G25" s="2">
-        <v>24.006810000000002</v>
-      </c>
-      <c r="H25" s="2">
-        <v>23.842623</v>
-      </c>
-      <c r="I25" s="2">
-        <v>24.016556000000001</v>
-      </c>
-      <c r="J25" s="2">
-        <v>23.838203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" ref="B26:B27" si="0">B24</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>23.894736999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <v>23.640965999999999</v>
-      </c>
-      <c r="E26" s="2">
-        <v>23.882750000000001</v>
-      </c>
-      <c r="F26" s="2">
-        <v>23.517582000000001</v>
-      </c>
-      <c r="G26" s="2">
-        <v>24.002731000000001</v>
-      </c>
-      <c r="H26" s="2">
-        <v>23.948264999999999</v>
-      </c>
-      <c r="I26" s="2">
-        <v>24.064779999999999</v>
-      </c>
-      <c r="J26" s="2">
-        <v>24.033318000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C27" s="2">
-        <v>23.98189</v>
-      </c>
-      <c r="D27" s="2">
-        <v>23.907634999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>23.829274999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>23.677112999999999</v>
-      </c>
-      <c r="G27" s="2">
-        <v>24.402752</v>
-      </c>
-      <c r="H27" s="2">
-        <v>24.50996</v>
-      </c>
-      <c r="I27" s="2">
-        <v>24.386862000000001</v>
-      </c>
-      <c r="J27" s="2">
-        <v>24.216429999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2">
-        <v>24.207176</v>
-      </c>
-      <c r="D28" s="2">
-        <v>24.212430000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>24.096785000000001</v>
-      </c>
-      <c r="F28" s="2">
-        <v>24.508572000000001</v>
-      </c>
-      <c r="G28" s="2">
-        <v>24.514365999999999</v>
-      </c>
-      <c r="H28" s="2">
-        <v>24.72401</v>
-      </c>
-      <c r="I28" s="2">
-        <v>24.665955</v>
-      </c>
-      <c r="J28" s="2">
-        <v>24.596084999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2">
-        <v>24.370609999999999</v>
-      </c>
-      <c r="D29" s="2">
-        <v>24.073485999999999</v>
-      </c>
-      <c r="E29" s="2">
-        <v>24.054829999999999</v>
-      </c>
-      <c r="F29" s="2">
-        <v>23.893024</v>
-      </c>
-      <c r="G29" s="2">
-        <v>24.435016999999998</v>
-      </c>
-      <c r="H29" s="2">
-        <v>24.347998</v>
-      </c>
-      <c r="I29" s="2">
-        <v>24.53098</v>
-      </c>
-      <c r="J29" s="2">
-        <v>24.606777000000001</v>
+        <v>19.811116999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +2480,828 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C320A2A-CDEB-EC44-B802-6C7DD71BD45A}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>250</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19.520766999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19.644366999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>19.947171999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19.649284000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>28.589797999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28.514669999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>28.902536000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>28.472017000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19.632860000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19.831102000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>19.937372</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19.674353</v>
+      </c>
+      <c r="G5" s="2">
+        <v>28.921710999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28.682825000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>28.977385999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>28.588089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20.330057</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20.373161</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20.403974999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20.036052999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>29.114682999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28.786633999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28.868099999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <v>28.835249000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B21" si="0">B5</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20.193773</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20.201332000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20.266342000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20.123235999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>28.749881999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28.673037999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>28.805890000000002</v>
+      </c>
+      <c r="J7" s="2">
+        <v>28.701115000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21.292261</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21.101275999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>21.352823000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21.374497999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29.037521000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>29.148313999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>29.428740999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>29.079170000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21.495353999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21.417206</v>
+      </c>
+      <c r="E9" s="2">
+        <v>21.48659</v>
+      </c>
+      <c r="F9" s="2">
+        <v>21.393003</v>
+      </c>
+      <c r="G9" s="2">
+        <v>29.245861000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>29.491071999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>29.380068000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>29.166841999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f>A4/10</f>
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22.259544000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22.131976999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22.331727999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>22.322104</v>
+      </c>
+      <c r="G10" s="2">
+        <v>28.603065000000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>28.598436</v>
+      </c>
+      <c r="I10" s="2">
+        <v>28.699159999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>28.599857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" ref="A11:A19" si="1">A5/10</f>
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22.334467</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22.221073000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>22.490518999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>22.333404999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>28.800556</v>
+      </c>
+      <c r="H11" s="2">
+        <v>28.863527000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>29.044143999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>28.93797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22.293379999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22.416906000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>22.421005000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>22.406355000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>26.616565999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>26.536042999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>26.825310000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <v>26.572635999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22.205266999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22.085008999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22.209569999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>22.130285000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>26.403880999999998</v>
+      </c>
+      <c r="H13" s="2">
+        <v>26.389866000000001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>26.524075</v>
+      </c>
+      <c r="J13" s="2">
+        <v>26.481956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22.860035</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22.918531000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>22.932556000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>22.955840999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>25.615158000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>25.595635999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>25.77758</v>
+      </c>
+      <c r="J14" s="2">
+        <v>25.654921999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22.989644999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23.300087000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>23.057358000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>23.029143999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>26.009664999999998</v>
+      </c>
+      <c r="H15" s="2">
+        <v>25.943102</v>
+      </c>
+      <c r="I15" s="2">
+        <v>25.981691000000001</v>
+      </c>
+      <c r="J15" s="2">
+        <v>26.059024999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22.989740000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>23.110506000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>22.965527999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>22.948696000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>24.774044</v>
+      </c>
+      <c r="H16" s="2">
+        <v>24.70429</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25.072742000000002</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25.099530999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>23.373221999999998</v>
+      </c>
+      <c r="D17" s="2">
+        <v>23.672152000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>23.306979999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>23.163150000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <v>25.158446999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>25.016762</v>
+      </c>
+      <c r="I17" s="2">
+        <v>25.297028000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25.257977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>23.879923000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <v>23.639326000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>23.574762</v>
+      </c>
+      <c r="F18" s="2">
+        <v>23.688192000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>24.627103999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>24.563987999999998</v>
+      </c>
+      <c r="I18" s="2">
+        <v>24.897608000000002</v>
+      </c>
+      <c r="J18" s="2">
+        <v>24.531464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23.747903999999998</v>
+      </c>
+      <c r="D19" s="2">
+        <v>23.642430000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>23.866112000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>23.641338000000001</v>
+      </c>
+      <c r="G19" s="2">
+        <v>24.720981999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>24.707457000000002</v>
+      </c>
+      <c r="I19" s="2">
+        <v>24.950340000000001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>24.706097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19.441875</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19.561031</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19.787054000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>19.572367</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20.601953999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20.791519999999998</v>
+      </c>
+      <c r="I20" s="2">
+        <v>20.508717000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20.899516999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19.536871000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19.696670000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>19.661366999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>19.5976</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20.429902999999999</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20.536379</v>
+      </c>
+      <c r="I21" s="2">
+        <v>20.604558999999998</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20.610046000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>23.894736999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>23.640965999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>23.882750000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>23.517582000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>24.002731000000001</v>
+      </c>
+      <c r="H22" s="2">
+        <v>23.948264999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>24.064779999999999</v>
+      </c>
+      <c r="J22" s="2">
+        <v>24.033318000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>23.98189</v>
+      </c>
+      <c r="D23" s="2">
+        <v>23.907634999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23.829274999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>23.677112999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>24.402752</v>
+      </c>
+      <c r="H23" s="2">
+        <v>24.50996</v>
+      </c>
+      <c r="I23" s="2">
+        <v>24.386862000000001</v>
+      </c>
+      <c r="J23" s="2">
+        <v>24.216429999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24.207176</v>
+      </c>
+      <c r="D24" s="2">
+        <v>24.212430000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24.096785000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>24.508572000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>24.514365999999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>24.72401</v>
+      </c>
+      <c r="I24" s="2">
+        <v>24.665955</v>
+      </c>
+      <c r="J24" s="2">
+        <v>24.596084999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24.370609999999999</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24.073485999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>24.054829999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>23.893024</v>
+      </c>
+      <c r="G25" s="2">
+        <v>24.435016999999998</v>
+      </c>
+      <c r="H25" s="2">
+        <v>24.347998</v>
+      </c>
+      <c r="I25" s="2">
+        <v>24.53098</v>
+      </c>
+      <c r="J25" s="2">
+        <v>24.606777000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A584325B-E5DD-F848-99DB-0AAD8BB273FB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -2541,7 +3968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2038906E-2151-3C4F-876D-14C3F29BB81E}">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -3570,7 +4997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E2361E-B919-774D-8D91-5E3781678A70}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -4714,7 +6141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -5743,7 +7170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EDF9D9-C2CF-7E45-B788-1040D28210CB}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -6531,12 +7958,635 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFC6C03-9786-6D4A-A3F3-1B3C2E573F72}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>500</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>17.36274528503418</v>
+      </c>
+      <c r="D4" s="3">
+        <v>17.36114501953125</v>
+      </c>
+      <c r="E4" s="3">
+        <v>17.483659744262695</v>
+      </c>
+      <c r="F4" s="3">
+        <v>19.409816741943359</v>
+      </c>
+      <c r="G4" s="3">
+        <v>19.614084243774414</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19.682828903198242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>500</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>15.993405342102051</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15.985151290893555</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16.135871887207031</v>
+      </c>
+      <c r="F5" s="3">
+        <v>18.278261184692383</v>
+      </c>
+      <c r="G5" s="3">
+        <v>18.466255187988281</v>
+      </c>
+      <c r="H5" s="3">
+        <v>18.50811767578125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19.211565017700195</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19.259695053100586</v>
+      </c>
+      <c r="E6" s="3">
+        <v>19.295450210571289</v>
+      </c>
+      <c r="F6" s="3">
+        <v>19.118038177490234</v>
+      </c>
+      <c r="G6" s="3">
+        <v>19.278940200805664</v>
+      </c>
+      <c r="H6" s="3">
+        <v>19.322376251220703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>250</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>17.341997146606445</v>
+      </c>
+      <c r="D7" s="3">
+        <v>17.278608322143555</v>
+      </c>
+      <c r="E7" s="3">
+        <v>17.107376098632812</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17.337333679199219</v>
+      </c>
+      <c r="G7" s="3">
+        <v>17.623525619506836</v>
+      </c>
+      <c r="H7" s="3">
+        <v>17.664840698242188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>21.029212951660156</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20.983678817749023</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21.20536994934082</v>
+      </c>
+      <c r="F8" s="3">
+        <v>18.6219482421875</v>
+      </c>
+      <c r="G8" s="3">
+        <v>19.11566162109375</v>
+      </c>
+      <c r="H8" s="3">
+        <v>18.959213256835938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20.035333633422852</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20.113445281982422</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20.072589874267578</v>
+      </c>
+      <c r="F9" s="3">
+        <v>17.973915100097656</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18.311079025268555</v>
+      </c>
+      <c r="H9" s="3">
+        <v>18.188312530517578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20.48823356628418</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20.904792785644531</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20.756305694580078</v>
+      </c>
+      <c r="F10" s="3">
+        <v>17.309120178222656</v>
+      </c>
+      <c r="G10" s="3">
+        <v>17.467334747314453</v>
+      </c>
+      <c r="H10" s="3">
+        <v>17.460634231567383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>22.161714553833008</v>
+      </c>
+      <c r="D11" s="3">
+        <v>22.457595825195312</v>
+      </c>
+      <c r="E11" s="3">
+        <v>22.394758224487305</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18.575839996337891</v>
+      </c>
+      <c r="G11" s="3">
+        <v>18.984235763549805</v>
+      </c>
+      <c r="H11" s="3">
+        <v>18.69483757019043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>25.595586776733398</v>
+      </c>
+      <c r="D12" s="3">
+        <v>25.744047164916992</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25.715381622314453</v>
+      </c>
+      <c r="F12" s="3">
+        <v>20.161195755004883</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20.425258636474609</v>
+      </c>
+      <c r="H12" s="3">
+        <v>20.410154342651367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>22.304676055908203</v>
+      </c>
+      <c r="D13" s="3">
+        <v>22.392454147338867</v>
+      </c>
+      <c r="E13" s="3">
+        <v>22.459085464477539</v>
+      </c>
+      <c r="F13" s="3">
+        <v>17.561939239501953</v>
+      </c>
+      <c r="G13" s="3">
+        <v>17.926458358764648</v>
+      </c>
+      <c r="H13" s="3">
+        <v>17.940729141235352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>24.126558303833008</v>
+      </c>
+      <c r="D14" s="3">
+        <v>24.169904708862305</v>
+      </c>
+      <c r="E14" s="3">
+        <v>24.03764533996582</v>
+      </c>
+      <c r="F14" s="3">
+        <v>18.330560684204102</v>
+      </c>
+      <c r="G14" s="3">
+        <v>18.3939208984375</v>
+      </c>
+      <c r="H14" s="3">
+        <v>18.247341156005859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>25.538904190063477</v>
+      </c>
+      <c r="D15" s="3">
+        <v>25.548934936523438</v>
+      </c>
+      <c r="E15" s="3">
+        <v>25.525510787963867</v>
+      </c>
+      <c r="F15" s="3">
+        <v>19.299121856689453</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19.32319450378418</v>
+      </c>
+      <c r="H15" s="3">
+        <v>19.468173980712891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>29.812252044677734</v>
+      </c>
+      <c r="D16" s="3">
+        <v>29.836042404174805</v>
+      </c>
+      <c r="E16" s="3">
+        <v>29.475276947021484</v>
+      </c>
+      <c r="F16" s="3">
+        <v>22.113956451416016</v>
+      </c>
+      <c r="G16" s="3">
+        <v>22.189672470092773</v>
+      </c>
+      <c r="H16" s="3">
+        <v>22.177854537963867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>26.524652481079102</v>
+      </c>
+      <c r="D17" s="3">
+        <v>26.693008422851562</v>
+      </c>
+      <c r="E17" s="3">
+        <v>26.886772155761719</v>
+      </c>
+      <c r="F17" s="3">
+        <v>19.571004867553711</v>
+      </c>
+      <c r="G17" s="3">
+        <v>20.044418334960938</v>
+      </c>
+      <c r="H17" s="3">
+        <v>20.037004470825195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>26.294563293457031</v>
+      </c>
+      <c r="D18" s="3">
+        <v>26.374948501586914</v>
+      </c>
+      <c r="E18" s="3">
+        <v>26.258440017700195</v>
+      </c>
+      <c r="F18" s="3">
+        <v>18.84797477722168</v>
+      </c>
+      <c r="G18" s="3">
+        <v>19.060384750366211</v>
+      </c>
+      <c r="H18" s="3">
+        <v>19.02330207824707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>27.43950080871582</v>
+      </c>
+      <c r="D19" s="3">
+        <v>27.410804748535156</v>
+      </c>
+      <c r="E19" s="3">
+        <v>27.522539138793945</v>
+      </c>
+      <c r="F19" s="3">
+        <v>19.685972213745117</v>
+      </c>
+      <c r="G19" s="3">
+        <v>20.017599105834961</v>
+      </c>
+      <c r="H19" s="3">
+        <v>20.073062896728516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>27.978830337524414</v>
+      </c>
+      <c r="D20" s="3">
+        <v>28.259271621704102</v>
+      </c>
+      <c r="E20" s="3">
+        <v>28.1192626953125</v>
+      </c>
+      <c r="F20" s="3">
+        <v>20.163217544555664</v>
+      </c>
+      <c r="G20" s="3">
+        <v>20.590049743652344</v>
+      </c>
+      <c r="H20" s="3">
+        <v>20.275232315063477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>27.765811920166016</v>
+      </c>
+      <c r="D21" s="3">
+        <v>28.057369232177734</v>
+      </c>
+      <c r="E21" s="3">
+        <v>27.806978225708008</v>
+      </c>
+      <c r="F21" s="3">
+        <v>20.255859375</v>
+      </c>
+      <c r="G21" s="3">
+        <v>20.389446258544922</v>
+      </c>
+      <c r="H21" s="3">
+        <v>20.170005798339844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>27.431549072265625</v>
+      </c>
+      <c r="D22" s="3">
+        <v>27.981828689575195</v>
+      </c>
+      <c r="E22" s="3">
+        <v>27.722551345825195</v>
+      </c>
+      <c r="F22" s="3">
+        <v>19.950471878051758</v>
+      </c>
+      <c r="G22" s="3">
+        <v>19.996299743652344</v>
+      </c>
+      <c r="H22" s="3">
+        <v>19.993556976318359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>25.475654602050781</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25.562088012695312</v>
+      </c>
+      <c r="E23" s="3">
+        <v>25.411415100097656</v>
+      </c>
+      <c r="F23" s="3">
+        <v>18.073362350463867</v>
+      </c>
+      <c r="G23" s="3">
+        <v>18.190534591674805</v>
+      </c>
+      <c r="H23" s="3">
+        <v>18.091039657592773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>28.420616149902344</v>
+      </c>
+      <c r="D24" s="3">
+        <v>28.565858840942383</v>
+      </c>
+      <c r="E24" s="3">
+        <v>28.583810806274414</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20.1259765625</v>
+      </c>
+      <c r="G24" s="3">
+        <v>20.48834228515625</v>
+      </c>
+      <c r="H24" s="3">
+        <v>20.516046524047852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:K30"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7560,11 +9610,1633 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E20598-EF4B-0E4B-A027-C4FC157A9353}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>14.265000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>14.49</v>
+      </c>
+      <c r="E4" s="5">
+        <v>14.571</v>
+      </c>
+      <c r="F4" s="5">
+        <v>21.116</v>
+      </c>
+      <c r="G4" s="5">
+        <v>21.675000000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>21.478999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>22.919</v>
+      </c>
+      <c r="D5" s="5">
+        <v>22.936</v>
+      </c>
+      <c r="E5" s="5">
+        <v>22.952999999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>29.393999999999998</v>
+      </c>
+      <c r="G5" s="5">
+        <v>29.747</v>
+      </c>
+      <c r="H5" s="5">
+        <v>29.594999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>16.015999999999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>16.338000000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>16.29</v>
+      </c>
+      <c r="F6" s="5">
+        <v>21.035</v>
+      </c>
+      <c r="G6" s="5">
+        <v>21.323</v>
+      </c>
+      <c r="H6" s="5">
+        <v>21.353000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>500</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19.942</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20.215</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20.16</v>
+      </c>
+      <c r="F7" s="5">
+        <v>23.928999999999998</v>
+      </c>
+      <c r="G7" s="5">
+        <v>24.292000000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <v>24.324999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>250</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>13.968</v>
+      </c>
+      <c r="D8" s="5">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>13.855</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16.367999999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>16.658000000000001</v>
+      </c>
+      <c r="H8" s="5">
+        <v>16.765000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>250</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>19.876999999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>19.925999999999998</v>
+      </c>
+      <c r="E9" s="5">
+        <v>19.911999999999999</v>
+      </c>
+      <c r="F9" s="5">
+        <v>21.234000000000002</v>
+      </c>
+      <c r="G9" s="5">
+        <v>21.66</v>
+      </c>
+      <c r="H9" s="5">
+        <v>21.727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>17.198</v>
+      </c>
+      <c r="D10" s="5">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17.312000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>17.353000000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <v>17.669</v>
+      </c>
+      <c r="H10" s="5">
+        <v>17.696999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>23.285</v>
+      </c>
+      <c r="D11" s="5">
+        <v>23.125</v>
+      </c>
+      <c r="E11" s="5">
+        <v>23.289000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>22.300999999999998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22.719000000000001</v>
+      </c>
+      <c r="H11" s="5">
+        <v>22.774999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>20.492999999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20.349</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20.417000000000002</v>
+      </c>
+      <c r="F12" s="5">
+        <v>18.640999999999998</v>
+      </c>
+      <c r="G12" s="5">
+        <v>19.427</v>
+      </c>
+      <c r="H12" s="5">
+        <v>19.436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>23.475000000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>23.196999999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23.154</v>
+      </c>
+      <c r="F13" s="5">
+        <v>21.103000000000002</v>
+      </c>
+      <c r="G13" s="5">
+        <v>21.7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>21.946000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>27.402000000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>27.824999999999999</v>
+      </c>
+      <c r="E14" s="5">
+        <v>27.216000000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>23.981999999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>24.718</v>
+      </c>
+      <c r="H14" s="5">
+        <v>23.684000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>21.83</v>
+      </c>
+      <c r="D15" s="5">
+        <v>21.931999999999999</v>
+      </c>
+      <c r="E15" s="5">
+        <v>21.794</v>
+      </c>
+      <c r="F15" s="5">
+        <v>19.361000000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>19.542999999999999</v>
+      </c>
+      <c r="H15" s="5">
+        <v>18.462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>20.457999999999998</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20.561</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20.599</v>
+      </c>
+      <c r="F16" s="5">
+        <v>16.963000000000001</v>
+      </c>
+      <c r="G16" s="5">
+        <v>17.231000000000002</v>
+      </c>
+      <c r="H16" s="5">
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>21.946999999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>22.114999999999998</v>
+      </c>
+      <c r="E17" s="5">
+        <v>22.076000000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>18.43</v>
+      </c>
+      <c r="G17" s="5">
+        <v>18.588999999999999</v>
+      </c>
+      <c r="H17" s="5">
+        <v>18.963999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>22.109000000000002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>22.021000000000001</v>
+      </c>
+      <c r="E18" s="5">
+        <v>22.018999999999998</v>
+      </c>
+      <c r="F18" s="5">
+        <v>18.001000000000001</v>
+      </c>
+      <c r="G18" s="5">
+        <v>18.175999999999998</v>
+      </c>
+      <c r="H18" s="5">
+        <v>18.225000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>21.64</v>
+      </c>
+      <c r="D19" s="5">
+        <v>21.231000000000002</v>
+      </c>
+      <c r="E19" s="5">
+        <v>21.393999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <v>17.452999999999999</v>
+      </c>
+      <c r="G19" s="5">
+        <v>17.895</v>
+      </c>
+      <c r="H19" s="5">
+        <v>17.960999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>20.562000000000001</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20.690999999999999</v>
+      </c>
+      <c r="E20" s="5">
+        <v>20.597000000000001</v>
+      </c>
+      <c r="F20" s="5">
+        <v>16.056000000000001</v>
+      </c>
+      <c r="G20" s="5">
+        <v>16.355</v>
+      </c>
+      <c r="H20" s="5">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>24.289000000000001</v>
+      </c>
+      <c r="D21" s="5">
+        <v>24.431999999999999</v>
+      </c>
+      <c r="E21" s="5">
+        <v>24.577999999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <v>19.376999999999999</v>
+      </c>
+      <c r="G21" s="5">
+        <v>19.888999999999999</v>
+      </c>
+      <c r="H21" s="5">
+        <v>19.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>21.991</v>
+      </c>
+      <c r="D22" s="5">
+        <v>22.158999999999999</v>
+      </c>
+      <c r="E22" s="5">
+        <v>22.016999999999999</v>
+      </c>
+      <c r="F22" s="5">
+        <v>17.593</v>
+      </c>
+      <c r="G22" s="5">
+        <v>17.625</v>
+      </c>
+      <c r="H22" s="5">
+        <v>17.550999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>24.667000000000002</v>
+      </c>
+      <c r="D23" s="5">
+        <v>24.544</v>
+      </c>
+      <c r="E23" s="5">
+        <v>24.481000000000002</v>
+      </c>
+      <c r="F23" s="5">
+        <v>19.353000000000002</v>
+      </c>
+      <c r="G23" s="5">
+        <v>19.704000000000001</v>
+      </c>
+      <c r="H23" s="5">
+        <v>19.917000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>21.530999999999999</v>
+      </c>
+      <c r="D24" s="5">
+        <v>21.475000000000001</v>
+      </c>
+      <c r="E24" s="5">
+        <v>21.294</v>
+      </c>
+      <c r="F24" s="5">
+        <v>16.623999999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>16.978000000000002</v>
+      </c>
+      <c r="H24" s="5">
+        <v>16.919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>24.695</v>
+      </c>
+      <c r="D25" s="5">
+        <v>24.757000000000001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>24.51</v>
+      </c>
+      <c r="F25" s="5">
+        <v>19.452999999999999</v>
+      </c>
+      <c r="G25" s="5">
+        <v>19.614999999999998</v>
+      </c>
+      <c r="H25" s="5">
+        <v>19.696000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>19.617999999999999</v>
+      </c>
+      <c r="D26" s="5">
+        <v>19.635000000000002</v>
+      </c>
+      <c r="E26" s="5">
+        <v>19.917999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>15.153</v>
+      </c>
+      <c r="G26" s="5">
+        <v>15.441000000000001</v>
+      </c>
+      <c r="H26" s="5">
+        <v>15.547000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>19.137</v>
+      </c>
+      <c r="D27" s="5">
+        <v>19.419</v>
+      </c>
+      <c r="E27" s="5">
+        <v>19.367999999999999</v>
+      </c>
+      <c r="F27" s="5">
+        <v>14.343999999999999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>15.085000000000001</v>
+      </c>
+      <c r="H27" s="5">
+        <v>14.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1366DFFB-D11C-804C-BE53-55A5F9EDDD27}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>21.748470000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21.611630000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>21.791747999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21.755852000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>29.344377999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>29.605222999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>29.423200000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>29.342281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21.474416999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>21.511303000000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21.549122000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>21.415994999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>29.494457000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>29.275331000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>29.404045</v>
+      </c>
+      <c r="J5" s="2">
+        <v>29.103546000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>500</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21.640501</v>
+      </c>
+      <c r="D6" s="2">
+        <v>21.62059</v>
+      </c>
+      <c r="E6" s="2">
+        <v>21.840841000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21.789231999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>28.601341000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28.574819999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28.8916</v>
+      </c>
+      <c r="J6" s="2">
+        <v>28.719975999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>500</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>21.638895000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>21.670114999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>21.969577999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>21.732903</v>
+      </c>
+      <c r="G7" s="2">
+        <v>28.710820999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28.412763999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>29.004733999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>28.770493999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>250</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21.981838</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21.669993999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>22.161149999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21.800975999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>27.27553</v>
+      </c>
+      <c r="H8" s="2">
+        <v>27.267856999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>27.545908000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>27.323405999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>250</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21.907297</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21.787424000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>22.090911999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>21.630534999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27.396930000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>27.025504999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>27.440881999999998</v>
+      </c>
+      <c r="J9" s="2">
+        <v>27.260553000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22.064194000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22.061610999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22.273883999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>22.152287000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>26.013876</v>
+      </c>
+      <c r="H10" s="2">
+        <v>25.959182999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>26.329260000000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>25.955438999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>100</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22.530842</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22.428733999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>22.55265</v>
+      </c>
+      <c r="F11" s="2">
+        <v>22.317883999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>26.291163999999998</v>
+      </c>
+      <c r="H11" s="2">
+        <v>26.333314999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>26.487086999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>26.203040999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>23.068633999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22.818549999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>22.980509000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>23.018872999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>25.63691</v>
+      </c>
+      <c r="H12" s="2">
+        <v>25.687297999999998</v>
+      </c>
+      <c r="I12" s="2">
+        <v>25.863385999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>25.675084999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22.451460000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22.324133</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22.327919000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>22.158604</v>
+      </c>
+      <c r="G13" s="2">
+        <v>25.168139</v>
+      </c>
+      <c r="H13" s="2">
+        <v>24.948093</v>
+      </c>
+      <c r="I13" s="2">
+        <v>25.178864000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>24.991669999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>23.007739999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22.705220000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <v>22.782581</v>
+      </c>
+      <c r="F14" s="2">
+        <v>22.838871000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>24.876670000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>24.501508999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>24.765616999999999</v>
+      </c>
+      <c r="J14" s="2">
+        <v>24.944739999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22.848542999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23.014084</v>
+      </c>
+      <c r="E15" s="2">
+        <v>23.048113000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>22.728187999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>24.747776000000002</v>
+      </c>
+      <c r="H15" s="2">
+        <v>24.830214999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>25.065239999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>24.839957999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>23.025587000000002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>22.665649999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>22.776453</v>
+      </c>
+      <c r="F16" s="2">
+        <v>22.710802000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>23.987673000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>23.938797000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>23.924123999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>24.086676000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22.381384000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22.505623</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22.586517000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>22.21133</v>
+      </c>
+      <c r="G17" s="2">
+        <v>23.786963</v>
+      </c>
+      <c r="H17" s="2">
+        <v>23.796364000000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>23.961110000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>23.752098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>23.032302999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>23.06916</v>
+      </c>
+      <c r="E18" s="2">
+        <v>22.956049</v>
+      </c>
+      <c r="F18" s="2">
+        <v>22.852528</v>
+      </c>
+      <c r="G18" s="2">
+        <v>23.896782000000002</v>
+      </c>
+      <c r="H18" s="2">
+        <v>23.9132</v>
+      </c>
+      <c r="I18" s="2">
+        <v>23.884388000000001</v>
+      </c>
+      <c r="J18" s="2">
+        <v>23.586995999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23.215630999999998</v>
+      </c>
+      <c r="D19" s="2">
+        <v>23.145350000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>23.291124</v>
+      </c>
+      <c r="F19" s="2">
+        <v>23.230295000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <v>24.037389999999998</v>
+      </c>
+      <c r="H19" s="2">
+        <v>24.182718000000001</v>
+      </c>
+      <c r="I19" s="2">
+        <v>24.201215999999999</v>
+      </c>
+      <c r="J19" s="2">
+        <v>24.071884000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22.694106999999999</v>
+      </c>
+      <c r="D20" s="2">
+        <v>22.84375</v>
+      </c>
+      <c r="E20" s="2">
+        <v>23.019549999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>22.716383</v>
+      </c>
+      <c r="G20" s="2">
+        <v>23.62396</v>
+      </c>
+      <c r="H20" s="2">
+        <v>23.854102999999999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>23.531101</v>
+      </c>
+      <c r="J20" s="2">
+        <v>23.683810000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>23.0746</v>
+      </c>
+      <c r="D21" s="2">
+        <v>22.996511000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>22.965585999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>22.94219</v>
+      </c>
+      <c r="G21" s="2">
+        <v>23.659289999999999</v>
+      </c>
+      <c r="H21" s="2">
+        <v>23.628360000000001</v>
+      </c>
+      <c r="I21" s="2">
+        <v>23.609959</v>
+      </c>
+      <c r="J21" s="2">
+        <v>23.684649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>23.015041</v>
+      </c>
+      <c r="D22" s="2">
+        <v>22.968073</v>
+      </c>
+      <c r="E22" s="2">
+        <v>22.851237999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>22.990055000000002</v>
+      </c>
+      <c r="G22" s="2">
+        <v>23.507529999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>23.685452999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>23.585315999999999</v>
+      </c>
+      <c r="J22" s="2">
+        <v>23.49437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22.859774000000002</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22.739346999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23.087730000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>22.441155999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>23.749407000000001</v>
+      </c>
+      <c r="H23" s="2">
+        <v>23.675713999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>23.496658</v>
+      </c>
+      <c r="J23" s="2">
+        <v>23.390416999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>22.681725</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22.659604999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>22.976467</v>
+      </c>
+      <c r="F24" s="2">
+        <v>22.863624999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>23.600166000000002</v>
+      </c>
+      <c r="H24" s="2">
+        <v>23.394376999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>23.346423999999999</v>
+      </c>
+      <c r="J24" s="2">
+        <v>23.383679999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>23.315317</v>
+      </c>
+      <c r="D25" s="2">
+        <v>23.145451999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>23.396090999999998</v>
+      </c>
+      <c r="F25" s="2">
+        <v>23.190328999999998</v>
+      </c>
+      <c r="G25" s="2">
+        <v>24.006810000000002</v>
+      </c>
+      <c r="H25" s="2">
+        <v>23.842623</v>
+      </c>
+      <c r="I25" s="2">
+        <v>24.016556000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <v>23.838203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ref="B26:B27" si="0">B24</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>23.894736999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>23.640965999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>23.882750000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>23.517582000000001</v>
+      </c>
+      <c r="G26" s="2">
+        <v>24.002731000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>23.948264999999999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>24.064779999999999</v>
+      </c>
+      <c r="J26" s="2">
+        <v>24.033318000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>23.98189</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23.907634999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>23.829274999999999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>23.677112999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>24.402752</v>
+      </c>
+      <c r="H27" s="2">
+        <v>24.50996</v>
+      </c>
+      <c r="I27" s="2">
+        <v>24.386862000000001</v>
+      </c>
+      <c r="J27" s="2">
+        <v>24.216429999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>24.207176</v>
+      </c>
+      <c r="D28" s="2">
+        <v>24.212430000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>24.096785000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>24.508572000000001</v>
+      </c>
+      <c r="G28" s="2">
+        <v>24.514365999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>24.72401</v>
+      </c>
+      <c r="I28" s="2">
+        <v>24.665955</v>
+      </c>
+      <c r="J28" s="2">
+        <v>24.596084999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24.370609999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>24.073485999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>24.054829999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>23.893024</v>
+      </c>
+      <c r="G29" s="2">
+        <v>24.435016999999998</v>
+      </c>
+      <c r="H29" s="2">
+        <v>24.347998</v>
+      </c>
+      <c r="I29" s="2">
+        <v>24.53098</v>
+      </c>
+      <c r="J29" s="2">
+        <v>24.606777000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33959B23-FE30-B849-83F6-7475476F4B6E}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -8354,7 +12026,670 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C60A1CF-B65C-6A42-8D9B-C9A94892C888}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13.848162651062012</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13.969905853271484</v>
+      </c>
+      <c r="E4" s="3">
+        <v>13.982013702392578</v>
+      </c>
+      <c r="F4" s="3">
+        <v>19.989824295043945</v>
+      </c>
+      <c r="G4" s="3">
+        <v>20.059406280517578</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19.972070693969727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>500</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13.80550479888916</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14.12692928314209</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14.048103332519531</v>
+      </c>
+      <c r="F7" s="3">
+        <v>18.649877548217773</v>
+      </c>
+      <c r="G7" s="3">
+        <v>18.934209823608398</v>
+      </c>
+      <c r="H7" s="3">
+        <v>18.772626876831055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>250</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12.58834171295166</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12.619484901428223</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12.828639030456543</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16.613513946533203</v>
+      </c>
+      <c r="G8" s="3">
+        <v>16.753820419311523</v>
+      </c>
+      <c r="H8" s="3">
+        <v>16.793893814086914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>250</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>18.346908569335938</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18.396242141723633</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18.29517936706543</v>
+      </c>
+      <c r="F9" s="3">
+        <v>21.025701522827148</v>
+      </c>
+      <c r="G9" s="3">
+        <v>21.224689483642578</v>
+      </c>
+      <c r="H9" s="3">
+        <v>21.211568832397461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>14.419283866882324</v>
+      </c>
+      <c r="D10" s="3">
+        <v>14.461826324462891</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14.425097465515137</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15.772677421569824</v>
+      </c>
+      <c r="G10" s="3">
+        <v>16.374284744262695</v>
+      </c>
+      <c r="H10" s="3">
+        <v>16.142793655395508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15.277795791625977</v>
+      </c>
+      <c r="D11" s="3">
+        <v>15.500353813171387</v>
+      </c>
+      <c r="E11" s="3">
+        <v>15.65962028503418</v>
+      </c>
+      <c r="F11" s="3">
+        <v>16.842000961303711</v>
+      </c>
+      <c r="G11" s="3">
+        <v>17.095579147338867</v>
+      </c>
+      <c r="H11" s="3">
+        <v>17.271692276000977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>17.203252792358398</v>
+      </c>
+      <c r="D12" s="3">
+        <v>17.48918342590332</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17.450990676879883</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17.163784027099609</v>
+      </c>
+      <c r="G12" s="3">
+        <v>17.316082000732422</v>
+      </c>
+      <c r="H12" s="3">
+        <v>17.333927154541016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>15.311787605285645</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15.355030059814453</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15.603745460510254</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15.549596786499023</v>
+      </c>
+      <c r="G13" s="3">
+        <v>15.517946243286133</v>
+      </c>
+      <c r="H13" s="3">
+        <v>15.568198204040527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>19.564298629760742</v>
+      </c>
+      <c r="D15" s="3">
+        <v>19.759389877319336</v>
+      </c>
+      <c r="E15" s="3">
+        <v>19.969871520996094</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17.913135528564453</v>
+      </c>
+      <c r="G15" s="3">
+        <v>18.114105224609375</v>
+      </c>
+      <c r="H15" s="3">
+        <v>18.15614128112793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>20.792278289794922</v>
+      </c>
+      <c r="D16" s="3">
+        <v>21.332075119018555</v>
+      </c>
+      <c r="E16" s="3">
+        <v>21.260000228881836</v>
+      </c>
+      <c r="F16" s="3">
+        <v>17.927087783813477</v>
+      </c>
+      <c r="G16" s="3">
+        <v>18.078380584716797</v>
+      </c>
+      <c r="H16" s="3">
+        <v>18.039413452148438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18.672237396240234</v>
+      </c>
+      <c r="D17" s="3">
+        <v>18.916332244873047</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18.958671569824219</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15.910642623901367</v>
+      </c>
+      <c r="G17" s="3">
+        <v>16.386606216430664</v>
+      </c>
+      <c r="H17" s="3">
+        <v>16.288553237915039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18.054693222045898</v>
+      </c>
+      <c r="D18" s="3">
+        <v>18.020349502563477</v>
+      </c>
+      <c r="E18" s="3">
+        <v>18.051729202270508</v>
+      </c>
+      <c r="F18" s="3">
+        <v>14.800565719604492</v>
+      </c>
+      <c r="G18" s="3">
+        <v>14.670833587646484</v>
+      </c>
+      <c r="H18" s="3">
+        <v>14.61632251739502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>19.54966926574707</v>
+      </c>
+      <c r="D19" s="3">
+        <v>19.602993011474609</v>
+      </c>
+      <c r="E19" s="3">
+        <v>19.542314529418945</v>
+      </c>
+      <c r="F19" s="3">
+        <v>15.949219703674316</v>
+      </c>
+      <c r="G19" s="3">
+        <v>16.101606369018555</v>
+      </c>
+      <c r="H19" s="3">
+        <v>16.135900497436523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20.243442535400391</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20.123651504516602</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20.221048355102539</v>
+      </c>
+      <c r="F20" s="3">
+        <v>16.509368896484375</v>
+      </c>
+      <c r="G20" s="3">
+        <v>16.503843307495117</v>
+      </c>
+      <c r="H20" s="3">
+        <v>16.475297927856445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>19.492414474487305</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19.813247680664062</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19.438301086425781</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15.527454376220703</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15.732785224914551</v>
+      </c>
+      <c r="H21" s="3">
+        <v>15.749855041503906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20.1378173828125</v>
+      </c>
+      <c r="D22" s="3">
+        <v>20.10651969909668</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20.003383636474609</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15.780218124389648</v>
+      </c>
+      <c r="G22" s="3">
+        <v>15.957724571228027</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15.967503547668457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20.330535888671875</v>
+      </c>
+      <c r="D23" s="3">
+        <v>20.640811920166016</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20.282876968383789</v>
+      </c>
+      <c r="F23" s="3">
+        <v>15.991751670837402</v>
+      </c>
+      <c r="G23" s="3">
+        <v>16.05723762512207</v>
+      </c>
+      <c r="H23" s="3">
+        <v>16.038446426391602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>19.14967155456543</v>
+      </c>
+      <c r="D24" s="3">
+        <v>19.461019515991211</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19.372781753540039</v>
+      </c>
+      <c r="F24" s="3">
+        <v>15.098273277282715</v>
+      </c>
+      <c r="G24" s="3">
+        <v>15.120011329650879</v>
+      </c>
+      <c r="H24" s="3">
+        <v>15.065284729003906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>19.104358673095703</v>
+      </c>
+      <c r="D25" s="3">
+        <v>19.096132278442383</v>
+      </c>
+      <c r="E25" s="3">
+        <v>19.084981918334961</v>
+      </c>
+      <c r="F25" s="3">
+        <v>14.654115676879883</v>
+      </c>
+      <c r="G25" s="3">
+        <v>14.759453773498535</v>
+      </c>
+      <c r="H25" s="3">
+        <v>14.641108512878418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>19.463863372802734</v>
+      </c>
+      <c r="D26" s="3">
+        <v>19.824262619018555</v>
+      </c>
+      <c r="E26" s="3">
+        <v>19.648784637451172</v>
+      </c>
+      <c r="F26" s="3">
+        <v>15.052393913269043</v>
+      </c>
+      <c r="G26" s="3">
+        <v>15.180280685424805</v>
+      </c>
+      <c r="H26" s="3">
+        <v>15.20987606048584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20.11346435546875</v>
+      </c>
+      <c r="D27" s="3">
+        <v>20.205495834350586</v>
+      </c>
+      <c r="E27" s="3">
+        <v>20.306804656982422</v>
+      </c>
+      <c r="F27" s="3">
+        <v>15.288459777832031</v>
+      </c>
+      <c r="G27" s="3">
+        <v>15.515342712402344</v>
+      </c>
+      <c r="H27" s="3">
+        <v>15.516912460327148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD61859-40F8-F040-8645-EF66320FB0AF}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -9121,7 +13456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE5822-1204-F34C-91FF-B83178C7AB3E}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -9884,12 +14219,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53680B7-40C4-1A42-91FD-086317D9A0C9}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10525,7 +14860,788 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D3D67-D204-0B4D-85B4-2988745C986C}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>23.434000000000001</v>
+      </c>
+      <c r="D4">
+        <v>23.614999999999998</v>
+      </c>
+      <c r="E4">
+        <v>23.481000000000002</v>
+      </c>
+      <c r="F4">
+        <v>29.949000000000002</v>
+      </c>
+      <c r="G4">
+        <v>30.195</v>
+      </c>
+      <c r="H4">
+        <v>30.556999999999999</v>
+      </c>
+      <c r="I4">
+        <v>21.062999999999999</v>
+      </c>
+      <c r="J4">
+        <v>21.3</v>
+      </c>
+      <c r="K4">
+        <v>21.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>23.355</v>
+      </c>
+      <c r="D5">
+        <v>23.48</v>
+      </c>
+      <c r="E5">
+        <v>23.995999999999999</v>
+      </c>
+      <c r="F5">
+        <v>29.779</v>
+      </c>
+      <c r="G5">
+        <v>29.963999999999999</v>
+      </c>
+      <c r="H5">
+        <v>30.206</v>
+      </c>
+      <c r="I5">
+        <v>21.056000000000001</v>
+      </c>
+      <c r="J5">
+        <v>21.056999999999999</v>
+      </c>
+      <c r="K5">
+        <v>21.045999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>23.663</v>
+      </c>
+      <c r="D6">
+        <v>24.138000000000002</v>
+      </c>
+      <c r="E6">
+        <v>24.042000000000002</v>
+      </c>
+      <c r="F6">
+        <v>28.606000000000002</v>
+      </c>
+      <c r="G6">
+        <v>28.794</v>
+      </c>
+      <c r="H6">
+        <v>28.888000000000002</v>
+      </c>
+      <c r="I6">
+        <v>21.09</v>
+      </c>
+      <c r="J6">
+        <v>21.201000000000001</v>
+      </c>
+      <c r="K6">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>24.175000000000001</v>
+      </c>
+      <c r="D7">
+        <v>24.556999999999999</v>
+      </c>
+      <c r="E7">
+        <v>24.550999999999998</v>
+      </c>
+      <c r="F7">
+        <v>28.609000000000002</v>
+      </c>
+      <c r="G7">
+        <v>29.114999999999998</v>
+      </c>
+      <c r="H7">
+        <v>29.077000000000002</v>
+      </c>
+      <c r="I7">
+        <v>21.32</v>
+      </c>
+      <c r="J7">
+        <v>21.381</v>
+      </c>
+      <c r="K7">
+        <v>21.504999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>24.158000000000001</v>
+      </c>
+      <c r="D8">
+        <v>24.238</v>
+      </c>
+      <c r="E8">
+        <v>24.271000000000001</v>
+      </c>
+      <c r="F8">
+        <v>27.021000000000001</v>
+      </c>
+      <c r="G8">
+        <v>27.937000000000001</v>
+      </c>
+      <c r="H8">
+        <v>28.001000000000001</v>
+      </c>
+      <c r="I8">
+        <v>21.065000000000001</v>
+      </c>
+      <c r="J8">
+        <v>21.032</v>
+      </c>
+      <c r="K8">
+        <v>21.120999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>24.152999999999999</v>
+      </c>
+      <c r="D9">
+        <v>24.541</v>
+      </c>
+      <c r="E9">
+        <v>24.263000000000002</v>
+      </c>
+      <c r="F9">
+        <v>27.404</v>
+      </c>
+      <c r="G9">
+        <v>27.986999999999998</v>
+      </c>
+      <c r="H9">
+        <v>27.846</v>
+      </c>
+      <c r="I9">
+        <v>20.960999999999999</v>
+      </c>
+      <c r="J9">
+        <v>21.016999999999999</v>
+      </c>
+      <c r="K9">
+        <v>20.984000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>24.963000000000001</v>
+      </c>
+      <c r="D10">
+        <v>25.146999999999998</v>
+      </c>
+      <c r="E10">
+        <v>25.053000000000001</v>
+      </c>
+      <c r="F10">
+        <v>27.236000000000001</v>
+      </c>
+      <c r="G10">
+        <v>27.600999999999999</v>
+      </c>
+      <c r="H10">
+        <v>27.713000000000001</v>
+      </c>
+      <c r="I10">
+        <v>21.56</v>
+      </c>
+      <c r="J10">
+        <v>21.600999999999999</v>
+      </c>
+      <c r="K10">
+        <v>21.555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>24.425999999999998</v>
+      </c>
+      <c r="D11">
+        <v>24.652000000000001</v>
+      </c>
+      <c r="E11">
+        <v>24.652000000000001</v>
+      </c>
+      <c r="F11">
+        <v>26.937999999999999</v>
+      </c>
+      <c r="G11">
+        <v>27.103999999999999</v>
+      </c>
+      <c r="H11">
+        <v>27.128</v>
+      </c>
+      <c r="I11">
+        <v>21.23</v>
+      </c>
+      <c r="J11">
+        <v>21.469000000000001</v>
+      </c>
+      <c r="K11">
+        <v>21.225999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>24.934000000000001</v>
+      </c>
+      <c r="D12">
+        <v>24.888999999999999</v>
+      </c>
+      <c r="E12">
+        <v>24.812999999999999</v>
+      </c>
+      <c r="F12">
+        <v>26.22</v>
+      </c>
+      <c r="G12">
+        <v>26.391999999999999</v>
+      </c>
+      <c r="H12">
+        <v>26.448</v>
+      </c>
+      <c r="I12">
+        <v>21.274000000000001</v>
+      </c>
+      <c r="J12">
+        <v>21.413</v>
+      </c>
+      <c r="K12">
+        <v>21.202000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>27.085000000000001</v>
+      </c>
+      <c r="D13">
+        <v>27.135000000000002</v>
+      </c>
+      <c r="E13">
+        <v>27.027000000000001</v>
+      </c>
+      <c r="F13">
+        <v>28.041</v>
+      </c>
+      <c r="G13">
+        <v>28.350999999999999</v>
+      </c>
+      <c r="H13">
+        <v>28.027000000000001</v>
+      </c>
+      <c r="I13">
+        <v>21.928000000000001</v>
+      </c>
+      <c r="J13">
+        <v>21.905999999999999</v>
+      </c>
+      <c r="K13">
+        <v>21.841000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>25.706</v>
+      </c>
+      <c r="D14">
+        <v>25.593</v>
+      </c>
+      <c r="E14">
+        <v>25.628</v>
+      </c>
+      <c r="F14">
+        <v>26.273</v>
+      </c>
+      <c r="G14">
+        <v>26.532</v>
+      </c>
+      <c r="H14">
+        <v>26.486999999999998</v>
+      </c>
+      <c r="I14">
+        <v>21.42</v>
+      </c>
+      <c r="J14">
+        <v>21.536999999999999</v>
+      </c>
+      <c r="K14">
+        <v>21.382999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>25.911999999999999</v>
+      </c>
+      <c r="D15">
+        <v>26.114000000000001</v>
+      </c>
+      <c r="E15">
+        <v>26.222000000000001</v>
+      </c>
+      <c r="F15">
+        <v>26.571000000000002</v>
+      </c>
+      <c r="G15">
+        <v>26.946000000000002</v>
+      </c>
+      <c r="H15">
+        <v>26.744</v>
+      </c>
+      <c r="I15">
+        <v>21.382000000000001</v>
+      </c>
+      <c r="J15">
+        <v>21.588999999999999</v>
+      </c>
+      <c r="K15">
+        <v>21.422000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2.5</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>25.611999999999998</v>
+      </c>
+      <c r="D16">
+        <v>25.817</v>
+      </c>
+      <c r="E16">
+        <v>25.606000000000002</v>
+      </c>
+      <c r="F16">
+        <v>26.173999999999999</v>
+      </c>
+      <c r="G16">
+        <v>26.335000000000001</v>
+      </c>
+      <c r="H16">
+        <v>26.248000000000001</v>
+      </c>
+      <c r="I16">
+        <v>21.297999999999998</v>
+      </c>
+      <c r="J16">
+        <v>21.35</v>
+      </c>
+      <c r="K16">
+        <v>21.201000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2.5</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>25.869</v>
+      </c>
+      <c r="D17">
+        <v>26.126999999999999</v>
+      </c>
+      <c r="E17">
+        <v>26.25</v>
+      </c>
+      <c r="F17">
+        <v>26.279</v>
+      </c>
+      <c r="G17">
+        <v>26.706</v>
+      </c>
+      <c r="H17">
+        <v>26.707999999999998</v>
+      </c>
+      <c r="I17">
+        <v>21.701000000000001</v>
+      </c>
+      <c r="J17">
+        <v>21.795999999999999</v>
+      </c>
+      <c r="K17">
+        <v>21.562000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>26.109000000000002</v>
+      </c>
+      <c r="D18">
+        <v>26.143999999999998</v>
+      </c>
+      <c r="E18">
+        <v>26.13</v>
+      </c>
+      <c r="F18">
+        <v>26.19</v>
+      </c>
+      <c r="G18">
+        <v>26.501000000000001</v>
+      </c>
+      <c r="H18">
+        <v>26.46</v>
+      </c>
+      <c r="I18">
+        <v>21.506</v>
+      </c>
+      <c r="J18">
+        <v>21.481999999999999</v>
+      </c>
+      <c r="K18">
+        <v>21.353999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>26.388999999999999</v>
+      </c>
+      <c r="D19">
+        <v>26.495999999999999</v>
+      </c>
+      <c r="E19">
+        <v>26.579000000000001</v>
+      </c>
+      <c r="F19">
+        <v>26.638999999999999</v>
+      </c>
+      <c r="G19">
+        <v>26.687999999999999</v>
+      </c>
+      <c r="H19">
+        <v>26.768000000000001</v>
+      </c>
+      <c r="I19">
+        <v>21.568000000000001</v>
+      </c>
+      <c r="J19">
+        <v>21.79</v>
+      </c>
+      <c r="K19">
+        <v>22.338999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>26.041</v>
+      </c>
+      <c r="D20">
+        <v>26.274000000000001</v>
+      </c>
+      <c r="E20">
+        <v>26.081</v>
+      </c>
+      <c r="F20">
+        <v>26.077999999999999</v>
+      </c>
+      <c r="G20">
+        <v>26.382999999999999</v>
+      </c>
+      <c r="H20">
+        <v>26.178000000000001</v>
+      </c>
+      <c r="I20">
+        <v>21.364000000000001</v>
+      </c>
+      <c r="J20">
+        <v>21.399000000000001</v>
+      </c>
+      <c r="K20">
+        <v>21.343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.5</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>26.893000000000001</v>
+      </c>
+      <c r="D21">
+        <v>27.616</v>
+      </c>
+      <c r="E21">
+        <v>27.257000000000001</v>
+      </c>
+      <c r="F21">
+        <v>27.12</v>
+      </c>
+      <c r="G21">
+        <v>27.146999999999998</v>
+      </c>
+      <c r="H21">
+        <v>26.986999999999998</v>
+      </c>
+      <c r="I21">
+        <v>21.777000000000001</v>
+      </c>
+      <c r="J21">
+        <v>21.913</v>
+      </c>
+      <c r="K21">
+        <v>21.640999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>25.588000000000001</v>
+      </c>
+      <c r="D22">
+        <v>25.675999999999998</v>
+      </c>
+      <c r="E22">
+        <v>25.632000000000001</v>
+      </c>
+      <c r="F22">
+        <v>25.667999999999999</v>
+      </c>
+      <c r="G22">
+        <v>26.062000000000001</v>
+      </c>
+      <c r="H22">
+        <v>26.452000000000002</v>
+      </c>
+      <c r="I22">
+        <v>21.373999999999999</v>
+      </c>
+      <c r="J22">
+        <v>21.510999999999999</v>
+      </c>
+      <c r="K22">
+        <v>21.634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>25.690999999999999</v>
+      </c>
+      <c r="D23">
+        <v>26.18</v>
+      </c>
+      <c r="E23">
+        <v>25.75</v>
+      </c>
+      <c r="F23">
+        <v>25.968</v>
+      </c>
+      <c r="G23">
+        <v>25.885000000000002</v>
+      </c>
+      <c r="H23">
+        <v>25.759</v>
+      </c>
+      <c r="I23">
+        <v>21.472999999999999</v>
+      </c>
+      <c r="J23">
+        <v>21.594999999999999</v>
+      </c>
+      <c r="K23">
+        <v>21.623000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA7C04-E9E6-2048-8430-D78856DF3574}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -11468,7 +16584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BECFC7C-9ECD-9048-B12A-B900717F42D9}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -12256,7 +17372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCC631E-1E53-4341-A8E6-1F6538BABB30}">
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -13351,7 +18467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C84D04-EFA7-6B4F-8A05-94A6644E7A92}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -14172,7 +19288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BDE610-D5A8-A74B-9A2D-1F649E5DA72C}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -14913,7 +20029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EC178C-7D09-CA41-84A5-4860D2D7E2B9}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -15734,1639 +20850,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C703571-85D0-F647-A0E7-718AAC439EF6}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>250</v>
-      </c>
-      <c r="B4" s="2">
-        <f>LOG(A4+0.1,2)</f>
-        <v>7.9663612472936078</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>16.809639000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>16.665997000000001</v>
-      </c>
-      <c r="F4" s="2">
-        <v>16.790161000000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>16.835311999999998</v>
-      </c>
-      <c r="H4" s="2">
-        <v>24.425608</v>
-      </c>
-      <c r="I4" s="2">
-        <v>24.593498</v>
-      </c>
-      <c r="J4" s="2">
-        <v>24.556622000000001</v>
-      </c>
-      <c r="K4" s="2">
-        <v>24.450997999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>250</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" ref="B5:B23" si="0">LOG(A5+0.1,2)</f>
-        <v>7.9663612472936078</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>17.091345</v>
-      </c>
-      <c r="E5" s="2">
-        <v>17.101621999999999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>16.949850000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>16.719929</v>
-      </c>
-      <c r="H5" s="2">
-        <v>24.67249</v>
-      </c>
-      <c r="I5" s="2">
-        <v>24.793469999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>24.715332</v>
-      </c>
-      <c r="K5" s="2">
-        <v>24.821311999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>6.645298163948631</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>17.975871999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>17.948243999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>18.151405</v>
-      </c>
-      <c r="G6" s="2">
-        <v>18.009444999999999</v>
-      </c>
-      <c r="H6" s="2">
-        <v>25.288848999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>25.267004</v>
-      </c>
-      <c r="J6" s="2">
-        <v>25.174752999999999</v>
-      </c>
-      <c r="K6" s="2">
-        <v>25.232130000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>100</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>6.645298163948631</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>17.952463000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>17.613610999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17.793427999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17.889004</v>
-      </c>
-      <c r="H7" s="2">
-        <v>25.229652000000002</v>
-      </c>
-      <c r="I7" s="2">
-        <v>24.953112000000001</v>
-      </c>
-      <c r="J7" s="2">
-        <v>24.876846</v>
-      </c>
-      <c r="K7" s="2">
-        <v>24.857455999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6467386983078462</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18.304760000000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>18.356310000000001</v>
-      </c>
-      <c r="F8" s="2">
-        <v>18.414650000000002</v>
-      </c>
-      <c r="G8" s="2">
-        <v>18.300476</v>
-      </c>
-      <c r="H8" s="2">
-        <v>25.011621000000002</v>
-      </c>
-      <c r="I8" s="2">
-        <v>24.823153000000001</v>
-      </c>
-      <c r="J8" s="2">
-        <v>24.835940999999998</v>
-      </c>
-      <c r="K8" s="2">
-        <v>24.817083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6467386983078462</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>18.270178000000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>18.271042000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <v>18.76071</v>
-      </c>
-      <c r="G9" s="2">
-        <v>18.578458999999999</v>
-      </c>
-      <c r="H9" s="2">
-        <v>25.132946</v>
-      </c>
-      <c r="I9" s="2">
-        <v>24.997451999999999</v>
-      </c>
-      <c r="J9" s="2">
-        <v>25.088799999999999</v>
-      </c>
-      <c r="K9" s="2">
-        <v>25.104766999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6496154590634102</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>18.337440000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>18.38269</v>
-      </c>
-      <c r="F10" s="2">
-        <v>18.339234999999999</v>
-      </c>
-      <c r="G10" s="2">
-        <v>18.314713999999999</v>
-      </c>
-      <c r="H10" s="2">
-        <v>24.401257999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>24.091339999999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>24.187044</v>
-      </c>
-      <c r="K10" s="2">
-        <v>24.130184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6496154590634102</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>18.219511000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>18.378793999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>18.395140000000001</v>
-      </c>
-      <c r="G11" s="2">
-        <v>18.159697000000001</v>
-      </c>
-      <c r="H11" s="2">
-        <v>23.989023</v>
-      </c>
-      <c r="I11" s="2">
-        <v>23.950558000000001</v>
-      </c>
-      <c r="J11" s="2">
-        <v>23.882866</v>
-      </c>
-      <c r="K11" s="2">
-        <v>24.05536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3362833878644325</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>18.4102</v>
-      </c>
-      <c r="E12" s="2">
-        <v>18.595891999999999</v>
-      </c>
-      <c r="F12" s="2">
-        <v>18.560226</v>
-      </c>
-      <c r="G12" s="2">
-        <v>18.33419</v>
-      </c>
-      <c r="H12" s="2">
-        <v>22.265996999999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>22.424627000000001</v>
-      </c>
-      <c r="J12" s="2">
-        <v>22.331378999999998</v>
-      </c>
-      <c r="K12" s="2">
-        <v>22.287963999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3362833878644325</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>18.467644</v>
-      </c>
-      <c r="E13" s="2">
-        <v>18.823370000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>18.610136000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>18.551413</v>
-      </c>
-      <c r="H13" s="2">
-        <v>22.53173</v>
-      </c>
-      <c r="I13" s="2">
-        <v>22.406185000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <v>22.455625999999999</v>
-      </c>
-      <c r="K13" s="2">
-        <v>22.469975999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3504972470841334</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>19.050149999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>18.964939999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>19.165600000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>19.072379999999999</v>
-      </c>
-      <c r="H14" s="2">
-        <v>21.789784999999998</v>
-      </c>
-      <c r="I14" s="2">
-        <v>21.698232999999998</v>
-      </c>
-      <c r="J14" s="2">
-        <v>21.618402</v>
-      </c>
-      <c r="K14" s="2">
-        <v>21.810265000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3504972470841334</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>18.043776999999999</v>
-      </c>
-      <c r="E15" s="2">
-        <v>18.137623000000001</v>
-      </c>
-      <c r="F15" s="2">
-        <v>18.069835999999999</v>
-      </c>
-      <c r="G15" s="2">
-        <v>18.051690000000001</v>
-      </c>
-      <c r="H15" s="2">
-        <v>20.644860999999999</v>
-      </c>
-      <c r="I15" s="2">
-        <v>20.670114999999999</v>
-      </c>
-      <c r="J15" s="2">
-        <v>20.703223999999999</v>
-      </c>
-      <c r="K15" s="2">
-        <v>20.723033999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3785116232537298</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>19.398256</v>
-      </c>
-      <c r="E16" s="2">
-        <v>19.440804</v>
-      </c>
-      <c r="F16" s="2">
-        <v>19.509851000000001</v>
-      </c>
-      <c r="G16" s="2">
-        <v>19.467907</v>
-      </c>
-      <c r="H16" s="2">
-        <v>21.282927999999998</v>
-      </c>
-      <c r="I16" s="2">
-        <v>21.107574</v>
-      </c>
-      <c r="J16" s="2">
-        <v>21.109684000000001</v>
-      </c>
-      <c r="K16" s="2">
-        <v>21.021201999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3785116232537298</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>19.127655000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>19.107603000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>18.848002999999999</v>
-      </c>
-      <c r="G17" s="2">
-        <v>19.056854000000001</v>
-      </c>
-      <c r="H17" s="2">
-        <v>21.028863999999999</v>
-      </c>
-      <c r="I17" s="2">
-        <v>20.742892999999999</v>
-      </c>
-      <c r="J17" s="2">
-        <v>20.773181999999998</v>
-      </c>
-      <c r="K17" s="2">
-        <v>20.906272999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13750352374993502</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20.229208</v>
-      </c>
-      <c r="E18" s="2">
-        <v>19.53903</v>
-      </c>
-      <c r="F18" s="2">
-        <v>19.746663999999999</v>
-      </c>
-      <c r="G18" s="2">
-        <v>19.860351999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>20.776696999999999</v>
-      </c>
-      <c r="I18" s="2">
-        <v>20.876346999999999</v>
-      </c>
-      <c r="J18" s="2">
-        <v>20.747921000000002</v>
-      </c>
-      <c r="K18" s="2">
-        <v>20.739597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13750352374993502</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>19.764643</v>
-      </c>
-      <c r="E19" s="2">
-        <v>19.669650000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>19.648904999999999</v>
-      </c>
-      <c r="G19" s="2">
-        <v>19.857655000000001</v>
-      </c>
-      <c r="H19" s="2">
-        <v>20.715277</v>
-      </c>
-      <c r="I19" s="2">
-        <v>20.630562000000001</v>
-      </c>
-      <c r="J19" s="2">
-        <v>20.557327000000001</v>
-      </c>
-      <c r="K19" s="2">
-        <v>20.665150000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.73696559416620622</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>20.062881000000001</v>
-      </c>
-      <c r="E20" s="2">
-        <v>19.936710000000001</v>
-      </c>
-      <c r="F20" s="2">
-        <v>19.884546</v>
-      </c>
-      <c r="G20" s="2">
-        <v>19.688770000000002</v>
-      </c>
-      <c r="H20" s="2">
-        <v>20.495833999999999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>20.6022</v>
-      </c>
-      <c r="J20" s="2">
-        <v>20.292925</v>
-      </c>
-      <c r="K20" s="2">
-        <v>20.368867999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.73696559416620622</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>19.670116</v>
-      </c>
-      <c r="E21" s="2">
-        <v>19.855028000000001</v>
-      </c>
-      <c r="F21" s="2">
-        <v>19.575627999999998</v>
-      </c>
-      <c r="G21" s="2">
-        <v>19.759357000000001</v>
-      </c>
-      <c r="H21" s="2">
-        <v>20.295107000000002</v>
-      </c>
-      <c r="I21" s="2">
-        <v>20.334599000000001</v>
-      </c>
-      <c r="J21" s="2">
-        <v>20.429988999999999</v>
-      </c>
-      <c r="K21" s="2">
-        <v>20.485647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.3219280948873622</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>19.366164999999999</v>
-      </c>
-      <c r="E22" s="2">
-        <v>19.462536</v>
-      </c>
-      <c r="F22" s="2">
-        <v>19.508047000000001</v>
-      </c>
-      <c r="G22" s="2">
-        <v>19.340506000000001</v>
-      </c>
-      <c r="H22" s="2">
-        <v>19.770095999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>19.674377</v>
-      </c>
-      <c r="J22" s="2">
-        <v>19.806757000000001</v>
-      </c>
-      <c r="K22" s="2">
-        <v>19.764244000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.3219280948873622</v>
-      </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>19.803595999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>19.489412000000002</v>
-      </c>
-      <c r="F23" s="2">
-        <v>19.599257999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <v>19.822903</v>
-      </c>
-      <c r="H23" s="2">
-        <v>19.964466000000002</v>
-      </c>
-      <c r="I23" s="2">
-        <v>19.963297000000001</v>
-      </c>
-      <c r="J23" s="2">
-        <v>19.861525</v>
-      </c>
-      <c r="K23" s="2">
-        <v>19.811116999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C320A2A-CDEB-EC44-B802-6C7DD71BD45A}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>250</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>19.520766999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>19.644366999999999</v>
-      </c>
-      <c r="E4" s="2">
-        <v>19.947171999999998</v>
-      </c>
-      <c r="F4" s="2">
-        <v>19.649284000000002</v>
-      </c>
-      <c r="G4" s="2">
-        <v>28.589797999999998</v>
-      </c>
-      <c r="H4" s="2">
-        <v>28.514669999999999</v>
-      </c>
-      <c r="I4" s="2">
-        <v>28.902536000000001</v>
-      </c>
-      <c r="J4" s="2">
-        <v>28.472017000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>250</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>19.632860000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>19.831102000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>19.937372</v>
-      </c>
-      <c r="F5" s="2">
-        <v>19.674353</v>
-      </c>
-      <c r="G5" s="2">
-        <v>28.921710999999998</v>
-      </c>
-      <c r="H5" s="2">
-        <v>28.682825000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>28.977385999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>28.588089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20.330057</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20.373161</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20.403974999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20.036052999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>29.114682999999999</v>
-      </c>
-      <c r="H6" s="2">
-        <v>28.786633999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>28.868099999999998</v>
-      </c>
-      <c r="J6" s="2">
-        <v>28.835249000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>100</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:B21" si="0">B5</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20.193773</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20.201332000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20.266342000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20.123235999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>28.749881999999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>28.673037999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>28.805890000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <v>28.701115000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>21.292261</v>
-      </c>
-      <c r="D8" s="2">
-        <v>21.101275999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>21.352823000000001</v>
-      </c>
-      <c r="F8" s="2">
-        <v>21.374497999999999</v>
-      </c>
-      <c r="G8" s="2">
-        <v>29.037521000000002</v>
-      </c>
-      <c r="H8" s="2">
-        <v>29.148313999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>29.428740999999999</v>
-      </c>
-      <c r="J8" s="2">
-        <v>29.079170000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>21.495353999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>21.417206</v>
-      </c>
-      <c r="E9" s="2">
-        <v>21.48659</v>
-      </c>
-      <c r="F9" s="2">
-        <v>21.393003</v>
-      </c>
-      <c r="G9" s="2">
-        <v>29.245861000000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>29.491071999999999</v>
-      </c>
-      <c r="I9" s="2">
-        <v>29.380068000000001</v>
-      </c>
-      <c r="J9" s="2">
-        <v>29.166841999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <f>A4/10</f>
-        <v>25</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>22.259544000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>22.131976999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>22.331727999999998</v>
-      </c>
-      <c r="F10" s="2">
-        <v>22.322104</v>
-      </c>
-      <c r="G10" s="2">
-        <v>28.603065000000001</v>
-      </c>
-      <c r="H10" s="2">
-        <v>28.598436</v>
-      </c>
-      <c r="I10" s="2">
-        <v>28.699159999999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>28.599857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <f t="shared" ref="A11:A19" si="1">A5/10</f>
-        <v>25</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>22.334467</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22.221073000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>22.490518999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>22.333404999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>28.800556</v>
-      </c>
-      <c r="H11" s="2">
-        <v>28.863527000000001</v>
-      </c>
-      <c r="I11" s="2">
-        <v>29.044143999999999</v>
-      </c>
-      <c r="J11" s="2">
-        <v>28.93797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>22.293379999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>22.416906000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>22.421005000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>22.406355000000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>26.616565999999999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>26.536042999999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>26.825310000000002</v>
-      </c>
-      <c r="J12" s="2">
-        <v>26.572635999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>22.205266999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>22.085008999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>22.209569999999999</v>
-      </c>
-      <c r="F13" s="2">
-        <v>22.130285000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>26.403880999999998</v>
-      </c>
-      <c r="H13" s="2">
-        <v>26.389866000000001</v>
-      </c>
-      <c r="I13" s="2">
-        <v>26.524075</v>
-      </c>
-      <c r="J13" s="2">
-        <v>26.481956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>22.860035</v>
-      </c>
-      <c r="D14" s="2">
-        <v>22.918531000000002</v>
-      </c>
-      <c r="E14" s="2">
-        <v>22.932556000000002</v>
-      </c>
-      <c r="F14" s="2">
-        <v>22.955840999999999</v>
-      </c>
-      <c r="G14" s="2">
-        <v>25.615158000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>25.595635999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>25.77758</v>
-      </c>
-      <c r="J14" s="2">
-        <v>25.654921999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>22.989644999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>23.300087000000001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>23.057358000000001</v>
-      </c>
-      <c r="F15" s="2">
-        <v>23.029143999999999</v>
-      </c>
-      <c r="G15" s="2">
-        <v>26.009664999999998</v>
-      </c>
-      <c r="H15" s="2">
-        <v>25.943102</v>
-      </c>
-      <c r="I15" s="2">
-        <v>25.981691000000001</v>
-      </c>
-      <c r="J15" s="2">
-        <v>26.059024999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>22.989740000000001</v>
-      </c>
-      <c r="D16" s="2">
-        <v>23.110506000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>22.965527999999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>22.948696000000002</v>
-      </c>
-      <c r="G16" s="2">
-        <v>24.774044</v>
-      </c>
-      <c r="H16" s="2">
-        <v>24.70429</v>
-      </c>
-      <c r="I16" s="2">
-        <v>25.072742000000002</v>
-      </c>
-      <c r="J16" s="2">
-        <v>25.099530999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>23.373221999999998</v>
-      </c>
-      <c r="D17" s="2">
-        <v>23.672152000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>23.306979999999999</v>
-      </c>
-      <c r="F17" s="2">
-        <v>23.163150000000002</v>
-      </c>
-      <c r="G17" s="2">
-        <v>25.158446999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>25.016762</v>
-      </c>
-      <c r="I17" s="2">
-        <v>25.297028000000001</v>
-      </c>
-      <c r="J17" s="2">
-        <v>25.257977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>23.879923000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <v>23.639326000000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>23.574762</v>
-      </c>
-      <c r="F18" s="2">
-        <v>23.688192000000001</v>
-      </c>
-      <c r="G18" s="2">
-        <v>24.627103999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>24.563987999999998</v>
-      </c>
-      <c r="I18" s="2">
-        <v>24.897608000000002</v>
-      </c>
-      <c r="J18" s="2">
-        <v>24.531464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>23.747903999999998</v>
-      </c>
-      <c r="D19" s="2">
-        <v>23.642430000000001</v>
-      </c>
-      <c r="E19" s="2">
-        <v>23.866112000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>23.641338000000001</v>
-      </c>
-      <c r="G19" s="2">
-        <v>24.720981999999999</v>
-      </c>
-      <c r="H19" s="2">
-        <v>24.707457000000002</v>
-      </c>
-      <c r="I19" s="2">
-        <v>24.950340000000001</v>
-      </c>
-      <c r="J19" s="2">
-        <v>24.706097</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19.441875</v>
-      </c>
-      <c r="D20" s="2">
-        <v>19.561031</v>
-      </c>
-      <c r="E20" s="2">
-        <v>19.787054000000001</v>
-      </c>
-      <c r="F20" s="2">
-        <v>19.572367</v>
-      </c>
-      <c r="G20" s="2">
-        <v>20.601953999999999</v>
-      </c>
-      <c r="H20" s="2">
-        <v>20.791519999999998</v>
-      </c>
-      <c r="I20" s="2">
-        <v>20.508717000000001</v>
-      </c>
-      <c r="J20" s="2">
-        <v>20.899516999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>19.536871000000001</v>
-      </c>
-      <c r="D21" s="2">
-        <v>19.696670000000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>19.661366999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>19.5976</v>
-      </c>
-      <c r="G21" s="2">
-        <v>20.429902999999999</v>
-      </c>
-      <c r="H21" s="2">
-        <v>20.536379</v>
-      </c>
-      <c r="I21" s="2">
-        <v>20.604558999999998</v>
-      </c>
-      <c r="J21" s="2">
-        <v>20.610046000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>23.894736999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>23.640965999999999</v>
-      </c>
-      <c r="E22" s="2">
-        <v>23.882750000000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>23.517582000000001</v>
-      </c>
-      <c r="G22" s="2">
-        <v>24.002731000000001</v>
-      </c>
-      <c r="H22" s="2">
-        <v>23.948264999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>24.064779999999999</v>
-      </c>
-      <c r="J22" s="2">
-        <v>24.033318000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>23.98189</v>
-      </c>
-      <c r="D23" s="2">
-        <v>23.907634999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>23.829274999999999</v>
-      </c>
-      <c r="F23" s="2">
-        <v>23.677112999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <v>24.402752</v>
-      </c>
-      <c r="H23" s="2">
-        <v>24.50996</v>
-      </c>
-      <c r="I23" s="2">
-        <v>24.386862000000001</v>
-      </c>
-      <c r="J23" s="2">
-        <v>24.216429999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>24.207176</v>
-      </c>
-      <c r="D24" s="2">
-        <v>24.212430000000001</v>
-      </c>
-      <c r="E24" s="2">
-        <v>24.096785000000001</v>
-      </c>
-      <c r="F24" s="2">
-        <v>24.508572000000001</v>
-      </c>
-      <c r="G24" s="2">
-        <v>24.514365999999999</v>
-      </c>
-      <c r="H24" s="2">
-        <v>24.72401</v>
-      </c>
-      <c r="I24" s="2">
-        <v>24.665955</v>
-      </c>
-      <c r="J24" s="2">
-        <v>24.596084999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>24.370609999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>24.073485999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>24.054829999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>23.893024</v>
-      </c>
-      <c r="G25" s="2">
-        <v>24.435016999999998</v>
-      </c>
-      <c r="H25" s="2">
-        <v>24.347998</v>
-      </c>
-      <c r="I25" s="2">
-        <v>24.53098</v>
-      </c>
-      <c r="J25" s="2">
-        <v>24.606777000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/local/data/qPCR/dose_response_curves.xlsx
+++ b/local/data/qPCR/dose_response_curves.xlsx
@@ -1,42 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkinney/github/22_drugs/local/data/qPCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EDDFCB-25BD-E343-9D25-12E48526AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C0D9D6-45BE-1044-9B9A-CF5C8032002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="28800" windowHeight="30800" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="t25a_ris_pilot" sheetId="67" r:id="rId1"/>
-    <sheet name="t25a_ris_v2" sheetId="41" r:id="rId2"/>
-    <sheet name="t25a_bran_pilot" sheetId="68" r:id="rId3"/>
-    <sheet name="t25a_bran_v5" sheetId="47" r:id="rId4"/>
-    <sheet name="t25a_asoi6" sheetId="6" r:id="rId5"/>
-    <sheet name="t25a_asoi7_v2" sheetId="44" r:id="rId6"/>
-    <sheet name="t25a_ris_bran_v2" sheetId="52" r:id="rId7"/>
-    <sheet name="t25a_ris_asoi6_v4" sheetId="58" r:id="rId8"/>
-    <sheet name="t25a_ris_asoi7_v2" sheetId="45" r:id="rId9"/>
-    <sheet name="t25a_bran_asoi6_v2" sheetId="60" r:id="rId10"/>
-    <sheet name="t25a_bran_asoi7" sheetId="48" r:id="rId11"/>
-    <sheet name="t25a_asoi6_asoi7_v3" sheetId="62" r:id="rId12"/>
-    <sheet name="smn2_pt1_ris" sheetId="3" r:id="rId13"/>
-    <sheet name="smn2_pt1_bran" sheetId="9" r:id="rId14"/>
-    <sheet name="smn2_pt2_ris" sheetId="2" r:id="rId15"/>
-    <sheet name="smn2_pt2_bran" sheetId="15" r:id="rId16"/>
-    <sheet name="smn2_pt2_bran_v2" sheetId="63" r:id="rId17"/>
-    <sheet name="smn2_pt3_ris" sheetId="1" r:id="rId18"/>
-    <sheet name="smn2_pt3_ris_v2" sheetId="64" r:id="rId19"/>
-    <sheet name="smn2_pt3_bran" sheetId="16" r:id="rId20"/>
-    <sheet name="smn2_pt3_bran_v2" sheetId="65" r:id="rId21"/>
-    <sheet name="elp1_aso" sheetId="7" r:id="rId22"/>
-    <sheet name="elp1_rectas" sheetId="8" r:id="rId23"/>
-    <sheet name="elp1_rectas_aso" sheetId="12" r:id="rId24"/>
+    <sheet name="t25a_ris_v2" sheetId="41" r:id="rId1"/>
+    <sheet name="t25a_bran_v5" sheetId="47" r:id="rId2"/>
+    <sheet name="t25a_asoi6" sheetId="6" r:id="rId3"/>
+    <sheet name="t25a_asoi7_v2" sheetId="44" r:id="rId4"/>
+    <sheet name="t25a_ris_bran_v2" sheetId="52" r:id="rId5"/>
+    <sheet name="t25a_ris_asoi6_v4" sheetId="58" r:id="rId6"/>
+    <sheet name="t25a_ris_asoi7_v2" sheetId="45" r:id="rId7"/>
+    <sheet name="t25a_bran_asoi6_v2" sheetId="60" r:id="rId8"/>
+    <sheet name="t25a_bran_asoi7" sheetId="48" r:id="rId9"/>
+    <sheet name="t25a_asoi6_asoi7_v3" sheetId="62" r:id="rId10"/>
+    <sheet name="smn2_pt1_ris" sheetId="3" r:id="rId11"/>
+    <sheet name="smn2_pt1_bran" sheetId="9" r:id="rId12"/>
+    <sheet name="smn2_pt2_ris" sheetId="2" r:id="rId13"/>
+    <sheet name="smn2_pt2_bran_v2" sheetId="63" r:id="rId14"/>
+    <sheet name="smn2_pt3_ris" sheetId="1" r:id="rId15"/>
+    <sheet name="smn2_pt3_bran_v2" sheetId="65" r:id="rId16"/>
+    <sheet name="elp1_aso" sheetId="7" r:id="rId17"/>
+    <sheet name="elp1_rectas" sheetId="8" r:id="rId18"/>
+    <sheet name="elp1_rectas_aso" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="18">
   <si>
     <t>inclusion</t>
   </si>
@@ -611,7 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -619,7 +614,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,794 +968,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2C9EFE-4E4A-BD41-95DD-5BAEA9FD34DF}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>500</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>23.497</v>
-      </c>
-      <c r="D4">
-        <v>23.574999999999999</v>
-      </c>
-      <c r="E4">
-        <v>23.771000000000001</v>
-      </c>
-      <c r="F4">
-        <v>32.387</v>
-      </c>
-      <c r="G4">
-        <v>31.738</v>
-      </c>
-      <c r="H4">
-        <v>32.042000000000002</v>
-      </c>
-      <c r="I4">
-        <v>20.484000000000002</v>
-      </c>
-      <c r="J4">
-        <v>21.196999999999999</v>
-      </c>
-      <c r="K4">
-        <v>20.888999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>500</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>23.219000000000001</v>
-      </c>
-      <c r="D5">
-        <v>23.526</v>
-      </c>
-      <c r="E5">
-        <v>23.523</v>
-      </c>
-      <c r="F5">
-        <v>31.099</v>
-      </c>
-      <c r="G5">
-        <v>31.954000000000001</v>
-      </c>
-      <c r="H5">
-        <v>31.664000000000001</v>
-      </c>
-      <c r="I5">
-        <v>20.600999999999999</v>
-      </c>
-      <c r="J5">
-        <v>20.594000000000001</v>
-      </c>
-      <c r="K5">
-        <v>20.657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>250</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>24.085000000000001</v>
-      </c>
-      <c r="D6">
-        <v>24.43</v>
-      </c>
-      <c r="E6">
-        <v>24.443000000000001</v>
-      </c>
-      <c r="F6">
-        <v>30.091000000000001</v>
-      </c>
-      <c r="G6">
-        <v>30.472000000000001</v>
-      </c>
-      <c r="H6">
-        <v>30.637</v>
-      </c>
-      <c r="I6">
-        <v>20.989000000000001</v>
-      </c>
-      <c r="J6">
-        <v>21.446999999999999</v>
-      </c>
-      <c r="K6">
-        <v>21.376999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>250</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>24.073</v>
-      </c>
-      <c r="D7">
-        <v>24.295000000000002</v>
-      </c>
-      <c r="E7">
-        <v>24.402000000000001</v>
-      </c>
-      <c r="F7">
-        <v>30.106000000000002</v>
-      </c>
-      <c r="G7">
-        <v>30.724</v>
-      </c>
-      <c r="H7">
-        <v>30.297000000000001</v>
-      </c>
-      <c r="I7">
-        <v>21.149000000000001</v>
-      </c>
-      <c r="J7">
-        <v>21.324000000000002</v>
-      </c>
-      <c r="K7">
-        <v>21.201000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>100</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>24.919</v>
-      </c>
-      <c r="D8">
-        <v>24.986000000000001</v>
-      </c>
-      <c r="E8">
-        <v>25.018999999999998</v>
-      </c>
-      <c r="F8">
-        <v>29.125</v>
-      </c>
-      <c r="G8">
-        <v>29.672000000000001</v>
-      </c>
-      <c r="H8">
-        <v>29.391999999999999</v>
-      </c>
-      <c r="I8">
-        <v>21.023</v>
-      </c>
-      <c r="J8">
-        <v>21.635999999999999</v>
-      </c>
-      <c r="K8">
-        <v>21.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>100</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>24.279</v>
-      </c>
-      <c r="D9">
-        <v>24.803999999999998</v>
-      </c>
-      <c r="E9">
-        <v>24.809000000000001</v>
-      </c>
-      <c r="F9">
-        <v>28.928999999999998</v>
-      </c>
-      <c r="G9">
-        <v>29.091999999999999</v>
-      </c>
-      <c r="H9">
-        <v>29.312999999999999</v>
-      </c>
-      <c r="I9">
-        <v>21.085999999999999</v>
-      </c>
-      <c r="J9">
-        <v>21.222999999999999</v>
-      </c>
-      <c r="K9">
-        <v>21.152999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>25.643000000000001</v>
-      </c>
-      <c r="D10">
-        <v>25.736000000000001</v>
-      </c>
-      <c r="E10">
-        <v>25.638999999999999</v>
-      </c>
-      <c r="F10">
-        <v>28.516999999999999</v>
-      </c>
-      <c r="G10">
-        <v>28.513000000000002</v>
-      </c>
-      <c r="H10">
-        <v>28.347999999999999</v>
-      </c>
-      <c r="I10">
-        <v>21.257999999999999</v>
-      </c>
-      <c r="J10">
-        <v>21.536000000000001</v>
-      </c>
-      <c r="K10">
-        <v>21.602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>24.815999999999999</v>
-      </c>
-      <c r="D11">
-        <v>24.966000000000001</v>
-      </c>
-      <c r="E11">
-        <v>24.981999999999999</v>
-      </c>
-      <c r="F11">
-        <v>27.456</v>
-      </c>
-      <c r="G11">
-        <v>27.879000000000001</v>
-      </c>
-      <c r="H11">
-        <v>27.780999999999999</v>
-      </c>
-      <c r="I11">
-        <v>21.233000000000001</v>
-      </c>
-      <c r="J11">
-        <v>21.245999999999999</v>
-      </c>
-      <c r="K11">
-        <v>21.073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>25.048999999999999</v>
-      </c>
-      <c r="D12">
-        <v>24.925999999999998</v>
-      </c>
-      <c r="E12">
-        <v>24.914000000000001</v>
-      </c>
-      <c r="F12">
-        <v>26.940999999999999</v>
-      </c>
-      <c r="G12">
-        <v>26.959</v>
-      </c>
-      <c r="H12">
-        <v>26.957000000000001</v>
-      </c>
-      <c r="I12">
-        <v>21.106999999999999</v>
-      </c>
-      <c r="J12">
-        <v>21.324999999999999</v>
-      </c>
-      <c r="K12">
-        <v>21.076000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>25.22</v>
-      </c>
-      <c r="D13">
-        <v>25.097999999999999</v>
-      </c>
-      <c r="E13">
-        <v>25.312999999999999</v>
-      </c>
-      <c r="F13">
-        <v>26.928999999999998</v>
-      </c>
-      <c r="G13">
-        <v>27.122</v>
-      </c>
-      <c r="H13">
-        <v>27.382000000000001</v>
-      </c>
-      <c r="I13">
-        <v>21.085999999999999</v>
-      </c>
-      <c r="J13">
-        <v>21.265999999999998</v>
-      </c>
-      <c r="K13">
-        <v>20.986000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>25.149000000000001</v>
-      </c>
-      <c r="D14">
-        <v>25.617000000000001</v>
-      </c>
-      <c r="E14">
-        <v>25.440999999999999</v>
-      </c>
-      <c r="F14">
-        <v>26.536000000000001</v>
-      </c>
-      <c r="G14">
-        <v>26.396000000000001</v>
-      </c>
-      <c r="H14">
-        <v>26.196999999999999</v>
-      </c>
-      <c r="I14">
-        <v>21.315999999999999</v>
-      </c>
-      <c r="J14">
-        <v>21.31</v>
-      </c>
-      <c r="K14">
-        <v>21.332999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>25.454000000000001</v>
-      </c>
-      <c r="D15">
-        <v>25.63</v>
-      </c>
-      <c r="E15">
-        <v>25.605</v>
-      </c>
-      <c r="F15">
-        <v>26.765000000000001</v>
-      </c>
-      <c r="G15">
-        <v>26.893000000000001</v>
-      </c>
-      <c r="H15">
-        <v>26.626000000000001</v>
-      </c>
-      <c r="I15">
-        <v>21.31</v>
-      </c>
-      <c r="J15">
-        <v>21.556999999999999</v>
-      </c>
-      <c r="K15">
-        <v>21.43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>25.782</v>
-      </c>
-      <c r="D16">
-        <v>25.754000000000001</v>
-      </c>
-      <c r="E16">
-        <v>25.693999999999999</v>
-      </c>
-      <c r="F16">
-        <v>26.452000000000002</v>
-      </c>
-      <c r="G16">
-        <v>26.643999999999998</v>
-      </c>
-      <c r="H16">
-        <v>26.263999999999999</v>
-      </c>
-      <c r="I16">
-        <v>21.524000000000001</v>
-      </c>
-      <c r="J16">
-        <v>21.721</v>
-      </c>
-      <c r="K16">
-        <v>21.574999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>26.234000000000002</v>
-      </c>
-      <c r="D17">
-        <v>26.454999999999998</v>
-      </c>
-      <c r="E17">
-        <v>26.332000000000001</v>
-      </c>
-      <c r="F17">
-        <v>26.856000000000002</v>
-      </c>
-      <c r="G17">
-        <v>26.984999999999999</v>
-      </c>
-      <c r="H17">
-        <v>26.901</v>
-      </c>
-      <c r="I17">
-        <v>21.632000000000001</v>
-      </c>
-      <c r="J17">
-        <v>21.791</v>
-      </c>
-      <c r="K17">
-        <v>21.628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>25.309000000000001</v>
-      </c>
-      <c r="D18">
-        <v>25.495999999999999</v>
-      </c>
-      <c r="E18">
-        <v>25.338000000000001</v>
-      </c>
-      <c r="F18">
-        <v>25.966999999999999</v>
-      </c>
-      <c r="G18">
-        <v>25.988</v>
-      </c>
-      <c r="H18">
-        <v>25.864000000000001</v>
-      </c>
-      <c r="I18">
-        <v>21.321000000000002</v>
-      </c>
-      <c r="J18">
-        <v>21.324000000000002</v>
-      </c>
-      <c r="K18">
-        <v>21.282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>25.48</v>
-      </c>
-      <c r="D19">
-        <v>25.792999999999999</v>
-      </c>
-      <c r="E19">
-        <v>25.681000000000001</v>
-      </c>
-      <c r="F19">
-        <v>26.018000000000001</v>
-      </c>
-      <c r="G19">
-        <v>26.132000000000001</v>
-      </c>
-      <c r="H19">
-        <v>26.068999999999999</v>
-      </c>
-      <c r="I19">
-        <v>21.131</v>
-      </c>
-      <c r="J19">
-        <v>21.285</v>
-      </c>
-      <c r="K19">
-        <v>20.998999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>25.582999999999998</v>
-      </c>
-      <c r="D20">
-        <v>25.774999999999999</v>
-      </c>
-      <c r="E20">
-        <v>25.87</v>
-      </c>
-      <c r="F20">
-        <v>25.925999999999998</v>
-      </c>
-      <c r="G20">
-        <v>25.971</v>
-      </c>
-      <c r="H20">
-        <v>25.864999999999998</v>
-      </c>
-      <c r="I20">
-        <v>21.132999999999999</v>
-      </c>
-      <c r="J20">
-        <v>21.108000000000001</v>
-      </c>
-      <c r="K20">
-        <v>21.312999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>25.463000000000001</v>
-      </c>
-      <c r="D21">
-        <v>25.677</v>
-      </c>
-      <c r="E21">
-        <v>25.61</v>
-      </c>
-      <c r="F21">
-        <v>25.972999999999999</v>
-      </c>
-      <c r="G21">
-        <v>25.888999999999999</v>
-      </c>
-      <c r="H21">
-        <v>25.561</v>
-      </c>
-      <c r="I21">
-        <v>21.149000000000001</v>
-      </c>
-      <c r="J21">
-        <v>21.420999999999999</v>
-      </c>
-      <c r="K21">
-        <v>21.422999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>25.541</v>
-      </c>
-      <c r="D22">
-        <v>25.757999999999999</v>
-      </c>
-      <c r="F22">
-        <v>25.946000000000002</v>
-      </c>
-      <c r="G22">
-        <v>26.061</v>
-      </c>
-      <c r="I22">
-        <v>21.542999999999999</v>
-      </c>
-      <c r="J22">
-        <v>21.646999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>25.562000000000001</v>
-      </c>
-      <c r="D23">
-        <v>25.521000000000001</v>
-      </c>
-      <c r="F23">
-        <v>25.65</v>
-      </c>
-      <c r="G23">
-        <v>25.904</v>
-      </c>
-      <c r="I23">
-        <v>21.422999999999998</v>
-      </c>
-      <c r="J23">
-        <v>21.69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C703571-85D0-F647-A0E7-718AAC439EF6}">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1366DFFB-D11C-804C-BE53-55A5F9EDDD27}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -1790,9 +1008,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>1</v>
@@ -1837,642 +1053,836 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>16.809639000000001</v>
+        <v>21.748470000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>16.665997000000001</v>
+        <v>21.611630000000002</v>
       </c>
       <c r="E4" s="2">
-        <v>16.790161000000001</v>
+        <v>21.791747999999998</v>
       </c>
       <c r="F4" s="2">
-        <v>16.835311999999998</v>
+        <v>21.755852000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>24.425608</v>
+        <v>29.344377999999999</v>
       </c>
       <c r="H4" s="2">
-        <v>24.593498</v>
+        <v>29.605222999999999</v>
       </c>
       <c r="I4" s="2">
-        <v>24.556622000000001</v>
+        <v>29.423200000000001</v>
       </c>
       <c r="J4" s="2">
-        <v>24.450997999999998</v>
+        <v>29.342281</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>17.091345</v>
+        <v>21.474416999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>17.101621999999999</v>
+        <v>21.511303000000002</v>
       </c>
       <c r="E5" s="2">
-        <v>16.949850000000001</v>
+        <v>21.549122000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>16.719929</v>
+        <v>21.415994999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>24.67249</v>
+        <v>29.494457000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>24.793469999999999</v>
+        <v>29.275331000000001</v>
       </c>
       <c r="I5" s="2">
-        <v>24.715332</v>
+        <v>29.404045</v>
       </c>
       <c r="J5" s="2">
-        <v>24.821311999999999</v>
+        <v>29.103546000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>17.975871999999999</v>
+        <v>21.640501</v>
       </c>
       <c r="D6" s="2">
-        <v>17.948243999999999</v>
+        <v>21.62059</v>
       </c>
       <c r="E6" s="2">
-        <v>18.151405</v>
+        <v>21.840841000000001</v>
       </c>
       <c r="F6" s="2">
-        <v>18.009444999999999</v>
+        <v>21.789231999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>25.288848999999999</v>
+        <v>28.601341000000001</v>
       </c>
       <c r="H6" s="2">
-        <v>25.267004</v>
+        <v>28.574819999999999</v>
       </c>
       <c r="I6" s="2">
-        <v>25.174752999999999</v>
+        <v>28.8916</v>
       </c>
       <c r="J6" s="2">
-        <v>25.232130000000002</v>
+        <v>28.719975999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>17.952463000000002</v>
+        <v>21.638895000000002</v>
       </c>
       <c r="D7" s="2">
-        <v>17.613610999999999</v>
+        <v>21.670114999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>17.793427999999999</v>
+        <v>21.969577999999998</v>
       </c>
       <c r="F7" s="2">
-        <v>17.889004</v>
+        <v>21.732903</v>
       </c>
       <c r="G7" s="2">
-        <v>25.229652000000002</v>
+        <v>28.710820999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>24.953112000000001</v>
+        <v>28.412763999999999</v>
       </c>
       <c r="I7" s="2">
-        <v>24.876846</v>
+        <v>29.004733999999999</v>
       </c>
       <c r="J7" s="2">
-        <v>24.857455999999999</v>
+        <v>28.770493999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>18.304760000000002</v>
+        <v>21.981838</v>
       </c>
       <c r="D8" s="2">
-        <v>18.356310000000001</v>
+        <v>21.669993999999999</v>
       </c>
       <c r="E8" s="2">
-        <v>18.414650000000002</v>
+        <v>22.161149999999999</v>
       </c>
       <c r="F8" s="2">
-        <v>18.300476</v>
+        <v>21.800975999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>25.011621000000002</v>
+        <v>27.27553</v>
       </c>
       <c r="H8" s="2">
-        <v>24.823153000000001</v>
+        <v>27.267856999999999</v>
       </c>
       <c r="I8" s="2">
-        <v>24.835940999999998</v>
+        <v>27.545908000000001</v>
       </c>
       <c r="J8" s="2">
-        <v>24.817083</v>
+        <v>27.323405999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2">
-        <v>18.270178000000001</v>
+        <v>21.907297</v>
       </c>
       <c r="D9" s="2">
-        <v>18.271042000000001</v>
+        <v>21.787424000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>18.76071</v>
+        <v>22.090911999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>18.578458999999999</v>
+        <v>21.630534999999998</v>
       </c>
       <c r="G9" s="2">
-        <v>25.132946</v>
+        <v>27.396930000000001</v>
       </c>
       <c r="H9" s="2">
-        <v>24.997451999999999</v>
+        <v>27.025504999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>25.088799999999999</v>
+        <v>27.440881999999998</v>
       </c>
       <c r="J9" s="2">
-        <v>25.104766999999999</v>
+        <v>27.260553000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>18.337440000000001</v>
+        <v>22.064194000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>18.38269</v>
+        <v>22.061610999999999</v>
       </c>
       <c r="E10" s="2">
-        <v>18.339234999999999</v>
+        <v>22.273883999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>18.314713999999999</v>
+        <v>22.152287000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>24.401257999999999</v>
+        <v>26.013876</v>
       </c>
       <c r="H10" s="2">
-        <v>24.091339999999999</v>
+        <v>25.959182999999999</v>
       </c>
       <c r="I10" s="2">
-        <v>24.187044</v>
+        <v>26.329260000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>24.130184</v>
+        <v>25.955438999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>18.219511000000001</v>
+        <v>22.530842</v>
       </c>
       <c r="D11" s="2">
-        <v>18.378793999999999</v>
+        <v>22.428733999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>18.395140000000001</v>
+        <v>22.55265</v>
       </c>
       <c r="F11" s="2">
-        <v>18.159697000000001</v>
+        <v>22.317883999999999</v>
       </c>
       <c r="G11" s="2">
-        <v>23.989023</v>
+        <v>26.291163999999998</v>
       </c>
       <c r="H11" s="2">
-        <v>23.950558000000001</v>
+        <v>26.333314999999999</v>
       </c>
       <c r="I11" s="2">
-        <v>23.882866</v>
+        <v>26.487086999999999</v>
       </c>
       <c r="J11" s="2">
-        <v>24.05536</v>
+        <v>26.203040999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>18.4102</v>
+        <v>23.068633999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>18.595891999999999</v>
+        <v>22.818549999999998</v>
       </c>
       <c r="E12" s="2">
-        <v>18.560226</v>
+        <v>22.980509000000001</v>
       </c>
       <c r="F12" s="2">
-        <v>18.33419</v>
+        <v>23.018872999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>22.265996999999999</v>
+        <v>25.63691</v>
       </c>
       <c r="H12" s="2">
-        <v>22.424627000000001</v>
+        <v>25.687297999999998</v>
       </c>
       <c r="I12" s="2">
-        <v>22.331378999999998</v>
+        <v>25.863385999999998</v>
       </c>
       <c r="J12" s="2">
-        <v>22.287963999999999</v>
+        <v>25.675084999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>18.467644</v>
+        <v>22.451460000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>18.823370000000001</v>
+        <v>22.324133</v>
       </c>
       <c r="E13" s="2">
-        <v>18.610136000000001</v>
+        <v>22.327919000000001</v>
       </c>
       <c r="F13" s="2">
-        <v>18.551413</v>
+        <v>22.158604</v>
       </c>
       <c r="G13" s="2">
-        <v>22.53173</v>
+        <v>25.168139</v>
       </c>
       <c r="H13" s="2">
-        <v>22.406185000000001</v>
+        <v>24.948093</v>
       </c>
       <c r="I13" s="2">
-        <v>22.455625999999999</v>
+        <v>25.178864000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>22.469975999999999</v>
+        <v>24.991669999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>19.050149999999999</v>
+        <v>23.007739999999998</v>
       </c>
       <c r="D14" s="2">
-        <v>18.964939999999999</v>
+        <v>22.705220000000001</v>
       </c>
       <c r="E14" s="2">
-        <v>19.165600000000001</v>
+        <v>22.782581</v>
       </c>
       <c r="F14" s="2">
-        <v>19.072379999999999</v>
+        <v>22.838871000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>21.789784999999998</v>
+        <v>24.876670000000001</v>
       </c>
       <c r="H14" s="2">
-        <v>21.698232999999998</v>
+        <v>24.501508999999999</v>
       </c>
       <c r="I14" s="2">
-        <v>21.618402</v>
+        <v>24.765616999999999</v>
       </c>
       <c r="J14" s="2">
-        <v>21.810265000000001</v>
+        <v>24.944739999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>18.043776999999999</v>
+        <v>22.848542999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>18.137623000000001</v>
+        <v>23.014084</v>
       </c>
       <c r="E15" s="2">
-        <v>18.069835999999999</v>
+        <v>23.048113000000001</v>
       </c>
       <c r="F15" s="2">
-        <v>18.051690000000001</v>
+        <v>22.728187999999999</v>
       </c>
       <c r="G15" s="2">
-        <v>20.644860999999999</v>
+        <v>24.747776000000002</v>
       </c>
       <c r="H15" s="2">
-        <v>20.670114999999999</v>
+        <v>24.830214999999999</v>
       </c>
       <c r="I15" s="2">
-        <v>20.703223999999999</v>
+        <v>25.065239999999999</v>
       </c>
       <c r="J15" s="2">
-        <v>20.723033999999998</v>
+        <v>24.839957999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>19.398256</v>
+        <v>23.025587000000002</v>
       </c>
       <c r="D16" s="2">
-        <v>19.440804</v>
+        <v>22.665649999999999</v>
       </c>
       <c r="E16" s="2">
-        <v>19.509851000000001</v>
+        <v>22.776453</v>
       </c>
       <c r="F16" s="2">
-        <v>19.467907</v>
+        <v>22.710802000000001</v>
       </c>
       <c r="G16" s="2">
-        <v>21.282927999999998</v>
+        <v>23.987673000000001</v>
       </c>
       <c r="H16" s="2">
-        <v>21.107574</v>
+        <v>23.938797000000001</v>
       </c>
       <c r="I16" s="2">
-        <v>21.109684000000001</v>
+        <v>23.924123999999999</v>
       </c>
       <c r="J16" s="2">
-        <v>21.021201999999999</v>
+        <v>24.086676000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>19.127655000000001</v>
+        <v>22.381384000000001</v>
       </c>
       <c r="D17" s="2">
-        <v>19.107603000000001</v>
+        <v>22.505623</v>
       </c>
       <c r="E17" s="2">
-        <v>18.848002999999999</v>
+        <v>22.586517000000001</v>
       </c>
       <c r="F17" s="2">
-        <v>19.056854000000001</v>
+        <v>22.21133</v>
       </c>
       <c r="G17" s="2">
-        <v>21.028863999999999</v>
+        <v>23.786963</v>
       </c>
       <c r="H17" s="2">
-        <v>20.742892999999999</v>
+        <v>23.796364000000001</v>
       </c>
       <c r="I17" s="2">
-        <v>20.773181999999998</v>
+        <v>23.961110000000001</v>
       </c>
       <c r="J17" s="2">
-        <v>20.906272999999999</v>
+        <v>23.752098</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>20.229208</v>
+        <v>23.032302999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>19.53903</v>
+        <v>23.06916</v>
       </c>
       <c r="E18" s="2">
-        <v>19.746663999999999</v>
+        <v>22.956049</v>
       </c>
       <c r="F18" s="2">
-        <v>19.860351999999999</v>
+        <v>22.852528</v>
       </c>
       <c r="G18" s="2">
-        <v>20.776696999999999</v>
+        <v>23.896782000000002</v>
       </c>
       <c r="H18" s="2">
-        <v>20.876346999999999</v>
+        <v>23.9132</v>
       </c>
       <c r="I18" s="2">
-        <v>20.747921000000002</v>
+        <v>23.884388000000001</v>
       </c>
       <c r="J18" s="2">
-        <v>20.739597</v>
+        <v>23.586995999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>19.764643</v>
+        <v>23.215630999999998</v>
       </c>
       <c r="D19" s="2">
-        <v>19.669650000000001</v>
+        <v>23.145350000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>19.648904999999999</v>
+        <v>23.291124</v>
       </c>
       <c r="F19" s="2">
-        <v>19.857655000000001</v>
+        <v>23.230295000000002</v>
       </c>
       <c r="G19" s="2">
-        <v>20.715277</v>
+        <v>24.037389999999998</v>
       </c>
       <c r="H19" s="2">
-        <v>20.630562000000001</v>
+        <v>24.182718000000001</v>
       </c>
       <c r="I19" s="2">
-        <v>20.557327000000001</v>
+        <v>24.201215999999999</v>
       </c>
       <c r="J19" s="2">
-        <v>20.665150000000001</v>
+        <v>24.071884000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>20.062881000000001</v>
+        <v>22.694106999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>19.936710000000001</v>
+        <v>22.84375</v>
       </c>
       <c r="E20" s="2">
-        <v>19.884546</v>
+        <v>23.019549999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>19.688770000000002</v>
+        <v>22.716383</v>
       </c>
       <c r="G20" s="2">
-        <v>20.495833999999999</v>
+        <v>23.62396</v>
       </c>
       <c r="H20" s="2">
-        <v>20.6022</v>
+        <v>23.854102999999999</v>
       </c>
       <c r="I20" s="2">
-        <v>20.292925</v>
+        <v>23.531101</v>
       </c>
       <c r="J20" s="2">
-        <v>20.368867999999999</v>
+        <v>23.683810000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="2">
-        <v>19.670116</v>
+        <v>23.0746</v>
       </c>
       <c r="D21" s="2">
-        <v>19.855028000000001</v>
+        <v>22.996511000000002</v>
       </c>
       <c r="E21" s="2">
-        <v>19.575627999999998</v>
+        <v>22.965585999999998</v>
       </c>
       <c r="F21" s="2">
-        <v>19.759357000000001</v>
+        <v>22.94219</v>
       </c>
       <c r="G21" s="2">
-        <v>20.295107000000002</v>
+        <v>23.659289999999999</v>
       </c>
       <c r="H21" s="2">
-        <v>20.334599000000001</v>
+        <v>23.628360000000001</v>
       </c>
       <c r="I21" s="2">
-        <v>20.429988999999999</v>
+        <v>23.609959</v>
       </c>
       <c r="J21" s="2">
-        <v>20.485647</v>
+        <v>23.684649</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>19.366164999999999</v>
+        <v>23.015041</v>
       </c>
       <c r="D22" s="2">
-        <v>19.462536</v>
+        <v>22.968073</v>
       </c>
       <c r="E22" s="2">
-        <v>19.508047000000001</v>
+        <v>22.851237999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>19.340506000000001</v>
+        <v>22.990055000000002</v>
       </c>
       <c r="G22" s="2">
-        <v>19.770095999999999</v>
+        <v>23.507529999999999</v>
       </c>
       <c r="H22" s="2">
-        <v>19.674377</v>
+        <v>23.685452999999999</v>
       </c>
       <c r="I22" s="2">
-        <v>19.806757000000001</v>
+        <v>23.585315999999999</v>
       </c>
       <c r="J22" s="2">
-        <v>19.764244000000001</v>
+        <v>23.49437</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22.859774000000002</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22.739346999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23.087730000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <v>22.441155999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>23.749407000000001</v>
+      </c>
+      <c r="H23" s="2">
+        <v>23.675713999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>23.496658</v>
+      </c>
+      <c r="J23" s="2">
+        <v>23.390416999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>22.681725</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22.659604999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>22.976467</v>
+      </c>
+      <c r="F24" s="2">
+        <v>22.863624999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <v>23.600166000000002</v>
+      </c>
+      <c r="H24" s="2">
+        <v>23.394376999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>23.346423999999999</v>
+      </c>
+      <c r="J24" s="2">
+        <v>23.383679999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>23.315317</v>
+      </c>
+      <c r="D25" s="2">
+        <v>23.145451999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>23.396090999999998</v>
+      </c>
+      <c r="F25" s="2">
+        <v>23.190328999999998</v>
+      </c>
+      <c r="G25" s="2">
+        <v>24.006810000000002</v>
+      </c>
+      <c r="H25" s="2">
+        <v>23.842623</v>
+      </c>
+      <c r="I25" s="2">
+        <v>24.016556000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <v>23.838203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>0</v>
       </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>19.803595999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>19.489412000000002</v>
-      </c>
-      <c r="E23" s="2">
-        <v>19.599257999999999</v>
-      </c>
-      <c r="F23" s="2">
-        <v>19.822903</v>
-      </c>
-      <c r="G23" s="2">
-        <v>19.964466000000002</v>
-      </c>
-      <c r="H23" s="2">
-        <v>19.963297000000001</v>
-      </c>
-      <c r="I23" s="2">
-        <v>19.861525</v>
-      </c>
-      <c r="J23" s="2">
-        <v>19.811116999999999</v>
+      <c r="B26" s="2">
+        <f t="shared" ref="B26:B27" si="0">B24</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>23.894736999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>23.640965999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>23.882750000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>23.517582000000001</v>
+      </c>
+      <c r="G26" s="2">
+        <v>24.002731000000001</v>
+      </c>
+      <c r="H26" s="2">
+        <v>23.948264999999999</v>
+      </c>
+      <c r="I26" s="2">
+        <v>24.064779999999999</v>
+      </c>
+      <c r="J26" s="2">
+        <v>24.033318000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>23.98189</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23.907634999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>23.829274999999999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>23.677112999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>24.402752</v>
+      </c>
+      <c r="H27" s="2">
+        <v>24.50996</v>
+      </c>
+      <c r="I27" s="2">
+        <v>24.386862000000001</v>
+      </c>
+      <c r="J27" s="2">
+        <v>24.216429999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>24.207176</v>
+      </c>
+      <c r="D28" s="2">
+        <v>24.212430000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>24.096785000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>24.508572000000001</v>
+      </c>
+      <c r="G28" s="2">
+        <v>24.514365999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>24.72401</v>
+      </c>
+      <c r="I28" s="2">
+        <v>24.665955</v>
+      </c>
+      <c r="J28" s="2">
+        <v>24.596084999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24.370609999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>24.073485999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>24.054829999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>23.893024</v>
+      </c>
+      <c r="G29" s="2">
+        <v>24.435016999999998</v>
+      </c>
+      <c r="H29" s="2">
+        <v>24.347998</v>
+      </c>
+      <c r="I29" s="2">
+        <v>24.53098</v>
+      </c>
+      <c r="J29" s="2">
+        <v>24.606777000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2480,828 +1890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C320A2A-CDEB-EC44-B802-6C7DD71BD45A}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>250</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>19.520766999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>19.644366999999999</v>
-      </c>
-      <c r="E4" s="2">
-        <v>19.947171999999998</v>
-      </c>
-      <c r="F4" s="2">
-        <v>19.649284000000002</v>
-      </c>
-      <c r="G4" s="2">
-        <v>28.589797999999998</v>
-      </c>
-      <c r="H4" s="2">
-        <v>28.514669999999999</v>
-      </c>
-      <c r="I4" s="2">
-        <v>28.902536000000001</v>
-      </c>
-      <c r="J4" s="2">
-        <v>28.472017000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>250</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>19.632860000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>19.831102000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>19.937372</v>
-      </c>
-      <c r="F5" s="2">
-        <v>19.674353</v>
-      </c>
-      <c r="G5" s="2">
-        <v>28.921710999999998</v>
-      </c>
-      <c r="H5" s="2">
-        <v>28.682825000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>28.977385999999999</v>
-      </c>
-      <c r="J5" s="2">
-        <v>28.588089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20.330057</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20.373161</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20.403974999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20.036052999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>29.114682999999999</v>
-      </c>
-      <c r="H6" s="2">
-        <v>28.786633999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>28.868099999999998</v>
-      </c>
-      <c r="J6" s="2">
-        <v>28.835249000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>100</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:B21" si="0">B5</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20.193773</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20.201332000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20.266342000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20.123235999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>28.749881999999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>28.673037999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>28.805890000000002</v>
-      </c>
-      <c r="J7" s="2">
-        <v>28.701115000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>21.292261</v>
-      </c>
-      <c r="D8" s="2">
-        <v>21.101275999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>21.352823000000001</v>
-      </c>
-      <c r="F8" s="2">
-        <v>21.374497999999999</v>
-      </c>
-      <c r="G8" s="2">
-        <v>29.037521000000002</v>
-      </c>
-      <c r="H8" s="2">
-        <v>29.148313999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>29.428740999999999</v>
-      </c>
-      <c r="J8" s="2">
-        <v>29.079170000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>21.495353999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>21.417206</v>
-      </c>
-      <c r="E9" s="2">
-        <v>21.48659</v>
-      </c>
-      <c r="F9" s="2">
-        <v>21.393003</v>
-      </c>
-      <c r="G9" s="2">
-        <v>29.245861000000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>29.491071999999999</v>
-      </c>
-      <c r="I9" s="2">
-        <v>29.380068000000001</v>
-      </c>
-      <c r="J9" s="2">
-        <v>29.166841999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <f>A4/10</f>
-        <v>25</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>22.259544000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>22.131976999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>22.331727999999998</v>
-      </c>
-      <c r="F10" s="2">
-        <v>22.322104</v>
-      </c>
-      <c r="G10" s="2">
-        <v>28.603065000000001</v>
-      </c>
-      <c r="H10" s="2">
-        <v>28.598436</v>
-      </c>
-      <c r="I10" s="2">
-        <v>28.699159999999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>28.599857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <f t="shared" ref="A11:A19" si="1">A5/10</f>
-        <v>25</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>22.334467</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22.221073000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>22.490518999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>22.333404999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>28.800556</v>
-      </c>
-      <c r="H11" s="2">
-        <v>28.863527000000001</v>
-      </c>
-      <c r="I11" s="2">
-        <v>29.044143999999999</v>
-      </c>
-      <c r="J11" s="2">
-        <v>28.93797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>22.293379999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>22.416906000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>22.421005000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>22.406355000000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>26.616565999999999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>26.536042999999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>26.825310000000002</v>
-      </c>
-      <c r="J12" s="2">
-        <v>26.572635999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>22.205266999999999</v>
-      </c>
-      <c r="D13" s="2">
-        <v>22.085008999999999</v>
-      </c>
-      <c r="E13" s="2">
-        <v>22.209569999999999</v>
-      </c>
-      <c r="F13" s="2">
-        <v>22.130285000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>26.403880999999998</v>
-      </c>
-      <c r="H13" s="2">
-        <v>26.389866000000001</v>
-      </c>
-      <c r="I13" s="2">
-        <v>26.524075</v>
-      </c>
-      <c r="J13" s="2">
-        <v>26.481956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>22.860035</v>
-      </c>
-      <c r="D14" s="2">
-        <v>22.918531000000002</v>
-      </c>
-      <c r="E14" s="2">
-        <v>22.932556000000002</v>
-      </c>
-      <c r="F14" s="2">
-        <v>22.955840999999999</v>
-      </c>
-      <c r="G14" s="2">
-        <v>25.615158000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>25.595635999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>25.77758</v>
-      </c>
-      <c r="J14" s="2">
-        <v>25.654921999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>22.989644999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>23.300087000000001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>23.057358000000001</v>
-      </c>
-      <c r="F15" s="2">
-        <v>23.029143999999999</v>
-      </c>
-      <c r="G15" s="2">
-        <v>26.009664999999998</v>
-      </c>
-      <c r="H15" s="2">
-        <v>25.943102</v>
-      </c>
-      <c r="I15" s="2">
-        <v>25.981691000000001</v>
-      </c>
-      <c r="J15" s="2">
-        <v>26.059024999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>22.989740000000001</v>
-      </c>
-      <c r="D16" s="2">
-        <v>23.110506000000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>22.965527999999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>22.948696000000002</v>
-      </c>
-      <c r="G16" s="2">
-        <v>24.774044</v>
-      </c>
-      <c r="H16" s="2">
-        <v>24.70429</v>
-      </c>
-      <c r="I16" s="2">
-        <v>25.072742000000002</v>
-      </c>
-      <c r="J16" s="2">
-        <v>25.099530999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>23.373221999999998</v>
-      </c>
-      <c r="D17" s="2">
-        <v>23.672152000000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>23.306979999999999</v>
-      </c>
-      <c r="F17" s="2">
-        <v>23.163150000000002</v>
-      </c>
-      <c r="G17" s="2">
-        <v>25.158446999999999</v>
-      </c>
-      <c r="H17" s="2">
-        <v>25.016762</v>
-      </c>
-      <c r="I17" s="2">
-        <v>25.297028000000001</v>
-      </c>
-      <c r="J17" s="2">
-        <v>25.257977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>23.879923000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <v>23.639326000000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>23.574762</v>
-      </c>
-      <c r="F18" s="2">
-        <v>23.688192000000001</v>
-      </c>
-      <c r="G18" s="2">
-        <v>24.627103999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>24.563987999999998</v>
-      </c>
-      <c r="I18" s="2">
-        <v>24.897608000000002</v>
-      </c>
-      <c r="J18" s="2">
-        <v>24.531464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>23.747903999999998</v>
-      </c>
-      <c r="D19" s="2">
-        <v>23.642430000000001</v>
-      </c>
-      <c r="E19" s="2">
-        <v>23.866112000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>23.641338000000001</v>
-      </c>
-      <c r="G19" s="2">
-        <v>24.720981999999999</v>
-      </c>
-      <c r="H19" s="2">
-        <v>24.707457000000002</v>
-      </c>
-      <c r="I19" s="2">
-        <v>24.950340000000001</v>
-      </c>
-      <c r="J19" s="2">
-        <v>24.706097</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19.441875</v>
-      </c>
-      <c r="D20" s="2">
-        <v>19.561031</v>
-      </c>
-      <c r="E20" s="2">
-        <v>19.787054000000001</v>
-      </c>
-      <c r="F20" s="2">
-        <v>19.572367</v>
-      </c>
-      <c r="G20" s="2">
-        <v>20.601953999999999</v>
-      </c>
-      <c r="H20" s="2">
-        <v>20.791519999999998</v>
-      </c>
-      <c r="I20" s="2">
-        <v>20.508717000000001</v>
-      </c>
-      <c r="J20" s="2">
-        <v>20.899516999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>19.536871000000001</v>
-      </c>
-      <c r="D21" s="2">
-        <v>19.696670000000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>19.661366999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>19.5976</v>
-      </c>
-      <c r="G21" s="2">
-        <v>20.429902999999999</v>
-      </c>
-      <c r="H21" s="2">
-        <v>20.536379</v>
-      </c>
-      <c r="I21" s="2">
-        <v>20.604558999999998</v>
-      </c>
-      <c r="J21" s="2">
-        <v>20.610046000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>23.894736999999999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>23.640965999999999</v>
-      </c>
-      <c r="E22" s="2">
-        <v>23.882750000000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>23.517582000000001</v>
-      </c>
-      <c r="G22" s="2">
-        <v>24.002731000000001</v>
-      </c>
-      <c r="H22" s="2">
-        <v>23.948264999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>24.064779999999999</v>
-      </c>
-      <c r="J22" s="2">
-        <v>24.033318000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>23.98189</v>
-      </c>
-      <c r="D23" s="2">
-        <v>23.907634999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>23.829274999999999</v>
-      </c>
-      <c r="F23" s="2">
-        <v>23.677112999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <v>24.402752</v>
-      </c>
-      <c r="H23" s="2">
-        <v>24.50996</v>
-      </c>
-      <c r="I23" s="2">
-        <v>24.386862000000001</v>
-      </c>
-      <c r="J23" s="2">
-        <v>24.216429999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>24.207176</v>
-      </c>
-      <c r="D24" s="2">
-        <v>24.212430000000001</v>
-      </c>
-      <c r="E24" s="2">
-        <v>24.096785000000001</v>
-      </c>
-      <c r="F24" s="2">
-        <v>24.508572000000001</v>
-      </c>
-      <c r="G24" s="2">
-        <v>24.514365999999999</v>
-      </c>
-      <c r="H24" s="2">
-        <v>24.72401</v>
-      </c>
-      <c r="I24" s="2">
-        <v>24.665955</v>
-      </c>
-      <c r="J24" s="2">
-        <v>24.596084999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>24.370609999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>24.073485999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>24.054829999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>23.893024</v>
-      </c>
-      <c r="G25" s="2">
-        <v>24.435016999999998</v>
-      </c>
-      <c r="H25" s="2">
-        <v>24.347998</v>
-      </c>
-      <c r="I25" s="2">
-        <v>24.53098</v>
-      </c>
-      <c r="J25" s="2">
-        <v>24.606777000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A584325B-E5DD-F848-99DB-0AAD8BB273FB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3968,7 +2557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2038906E-2151-3C4F-876D-14C3F29BB81E}">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -4997,7 +3586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E2361E-B919-774D-8D91-5E3781678A70}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -6141,7 +4730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -7170,795 +5759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EDF9D9-C2CF-7E45-B788-1040D28210CB}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="A1:K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>250</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>22.161000000000001</v>
-      </c>
-      <c r="D4">
-        <v>22.254000000000001</v>
-      </c>
-      <c r="E4">
-        <v>22.312000000000001</v>
-      </c>
-      <c r="F4">
-        <v>21.472000000000001</v>
-      </c>
-      <c r="G4">
-        <v>21.995000000000001</v>
-      </c>
-      <c r="H4">
-        <v>21.646000000000001</v>
-      </c>
-      <c r="I4">
-        <v>18.347999999999999</v>
-      </c>
-      <c r="J4">
-        <v>18.626999999999999</v>
-      </c>
-      <c r="K4">
-        <v>18.641999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>250</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>25.013999999999999</v>
-      </c>
-      <c r="D5">
-        <v>24.978999999999999</v>
-      </c>
-      <c r="E5">
-        <v>24.96</v>
-      </c>
-      <c r="F5">
-        <v>23.535</v>
-      </c>
-      <c r="G5">
-        <v>24.058</v>
-      </c>
-      <c r="H5">
-        <v>24.33</v>
-      </c>
-      <c r="I5">
-        <v>19.436</v>
-      </c>
-      <c r="J5">
-        <v>19.638999999999999</v>
-      </c>
-      <c r="K5">
-        <v>19.643000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>100</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>25.898</v>
-      </c>
-      <c r="D6">
-        <v>25.805</v>
-      </c>
-      <c r="E6">
-        <v>25.861999999999998</v>
-      </c>
-      <c r="F6">
-        <v>22.154</v>
-      </c>
-      <c r="G6">
-        <v>22.439</v>
-      </c>
-      <c r="H6">
-        <v>22.491</v>
-      </c>
-      <c r="I6">
-        <v>19.077999999999999</v>
-      </c>
-      <c r="J6">
-        <v>19.312000000000001</v>
-      </c>
-      <c r="K6">
-        <v>19.210999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>100</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>26.981999999999999</v>
-      </c>
-      <c r="D7">
-        <v>27.073</v>
-      </c>
-      <c r="E7">
-        <v>27.061</v>
-      </c>
-      <c r="F7">
-        <v>22.808</v>
-      </c>
-      <c r="G7">
-        <v>23.53</v>
-      </c>
-      <c r="H7">
-        <v>23.64</v>
-      </c>
-      <c r="I7">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="J7">
-        <v>19.445</v>
-      </c>
-      <c r="K7">
-        <v>19.850000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>27.181999999999999</v>
-      </c>
-      <c r="D8">
-        <v>27.613</v>
-      </c>
-      <c r="E8">
-        <v>27.539000000000001</v>
-      </c>
-      <c r="F8">
-        <v>21.885999999999999</v>
-      </c>
-      <c r="G8">
-        <v>22.588000000000001</v>
-      </c>
-      <c r="H8">
-        <v>22.645</v>
-      </c>
-      <c r="I8">
-        <v>19.11</v>
-      </c>
-      <c r="J8">
-        <v>19.535</v>
-      </c>
-      <c r="K8">
-        <v>19.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>28.201000000000001</v>
-      </c>
-      <c r="D9">
-        <v>28.497</v>
-      </c>
-      <c r="E9">
-        <v>28.321000000000002</v>
-      </c>
-      <c r="F9">
-        <v>22.675999999999998</v>
-      </c>
-      <c r="G9">
-        <v>23.145</v>
-      </c>
-      <c r="H9">
-        <v>23.405999999999999</v>
-      </c>
-      <c r="I9">
-        <v>19.52</v>
-      </c>
-      <c r="J9">
-        <v>19.960999999999999</v>
-      </c>
-      <c r="K9">
-        <v>19.911000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>29.75</v>
-      </c>
-      <c r="D10">
-        <v>29.402000000000001</v>
-      </c>
-      <c r="E10">
-        <v>29.437000000000001</v>
-      </c>
-      <c r="F10">
-        <v>23.094999999999999</v>
-      </c>
-      <c r="G10">
-        <v>23.253</v>
-      </c>
-      <c r="H10">
-        <v>23.207999999999998</v>
-      </c>
-      <c r="I10">
-        <v>19.962</v>
-      </c>
-      <c r="J10">
-        <v>20.428999999999998</v>
-      </c>
-      <c r="K10">
-        <v>20.222999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>29.722999999999999</v>
-      </c>
-      <c r="D11">
-        <v>30.023</v>
-      </c>
-      <c r="E11">
-        <v>30.123000000000001</v>
-      </c>
-      <c r="F11">
-        <v>23.484000000000002</v>
-      </c>
-      <c r="G11">
-        <v>24.135000000000002</v>
-      </c>
-      <c r="H11">
-        <v>23.919</v>
-      </c>
-      <c r="I11">
-        <v>20.184000000000001</v>
-      </c>
-      <c r="J11">
-        <v>20.635999999999999</v>
-      </c>
-      <c r="K11">
-        <v>20.434000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>31.071999999999999</v>
-      </c>
-      <c r="D12">
-        <v>31.244</v>
-      </c>
-      <c r="E12">
-        <v>31.018999999999998</v>
-      </c>
-      <c r="F12">
-        <v>23.524999999999999</v>
-      </c>
-      <c r="G12">
-        <v>23.940999999999999</v>
-      </c>
-      <c r="H12">
-        <v>23.974</v>
-      </c>
-      <c r="I12">
-        <v>20.283000000000001</v>
-      </c>
-      <c r="J12">
-        <v>20.47</v>
-      </c>
-      <c r="K12">
-        <v>20.536999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>32.613999999999997</v>
-      </c>
-      <c r="D13">
-        <v>32.377000000000002</v>
-      </c>
-      <c r="E13">
-        <v>32.726999999999997</v>
-      </c>
-      <c r="F13">
-        <v>24.481999999999999</v>
-      </c>
-      <c r="G13">
-        <v>25.114000000000001</v>
-      </c>
-      <c r="H13">
-        <v>24.652999999999999</v>
-      </c>
-      <c r="I13">
-        <v>20.672000000000001</v>
-      </c>
-      <c r="J13">
-        <v>21.045999999999999</v>
-      </c>
-      <c r="K13">
-        <v>20.974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>29.53</v>
-      </c>
-      <c r="D14">
-        <v>30.065999999999999</v>
-      </c>
-      <c r="E14">
-        <v>29.594999999999999</v>
-      </c>
-      <c r="F14">
-        <v>22.175999999999998</v>
-      </c>
-      <c r="G14">
-        <v>22.82</v>
-      </c>
-      <c r="H14">
-        <v>22.605</v>
-      </c>
-      <c r="I14">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="J14">
-        <v>20.033000000000001</v>
-      </c>
-      <c r="K14">
-        <v>19.826000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>30.440999999999999</v>
-      </c>
-      <c r="D15">
-        <v>31.347999999999999</v>
-      </c>
-      <c r="E15">
-        <v>30.904</v>
-      </c>
-      <c r="F15">
-        <v>23.074999999999999</v>
-      </c>
-      <c r="G15">
-        <v>23.78</v>
-      </c>
-      <c r="H15">
-        <v>23.747</v>
-      </c>
-      <c r="I15">
-        <v>20.053999999999998</v>
-      </c>
-      <c r="J15">
-        <v>20.530999999999999</v>
-      </c>
-      <c r="K15">
-        <v>20.471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>32.03</v>
-      </c>
-      <c r="D16">
-        <v>32.418999999999997</v>
-      </c>
-      <c r="E16">
-        <v>32.213000000000001</v>
-      </c>
-      <c r="F16">
-        <v>24.335000000000001</v>
-      </c>
-      <c r="G16">
-        <v>24.466000000000001</v>
-      </c>
-      <c r="H16">
-        <v>24.635000000000002</v>
-      </c>
-      <c r="I16">
-        <v>20.488</v>
-      </c>
-      <c r="J16">
-        <v>20.904</v>
-      </c>
-      <c r="K16">
-        <v>20.806000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>31.72</v>
-      </c>
-      <c r="D17">
-        <v>31.96</v>
-      </c>
-      <c r="E17">
-        <v>32.527000000000001</v>
-      </c>
-      <c r="F17">
-        <v>24.14</v>
-      </c>
-      <c r="G17">
-        <v>24.565000000000001</v>
-      </c>
-      <c r="H17">
-        <v>24.433</v>
-      </c>
-      <c r="I17">
-        <v>20.504000000000001</v>
-      </c>
-      <c r="J17">
-        <v>20.719000000000001</v>
-      </c>
-      <c r="K17">
-        <v>20.786999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>30.765000000000001</v>
-      </c>
-      <c r="E18">
-        <v>30.556000000000001</v>
-      </c>
-      <c r="F18">
-        <v>22.198</v>
-      </c>
-      <c r="G18">
-        <v>22.709</v>
-      </c>
-      <c r="H18">
-        <v>22.587</v>
-      </c>
-      <c r="I18">
-        <v>19.417999999999999</v>
-      </c>
-      <c r="J18">
-        <v>19.817</v>
-      </c>
-      <c r="K18">
-        <v>19.760999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>30.584</v>
-      </c>
-      <c r="D19">
-        <v>31.004999999999999</v>
-      </c>
-      <c r="E19">
-        <v>30.946999999999999</v>
-      </c>
-      <c r="F19">
-        <v>23.244</v>
-      </c>
-      <c r="G19">
-        <v>23.233000000000001</v>
-      </c>
-      <c r="H19">
-        <v>23.268000000000001</v>
-      </c>
-      <c r="I19">
-        <v>19.678000000000001</v>
-      </c>
-      <c r="J19">
-        <v>20.257999999999999</v>
-      </c>
-      <c r="K19">
-        <v>20.058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>29.890999999999998</v>
-      </c>
-      <c r="D20">
-        <v>30.077999999999999</v>
-      </c>
-      <c r="E20">
-        <v>30.033000000000001</v>
-      </c>
-      <c r="F20">
-        <v>21.856000000000002</v>
-      </c>
-      <c r="G20">
-        <v>22.33</v>
-      </c>
-      <c r="H20">
-        <v>22.285</v>
-      </c>
-      <c r="I20">
-        <v>19.376999999999999</v>
-      </c>
-      <c r="J20">
-        <v>19.7</v>
-      </c>
-      <c r="K20">
-        <v>19.623999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>30.998999999999999</v>
-      </c>
-      <c r="D21">
-        <v>31.094999999999999</v>
-      </c>
-      <c r="E21">
-        <v>31.728999999999999</v>
-      </c>
-      <c r="F21">
-        <v>22.725000000000001</v>
-      </c>
-      <c r="G21">
-        <v>23.414000000000001</v>
-      </c>
-      <c r="H21">
-        <v>23.433</v>
-      </c>
-      <c r="I21">
-        <v>20.012</v>
-      </c>
-      <c r="J21">
-        <v>20.295999999999999</v>
-      </c>
-      <c r="K21">
-        <v>20.530999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>30.998999999999999</v>
-      </c>
-      <c r="D22">
-        <v>31.556000000000001</v>
-      </c>
-      <c r="E22">
-        <v>31.350999999999999</v>
-      </c>
-      <c r="F22">
-        <v>22.504000000000001</v>
-      </c>
-      <c r="G22">
-        <v>23.27</v>
-      </c>
-      <c r="H22">
-        <v>23.117999999999999</v>
-      </c>
-      <c r="I22">
-        <v>19.890999999999998</v>
-      </c>
-      <c r="J22">
-        <v>19.925999999999998</v>
-      </c>
-      <c r="K22">
-        <v>20.015000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>33.966000000000001</v>
-      </c>
-      <c r="D23">
-        <v>34.927999999999997</v>
-      </c>
-      <c r="F23">
-        <v>27.358000000000001</v>
-      </c>
-      <c r="G23">
-        <v>27.15</v>
-      </c>
-      <c r="H23">
-        <v>26.324999999999999</v>
-      </c>
-      <c r="I23">
-        <v>21.577000000000002</v>
-      </c>
-      <c r="J23">
-        <v>21.963000000000001</v>
-      </c>
-      <c r="K23">
-        <v>22.006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFC6C03-9786-6D4A-A3F3-1B3C2E573F72}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -8581,7 +6382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -9610,2423 +7411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E20598-EF4B-0E4B-A027-C4FC157A9353}">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>14.265000000000001</v>
-      </c>
-      <c r="D4" s="5">
-        <v>14.49</v>
-      </c>
-      <c r="E4" s="5">
-        <v>14.571</v>
-      </c>
-      <c r="F4" s="5">
-        <v>21.116</v>
-      </c>
-      <c r="G4" s="5">
-        <v>21.675000000000001</v>
-      </c>
-      <c r="H4" s="5">
-        <v>21.478999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>22.919</v>
-      </c>
-      <c r="D5" s="5">
-        <v>22.936</v>
-      </c>
-      <c r="E5" s="5">
-        <v>22.952999999999999</v>
-      </c>
-      <c r="F5" s="5">
-        <v>29.393999999999998</v>
-      </c>
-      <c r="G5" s="5">
-        <v>29.747</v>
-      </c>
-      <c r="H5" s="5">
-        <v>29.594999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>500</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>16.015999999999998</v>
-      </c>
-      <c r="D6" s="5">
-        <v>16.338000000000001</v>
-      </c>
-      <c r="E6" s="5">
-        <v>16.29</v>
-      </c>
-      <c r="F6" s="5">
-        <v>21.035</v>
-      </c>
-      <c r="G6" s="5">
-        <v>21.323</v>
-      </c>
-      <c r="H6" s="5">
-        <v>21.353000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>500</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>19.942</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20.215</v>
-      </c>
-      <c r="E7" s="5">
-        <v>20.16</v>
-      </c>
-      <c r="F7" s="5">
-        <v>23.928999999999998</v>
-      </c>
-      <c r="G7" s="5">
-        <v>24.292000000000002</v>
-      </c>
-      <c r="H7" s="5">
-        <v>24.324999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>250</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>13.968</v>
-      </c>
-      <c r="D8" s="5">
-        <v>14.000999999999999</v>
-      </c>
-      <c r="E8" s="5">
-        <v>13.855</v>
-      </c>
-      <c r="F8" s="5">
-        <v>16.367999999999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>16.658000000000001</v>
-      </c>
-      <c r="H8" s="5">
-        <v>16.765000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>250</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>19.876999999999999</v>
-      </c>
-      <c r="D9" s="5">
-        <v>19.925999999999998</v>
-      </c>
-      <c r="E9" s="5">
-        <v>19.911999999999999</v>
-      </c>
-      <c r="F9" s="5">
-        <v>21.234000000000002</v>
-      </c>
-      <c r="G9" s="5">
-        <v>21.66</v>
-      </c>
-      <c r="H9" s="5">
-        <v>21.727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>100</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>17.198</v>
-      </c>
-      <c r="D10" s="5">
-        <v>17.498000000000001</v>
-      </c>
-      <c r="E10" s="5">
-        <v>17.312000000000001</v>
-      </c>
-      <c r="F10" s="5">
-        <v>17.353000000000002</v>
-      </c>
-      <c r="G10" s="5">
-        <v>17.669</v>
-      </c>
-      <c r="H10" s="5">
-        <v>17.696999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>100</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>23.285</v>
-      </c>
-      <c r="D11" s="5">
-        <v>23.125</v>
-      </c>
-      <c r="E11" s="5">
-        <v>23.289000000000001</v>
-      </c>
-      <c r="F11" s="5">
-        <v>22.300999999999998</v>
-      </c>
-      <c r="G11" s="5">
-        <v>22.719000000000001</v>
-      </c>
-      <c r="H11" s="5">
-        <v>22.774999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>20.492999999999999</v>
-      </c>
-      <c r="D12" s="5">
-        <v>20.349</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20.417000000000002</v>
-      </c>
-      <c r="F12" s="5">
-        <v>18.640999999999998</v>
-      </c>
-      <c r="G12" s="5">
-        <v>19.427</v>
-      </c>
-      <c r="H12" s="5">
-        <v>19.436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>23.475000000000001</v>
-      </c>
-      <c r="D13" s="5">
-        <v>23.196999999999999</v>
-      </c>
-      <c r="E13" s="5">
-        <v>23.154</v>
-      </c>
-      <c r="F13" s="5">
-        <v>21.103000000000002</v>
-      </c>
-      <c r="G13" s="5">
-        <v>21.7</v>
-      </c>
-      <c r="H13" s="5">
-        <v>21.946000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>27.402000000000001</v>
-      </c>
-      <c r="D14" s="5">
-        <v>27.824999999999999</v>
-      </c>
-      <c r="E14" s="5">
-        <v>27.216000000000001</v>
-      </c>
-      <c r="F14" s="5">
-        <v>23.981999999999999</v>
-      </c>
-      <c r="G14" s="5">
-        <v>24.718</v>
-      </c>
-      <c r="H14" s="5">
-        <v>23.684000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>21.83</v>
-      </c>
-      <c r="D15" s="5">
-        <v>21.931999999999999</v>
-      </c>
-      <c r="E15" s="5">
-        <v>21.794</v>
-      </c>
-      <c r="F15" s="5">
-        <v>19.361000000000001</v>
-      </c>
-      <c r="G15" s="5">
-        <v>19.542999999999999</v>
-      </c>
-      <c r="H15" s="5">
-        <v>18.462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>20.457999999999998</v>
-      </c>
-      <c r="D16" s="5">
-        <v>20.561</v>
-      </c>
-      <c r="E16" s="5">
-        <v>20.599</v>
-      </c>
-      <c r="F16" s="5">
-        <v>16.963000000000001</v>
-      </c>
-      <c r="G16" s="5">
-        <v>17.231000000000002</v>
-      </c>
-      <c r="H16" s="5">
-        <v>17.36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5">
-        <v>21.946999999999999</v>
-      </c>
-      <c r="D17" s="5">
-        <v>22.114999999999998</v>
-      </c>
-      <c r="E17" s="5">
-        <v>22.076000000000001</v>
-      </c>
-      <c r="F17" s="5">
-        <v>18.43</v>
-      </c>
-      <c r="G17" s="5">
-        <v>18.588999999999999</v>
-      </c>
-      <c r="H17" s="5">
-        <v>18.963999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>22.109000000000002</v>
-      </c>
-      <c r="D18" s="5">
-        <v>22.021000000000001</v>
-      </c>
-      <c r="E18" s="5">
-        <v>22.018999999999998</v>
-      </c>
-      <c r="F18" s="5">
-        <v>18.001000000000001</v>
-      </c>
-      <c r="G18" s="5">
-        <v>18.175999999999998</v>
-      </c>
-      <c r="H18" s="5">
-        <v>18.225000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>21.64</v>
-      </c>
-      <c r="D19" s="5">
-        <v>21.231000000000002</v>
-      </c>
-      <c r="E19" s="5">
-        <v>21.393999999999998</v>
-      </c>
-      <c r="F19" s="5">
-        <v>17.452999999999999</v>
-      </c>
-      <c r="G19" s="5">
-        <v>17.895</v>
-      </c>
-      <c r="H19" s="5">
-        <v>17.960999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>20.562000000000001</v>
-      </c>
-      <c r="D20" s="5">
-        <v>20.690999999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <v>20.597000000000001</v>
-      </c>
-      <c r="F20" s="5">
-        <v>16.056000000000001</v>
-      </c>
-      <c r="G20" s="5">
-        <v>16.355</v>
-      </c>
-      <c r="H20" s="5">
-        <v>16.57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5">
-        <v>24.289000000000001</v>
-      </c>
-      <c r="D21" s="5">
-        <v>24.431999999999999</v>
-      </c>
-      <c r="E21" s="5">
-        <v>24.577999999999999</v>
-      </c>
-      <c r="F21" s="5">
-        <v>19.376999999999999</v>
-      </c>
-      <c r="G21" s="5">
-        <v>19.888999999999999</v>
-      </c>
-      <c r="H21" s="5">
-        <v>19.97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>21.991</v>
-      </c>
-      <c r="D22" s="5">
-        <v>22.158999999999999</v>
-      </c>
-      <c r="E22" s="5">
-        <v>22.016999999999999</v>
-      </c>
-      <c r="F22" s="5">
-        <v>17.593</v>
-      </c>
-      <c r="G22" s="5">
-        <v>17.625</v>
-      </c>
-      <c r="H22" s="5">
-        <v>17.550999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="5">
-        <v>24.667000000000002</v>
-      </c>
-      <c r="D23" s="5">
-        <v>24.544</v>
-      </c>
-      <c r="E23" s="5">
-        <v>24.481000000000002</v>
-      </c>
-      <c r="F23" s="5">
-        <v>19.353000000000002</v>
-      </c>
-      <c r="G23" s="5">
-        <v>19.704000000000001</v>
-      </c>
-      <c r="H23" s="5">
-        <v>19.917000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5">
-        <v>21.530999999999999</v>
-      </c>
-      <c r="D24" s="5">
-        <v>21.475000000000001</v>
-      </c>
-      <c r="E24" s="5">
-        <v>21.294</v>
-      </c>
-      <c r="F24" s="5">
-        <v>16.623999999999999</v>
-      </c>
-      <c r="G24" s="5">
-        <v>16.978000000000002</v>
-      </c>
-      <c r="H24" s="5">
-        <v>16.919</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5">
-        <v>24.695</v>
-      </c>
-      <c r="D25" s="5">
-        <v>24.757000000000001</v>
-      </c>
-      <c r="E25" s="5">
-        <v>24.51</v>
-      </c>
-      <c r="F25" s="5">
-        <v>19.452999999999999</v>
-      </c>
-      <c r="G25" s="5">
-        <v>19.614999999999998</v>
-      </c>
-      <c r="H25" s="5">
-        <v>19.696000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>19.617999999999999</v>
-      </c>
-      <c r="D26" s="5">
-        <v>19.635000000000002</v>
-      </c>
-      <c r="E26" s="5">
-        <v>19.917999999999999</v>
-      </c>
-      <c r="F26" s="5">
-        <v>15.153</v>
-      </c>
-      <c r="G26" s="5">
-        <v>15.441000000000001</v>
-      </c>
-      <c r="H26" s="5">
-        <v>15.547000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>19.137</v>
-      </c>
-      <c r="D27" s="5">
-        <v>19.419</v>
-      </c>
-      <c r="E27" s="5">
-        <v>19.367999999999999</v>
-      </c>
-      <c r="F27" s="5">
-        <v>14.343999999999999</v>
-      </c>
-      <c r="G27" s="5">
-        <v>15.085000000000001</v>
-      </c>
-      <c r="H27" s="5">
-        <v>14.71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1366DFFB-D11C-804C-BE53-55A5F9EDDD27}">
-  <dimension ref="A1:J29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>21.748470000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>21.611630000000002</v>
-      </c>
-      <c r="E4" s="2">
-        <v>21.791747999999998</v>
-      </c>
-      <c r="F4" s="2">
-        <v>21.755852000000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>29.344377999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>29.605222999999999</v>
-      </c>
-      <c r="I4" s="2">
-        <v>29.423200000000001</v>
-      </c>
-      <c r="J4" s="2">
-        <v>29.342281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>21.474416999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>21.511303000000002</v>
-      </c>
-      <c r="E5" s="2">
-        <v>21.549122000000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>21.415994999999999</v>
-      </c>
-      <c r="G5" s="2">
-        <v>29.494457000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>29.275331000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>29.404045</v>
-      </c>
-      <c r="J5" s="2">
-        <v>29.103546000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>500</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>21.640501</v>
-      </c>
-      <c r="D6" s="2">
-        <v>21.62059</v>
-      </c>
-      <c r="E6" s="2">
-        <v>21.840841000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>21.789231999999998</v>
-      </c>
-      <c r="G6" s="2">
-        <v>28.601341000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>28.574819999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>28.8916</v>
-      </c>
-      <c r="J6" s="2">
-        <v>28.719975999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>500</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>21.638895000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <v>21.670114999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>21.969577999999998</v>
-      </c>
-      <c r="F7" s="2">
-        <v>21.732903</v>
-      </c>
-      <c r="G7" s="2">
-        <v>28.710820999999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>28.412763999999999</v>
-      </c>
-      <c r="I7" s="2">
-        <v>29.004733999999999</v>
-      </c>
-      <c r="J7" s="2">
-        <v>28.770493999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>250</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>21.981838</v>
-      </c>
-      <c r="D8" s="2">
-        <v>21.669993999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>22.161149999999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>21.800975999999999</v>
-      </c>
-      <c r="G8" s="2">
-        <v>27.27553</v>
-      </c>
-      <c r="H8" s="2">
-        <v>27.267856999999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>27.545908000000001</v>
-      </c>
-      <c r="J8" s="2">
-        <v>27.323405999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>250</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>21.907297</v>
-      </c>
-      <c r="D9" s="2">
-        <v>21.787424000000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>22.090911999999999</v>
-      </c>
-      <c r="F9" s="2">
-        <v>21.630534999999998</v>
-      </c>
-      <c r="G9" s="2">
-        <v>27.396930000000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>27.025504999999999</v>
-      </c>
-      <c r="I9" s="2">
-        <v>27.440881999999998</v>
-      </c>
-      <c r="J9" s="2">
-        <v>27.260553000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>100</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>22.064194000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>22.061610999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>22.273883999999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>22.152287000000001</v>
-      </c>
-      <c r="G10" s="2">
-        <v>26.013876</v>
-      </c>
-      <c r="H10" s="2">
-        <v>25.959182999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>26.329260000000001</v>
-      </c>
-      <c r="J10" s="2">
-        <v>25.955438999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>100</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>22.530842</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22.428733999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>22.55265</v>
-      </c>
-      <c r="F11" s="2">
-        <v>22.317883999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>26.291163999999998</v>
-      </c>
-      <c r="H11" s="2">
-        <v>26.333314999999999</v>
-      </c>
-      <c r="I11" s="2">
-        <v>26.487086999999999</v>
-      </c>
-      <c r="J11" s="2">
-        <v>26.203040999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>23.068633999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>22.818549999999998</v>
-      </c>
-      <c r="E12" s="2">
-        <v>22.980509000000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>23.018872999999999</v>
-      </c>
-      <c r="G12" s="2">
-        <v>25.63691</v>
-      </c>
-      <c r="H12" s="2">
-        <v>25.687297999999998</v>
-      </c>
-      <c r="I12" s="2">
-        <v>25.863385999999998</v>
-      </c>
-      <c r="J12" s="2">
-        <v>25.675084999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>22.451460000000001</v>
-      </c>
-      <c r="D13" s="2">
-        <v>22.324133</v>
-      </c>
-      <c r="E13" s="2">
-        <v>22.327919000000001</v>
-      </c>
-      <c r="F13" s="2">
-        <v>22.158604</v>
-      </c>
-      <c r="G13" s="2">
-        <v>25.168139</v>
-      </c>
-      <c r="H13" s="2">
-        <v>24.948093</v>
-      </c>
-      <c r="I13" s="2">
-        <v>25.178864000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <v>24.991669999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>23.007739999999998</v>
-      </c>
-      <c r="D14" s="2">
-        <v>22.705220000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>22.782581</v>
-      </c>
-      <c r="F14" s="2">
-        <v>22.838871000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>24.876670000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>24.501508999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>24.765616999999999</v>
-      </c>
-      <c r="J14" s="2">
-        <v>24.944739999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>22.848542999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>23.014084</v>
-      </c>
-      <c r="E15" s="2">
-        <v>23.048113000000001</v>
-      </c>
-      <c r="F15" s="2">
-        <v>22.728187999999999</v>
-      </c>
-      <c r="G15" s="2">
-        <v>24.747776000000002</v>
-      </c>
-      <c r="H15" s="2">
-        <v>24.830214999999999</v>
-      </c>
-      <c r="I15" s="2">
-        <v>25.065239999999999</v>
-      </c>
-      <c r="J15" s="2">
-        <v>24.839957999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>23.025587000000002</v>
-      </c>
-      <c r="D16" s="2">
-        <v>22.665649999999999</v>
-      </c>
-      <c r="E16" s="2">
-        <v>22.776453</v>
-      </c>
-      <c r="F16" s="2">
-        <v>22.710802000000001</v>
-      </c>
-      <c r="G16" s="2">
-        <v>23.987673000000001</v>
-      </c>
-      <c r="H16" s="2">
-        <v>23.938797000000001</v>
-      </c>
-      <c r="I16" s="2">
-        <v>23.924123999999999</v>
-      </c>
-      <c r="J16" s="2">
-        <v>24.086676000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>22.381384000000001</v>
-      </c>
-      <c r="D17" s="2">
-        <v>22.505623</v>
-      </c>
-      <c r="E17" s="2">
-        <v>22.586517000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>22.21133</v>
-      </c>
-      <c r="G17" s="2">
-        <v>23.786963</v>
-      </c>
-      <c r="H17" s="2">
-        <v>23.796364000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>23.961110000000001</v>
-      </c>
-      <c r="J17" s="2">
-        <v>23.752098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>23.032302999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <v>23.06916</v>
-      </c>
-      <c r="E18" s="2">
-        <v>22.956049</v>
-      </c>
-      <c r="F18" s="2">
-        <v>22.852528</v>
-      </c>
-      <c r="G18" s="2">
-        <v>23.896782000000002</v>
-      </c>
-      <c r="H18" s="2">
-        <v>23.9132</v>
-      </c>
-      <c r="I18" s="2">
-        <v>23.884388000000001</v>
-      </c>
-      <c r="J18" s="2">
-        <v>23.586995999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>23.215630999999998</v>
-      </c>
-      <c r="D19" s="2">
-        <v>23.145350000000001</v>
-      </c>
-      <c r="E19" s="2">
-        <v>23.291124</v>
-      </c>
-      <c r="F19" s="2">
-        <v>23.230295000000002</v>
-      </c>
-      <c r="G19" s="2">
-        <v>24.037389999999998</v>
-      </c>
-      <c r="H19" s="2">
-        <v>24.182718000000001</v>
-      </c>
-      <c r="I19" s="2">
-        <v>24.201215999999999</v>
-      </c>
-      <c r="J19" s="2">
-        <v>24.071884000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>22.694106999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>22.84375</v>
-      </c>
-      <c r="E20" s="2">
-        <v>23.019549999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>22.716383</v>
-      </c>
-      <c r="G20" s="2">
-        <v>23.62396</v>
-      </c>
-      <c r="H20" s="2">
-        <v>23.854102999999999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>23.531101</v>
-      </c>
-      <c r="J20" s="2">
-        <v>23.683810000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>23.0746</v>
-      </c>
-      <c r="D21" s="2">
-        <v>22.996511000000002</v>
-      </c>
-      <c r="E21" s="2">
-        <v>22.965585999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>22.94219</v>
-      </c>
-      <c r="G21" s="2">
-        <v>23.659289999999999</v>
-      </c>
-      <c r="H21" s="2">
-        <v>23.628360000000001</v>
-      </c>
-      <c r="I21" s="2">
-        <v>23.609959</v>
-      </c>
-      <c r="J21" s="2">
-        <v>23.684649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>23.015041</v>
-      </c>
-      <c r="D22" s="2">
-        <v>22.968073</v>
-      </c>
-      <c r="E22" s="2">
-        <v>22.851237999999999</v>
-      </c>
-      <c r="F22" s="2">
-        <v>22.990055000000002</v>
-      </c>
-      <c r="G22" s="2">
-        <v>23.507529999999999</v>
-      </c>
-      <c r="H22" s="2">
-        <v>23.685452999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>23.585315999999999</v>
-      </c>
-      <c r="J22" s="2">
-        <v>23.49437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>22.859774000000002</v>
-      </c>
-      <c r="D23" s="2">
-        <v>22.739346999999999</v>
-      </c>
-      <c r="E23" s="2">
-        <v>23.087730000000001</v>
-      </c>
-      <c r="F23" s="2">
-        <v>22.441155999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <v>23.749407000000001</v>
-      </c>
-      <c r="H23" s="2">
-        <v>23.675713999999999</v>
-      </c>
-      <c r="I23" s="2">
-        <v>23.496658</v>
-      </c>
-      <c r="J23" s="2">
-        <v>23.390416999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>22.681725</v>
-      </c>
-      <c r="D24" s="2">
-        <v>22.659604999999999</v>
-      </c>
-      <c r="E24" s="2">
-        <v>22.976467</v>
-      </c>
-      <c r="F24" s="2">
-        <v>22.863624999999999</v>
-      </c>
-      <c r="G24" s="2">
-        <v>23.600166000000002</v>
-      </c>
-      <c r="H24" s="2">
-        <v>23.394376999999999</v>
-      </c>
-      <c r="I24" s="2">
-        <v>23.346423999999999</v>
-      </c>
-      <c r="J24" s="2">
-        <v>23.383679999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>23.315317</v>
-      </c>
-      <c r="D25" s="2">
-        <v>23.145451999999999</v>
-      </c>
-      <c r="E25" s="2">
-        <v>23.396090999999998</v>
-      </c>
-      <c r="F25" s="2">
-        <v>23.190328999999998</v>
-      </c>
-      <c r="G25" s="2">
-        <v>24.006810000000002</v>
-      </c>
-      <c r="H25" s="2">
-        <v>23.842623</v>
-      </c>
-      <c r="I25" s="2">
-        <v>24.016556000000001</v>
-      </c>
-      <c r="J25" s="2">
-        <v>23.838203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" ref="B26:B27" si="0">B24</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>23.894736999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <v>23.640965999999999</v>
-      </c>
-      <c r="E26" s="2">
-        <v>23.882750000000001</v>
-      </c>
-      <c r="F26" s="2">
-        <v>23.517582000000001</v>
-      </c>
-      <c r="G26" s="2">
-        <v>24.002731000000001</v>
-      </c>
-      <c r="H26" s="2">
-        <v>23.948264999999999</v>
-      </c>
-      <c r="I26" s="2">
-        <v>24.064779999999999</v>
-      </c>
-      <c r="J26" s="2">
-        <v>24.033318000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C27" s="2">
-        <v>23.98189</v>
-      </c>
-      <c r="D27" s="2">
-        <v>23.907634999999999</v>
-      </c>
-      <c r="E27" s="2">
-        <v>23.829274999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>23.677112999999999</v>
-      </c>
-      <c r="G27" s="2">
-        <v>24.402752</v>
-      </c>
-      <c r="H27" s="2">
-        <v>24.50996</v>
-      </c>
-      <c r="I27" s="2">
-        <v>24.386862000000001</v>
-      </c>
-      <c r="J27" s="2">
-        <v>24.216429999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2">
-        <v>24.207176</v>
-      </c>
-      <c r="D28" s="2">
-        <v>24.212430000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>24.096785000000001</v>
-      </c>
-      <c r="F28" s="2">
-        <v>24.508572000000001</v>
-      </c>
-      <c r="G28" s="2">
-        <v>24.514365999999999</v>
-      </c>
-      <c r="H28" s="2">
-        <v>24.72401</v>
-      </c>
-      <c r="I28" s="2">
-        <v>24.665955</v>
-      </c>
-      <c r="J28" s="2">
-        <v>24.596084999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2">
-        <v>24.370609999999999</v>
-      </c>
-      <c r="D29" s="2">
-        <v>24.073485999999999</v>
-      </c>
-      <c r="E29" s="2">
-        <v>24.054829999999999</v>
-      </c>
-      <c r="F29" s="2">
-        <v>23.893024</v>
-      </c>
-      <c r="G29" s="2">
-        <v>24.435016999999998</v>
-      </c>
-      <c r="H29" s="2">
-        <v>24.347998</v>
-      </c>
-      <c r="I29" s="2">
-        <v>24.53098</v>
-      </c>
-      <c r="J29" s="2">
-        <v>24.606777000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33959B23-FE30-B849-83F6-7475476F4B6E}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>250</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>21.082999999999998</v>
-      </c>
-      <c r="D4">
-        <v>20.776</v>
-      </c>
-      <c r="E4">
-        <v>21.06</v>
-      </c>
-      <c r="F4">
-        <v>24.210999999999999</v>
-      </c>
-      <c r="G4">
-        <v>24.177</v>
-      </c>
-      <c r="H4">
-        <v>24.068999999999999</v>
-      </c>
-      <c r="I4">
-        <v>18.951000000000001</v>
-      </c>
-      <c r="J4">
-        <v>18.858000000000001</v>
-      </c>
-      <c r="K4">
-        <v>18.727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>250</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>20.332000000000001</v>
-      </c>
-      <c r="D5">
-        <v>20.597999999999999</v>
-      </c>
-      <c r="E5">
-        <v>20.428000000000001</v>
-      </c>
-      <c r="F5">
-        <v>23.457000000000001</v>
-      </c>
-      <c r="G5">
-        <v>23.719000000000001</v>
-      </c>
-      <c r="H5">
-        <v>23.498000000000001</v>
-      </c>
-      <c r="I5">
-        <v>18.800999999999998</v>
-      </c>
-      <c r="J5">
-        <v>18.651</v>
-      </c>
-      <c r="K5">
-        <v>18.707999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>100</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>21.812999999999999</v>
-      </c>
-      <c r="D6">
-        <v>21.687000000000001</v>
-      </c>
-      <c r="E6">
-        <v>21.783000000000001</v>
-      </c>
-      <c r="F6">
-        <v>22.561</v>
-      </c>
-      <c r="G6">
-        <v>22.736000000000001</v>
-      </c>
-      <c r="H6">
-        <v>22.478999999999999</v>
-      </c>
-      <c r="I6">
-        <v>18.539000000000001</v>
-      </c>
-      <c r="J6">
-        <v>18.638000000000002</v>
-      </c>
-      <c r="K6">
-        <v>18.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>100</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>21.219000000000001</v>
-      </c>
-      <c r="D7">
-        <v>21.329000000000001</v>
-      </c>
-      <c r="E7">
-        <v>21.382000000000001</v>
-      </c>
-      <c r="F7">
-        <v>22.373999999999999</v>
-      </c>
-      <c r="G7">
-        <v>22.579000000000001</v>
-      </c>
-      <c r="H7">
-        <v>22.369</v>
-      </c>
-      <c r="I7">
-        <v>18.484999999999999</v>
-      </c>
-      <c r="J7">
-        <v>18.542000000000002</v>
-      </c>
-      <c r="K7">
-        <v>18.536000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>21.954000000000001</v>
-      </c>
-      <c r="D8">
-        <v>21.965</v>
-      </c>
-      <c r="E8">
-        <v>21.943999999999999</v>
-      </c>
-      <c r="F8">
-        <v>21.210999999999999</v>
-      </c>
-      <c r="G8">
-        <v>21.573</v>
-      </c>
-      <c r="H8">
-        <v>21.416</v>
-      </c>
-      <c r="I8">
-        <v>18.344000000000001</v>
-      </c>
-      <c r="J8">
-        <v>18.303000000000001</v>
-      </c>
-      <c r="K8">
-        <v>18.475999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>21.503</v>
-      </c>
-      <c r="D9">
-        <v>21.597000000000001</v>
-      </c>
-      <c r="E9">
-        <v>21.605</v>
-      </c>
-      <c r="F9">
-        <v>21.178999999999998</v>
-      </c>
-      <c r="G9">
-        <v>21.256</v>
-      </c>
-      <c r="H9">
-        <v>21.167999999999999</v>
-      </c>
-      <c r="I9">
-        <v>18.236999999999998</v>
-      </c>
-      <c r="J9">
-        <v>18.201000000000001</v>
-      </c>
-      <c r="K9">
-        <v>18.170000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>22.954999999999998</v>
-      </c>
-      <c r="D10">
-        <v>23.055</v>
-      </c>
-      <c r="E10">
-        <v>22.957999999999998</v>
-      </c>
-      <c r="F10">
-        <v>20.992999999999999</v>
-      </c>
-      <c r="G10">
-        <v>21.244</v>
-      </c>
-      <c r="H10">
-        <v>21.044</v>
-      </c>
-      <c r="I10">
-        <v>18.608000000000001</v>
-      </c>
-      <c r="J10">
-        <v>18.579999999999998</v>
-      </c>
-      <c r="K10">
-        <v>18.475999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>23.297000000000001</v>
-      </c>
-      <c r="D11">
-        <v>23.492000000000001</v>
-      </c>
-      <c r="E11">
-        <v>23.446999999999999</v>
-      </c>
-      <c r="F11">
-        <v>21.239000000000001</v>
-      </c>
-      <c r="G11">
-        <v>21.709</v>
-      </c>
-      <c r="H11">
-        <v>21.515000000000001</v>
-      </c>
-      <c r="I11">
-        <v>18.988</v>
-      </c>
-      <c r="J11">
-        <v>19.106000000000002</v>
-      </c>
-      <c r="K11">
-        <v>18.916</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>25.1</v>
-      </c>
-      <c r="D12">
-        <v>25.216999999999999</v>
-      </c>
-      <c r="E12">
-        <v>25.137</v>
-      </c>
-      <c r="F12">
-        <v>21.391999999999999</v>
-      </c>
-      <c r="G12">
-        <v>21.526</v>
-      </c>
-      <c r="H12">
-        <v>21.658000000000001</v>
-      </c>
-      <c r="I12">
-        <v>18.46</v>
-      </c>
-      <c r="J12">
-        <v>18.619</v>
-      </c>
-      <c r="K12">
-        <v>18.635000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>24.254999999999999</v>
-      </c>
-      <c r="D13">
-        <v>24.395</v>
-      </c>
-      <c r="E13">
-        <v>24.238</v>
-      </c>
-      <c r="F13">
-        <v>21.041</v>
-      </c>
-      <c r="G13">
-        <v>21.459</v>
-      </c>
-      <c r="H13">
-        <v>21.015999999999998</v>
-      </c>
-      <c r="I13">
-        <v>18.687000000000001</v>
-      </c>
-      <c r="J13">
-        <v>18.960999999999999</v>
-      </c>
-      <c r="K13">
-        <v>18.988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>24.882999999999999</v>
-      </c>
-      <c r="D14">
-        <v>25.207000000000001</v>
-      </c>
-      <c r="E14">
-        <v>25.047000000000001</v>
-      </c>
-      <c r="F14">
-        <v>21.033000000000001</v>
-      </c>
-      <c r="G14">
-        <v>21.408000000000001</v>
-      </c>
-      <c r="H14">
-        <v>21.172000000000001</v>
-      </c>
-      <c r="I14">
-        <v>18.998999999999999</v>
-      </c>
-      <c r="J14">
-        <v>19.081</v>
-      </c>
-      <c r="K14">
-        <v>18.869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>25.393999999999998</v>
-      </c>
-      <c r="D15">
-        <v>25.606999999999999</v>
-      </c>
-      <c r="E15">
-        <v>25.498999999999999</v>
-      </c>
-      <c r="F15">
-        <v>21.494</v>
-      </c>
-      <c r="G15">
-        <v>21.547000000000001</v>
-      </c>
-      <c r="H15">
-        <v>21.364000000000001</v>
-      </c>
-      <c r="I15">
-        <v>19.111000000000001</v>
-      </c>
-      <c r="J15">
-        <v>19.186</v>
-      </c>
-      <c r="K15">
-        <v>18.995999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>25.629000000000001</v>
-      </c>
-      <c r="D16">
-        <v>25.734999999999999</v>
-      </c>
-      <c r="E16">
-        <v>25.553000000000001</v>
-      </c>
-      <c r="F16">
-        <v>21.545000000000002</v>
-      </c>
-      <c r="G16">
-        <v>21.843</v>
-      </c>
-      <c r="H16">
-        <v>21.370999999999999</v>
-      </c>
-      <c r="I16">
-        <v>19.370999999999999</v>
-      </c>
-      <c r="J16">
-        <v>19.617000000000001</v>
-      </c>
-      <c r="K16">
-        <v>19.231999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>25.96</v>
-      </c>
-      <c r="D17">
-        <v>25.98</v>
-      </c>
-      <c r="E17">
-        <v>25.748999999999999</v>
-      </c>
-      <c r="F17">
-        <v>21.518999999999998</v>
-      </c>
-      <c r="G17">
-        <v>22.023</v>
-      </c>
-      <c r="H17">
-        <v>21.494</v>
-      </c>
-      <c r="I17">
-        <v>19.276</v>
-      </c>
-      <c r="J17">
-        <v>19.341000000000001</v>
-      </c>
-      <c r="K17">
-        <v>19.178000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>25.577999999999999</v>
-      </c>
-      <c r="D18">
-        <v>25.696999999999999</v>
-      </c>
-      <c r="E18">
-        <v>25.712</v>
-      </c>
-      <c r="F18">
-        <v>21.390999999999998</v>
-      </c>
-      <c r="G18">
-        <v>21.100999999999999</v>
-      </c>
-      <c r="H18">
-        <v>21.331</v>
-      </c>
-      <c r="I18">
-        <v>19.085000000000001</v>
-      </c>
-      <c r="J18">
-        <v>19.129000000000001</v>
-      </c>
-      <c r="K18">
-        <v>18.811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>26.109000000000002</v>
-      </c>
-      <c r="D19">
-        <v>26.280999999999999</v>
-      </c>
-      <c r="E19">
-        <v>26.207999999999998</v>
-      </c>
-      <c r="F19">
-        <v>21.576000000000001</v>
-      </c>
-      <c r="G19">
-        <v>21.954000000000001</v>
-      </c>
-      <c r="H19">
-        <v>21.623999999999999</v>
-      </c>
-      <c r="I19">
-        <v>19.382000000000001</v>
-      </c>
-      <c r="J19">
-        <v>19.585000000000001</v>
-      </c>
-      <c r="K19">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>25.965</v>
-      </c>
-      <c r="D20">
-        <v>26.114000000000001</v>
-      </c>
-      <c r="E20">
-        <v>26.016999999999999</v>
-      </c>
-      <c r="F20">
-        <v>21.452000000000002</v>
-      </c>
-      <c r="G20">
-        <v>21.786999999999999</v>
-      </c>
-      <c r="H20">
-        <v>21.332000000000001</v>
-      </c>
-      <c r="I20">
-        <v>19.654</v>
-      </c>
-      <c r="J20">
-        <v>19.553999999999998</v>
-      </c>
-      <c r="K20">
-        <v>19.245999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>25.824999999999999</v>
-      </c>
-      <c r="D21">
-        <v>26.15</v>
-      </c>
-      <c r="E21">
-        <v>25.975000000000001</v>
-      </c>
-      <c r="F21">
-        <v>21.347000000000001</v>
-      </c>
-      <c r="G21">
-        <v>21.57</v>
-      </c>
-      <c r="H21">
-        <v>21.391999999999999</v>
-      </c>
-      <c r="I21">
-        <v>19.286000000000001</v>
-      </c>
-      <c r="J21">
-        <v>19.349</v>
-      </c>
-      <c r="K21">
-        <v>19.224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>26.446000000000002</v>
-      </c>
-      <c r="D22">
-        <v>26.710999999999999</v>
-      </c>
-      <c r="E22">
-        <v>26.707000000000001</v>
-      </c>
-      <c r="F22">
-        <v>21.818000000000001</v>
-      </c>
-      <c r="G22">
-        <v>22.097999999999999</v>
-      </c>
-      <c r="H22">
-        <v>22.010999999999999</v>
-      </c>
-      <c r="I22">
-        <v>19.277000000000001</v>
-      </c>
-      <c r="J22">
-        <v>19.234999999999999</v>
-      </c>
-      <c r="K22">
-        <v>19.329000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>31.422999999999998</v>
-      </c>
-      <c r="D23">
-        <v>31.588000000000001</v>
-      </c>
-      <c r="E23">
-        <v>31.614999999999998</v>
-      </c>
-      <c r="F23">
-        <v>26.059000000000001</v>
-      </c>
-      <c r="G23">
-        <v>26.167999999999999</v>
-      </c>
-      <c r="H23">
-        <v>25.966000000000001</v>
-      </c>
-      <c r="I23">
-        <v>23.321000000000002</v>
-      </c>
-      <c r="J23">
-        <v>23.372</v>
-      </c>
-      <c r="K23">
-        <v>23.509</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C60A1CF-B65C-6A42-8D9B-C9A94892C888}">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -12689,7 +8074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD61859-40F8-F040-8645-EF66320FB0AF}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -13456,7 +8841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFE5822-1204-F34C-91FF-B83178C7AB3E}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -14219,12 +9604,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53680B7-40C4-1A42-91FD-086317D9A0C9}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14860,788 +10245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D3D67-D204-0B4D-85B4-2988745C986C}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>250</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>23.434000000000001</v>
-      </c>
-      <c r="D4">
-        <v>23.614999999999998</v>
-      </c>
-      <c r="E4">
-        <v>23.481000000000002</v>
-      </c>
-      <c r="F4">
-        <v>29.949000000000002</v>
-      </c>
-      <c r="G4">
-        <v>30.195</v>
-      </c>
-      <c r="H4">
-        <v>30.556999999999999</v>
-      </c>
-      <c r="I4">
-        <v>21.062999999999999</v>
-      </c>
-      <c r="J4">
-        <v>21.3</v>
-      </c>
-      <c r="K4">
-        <v>21.28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>250</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>23.355</v>
-      </c>
-      <c r="D5">
-        <v>23.48</v>
-      </c>
-      <c r="E5">
-        <v>23.995999999999999</v>
-      </c>
-      <c r="F5">
-        <v>29.779</v>
-      </c>
-      <c r="G5">
-        <v>29.963999999999999</v>
-      </c>
-      <c r="H5">
-        <v>30.206</v>
-      </c>
-      <c r="I5">
-        <v>21.056000000000001</v>
-      </c>
-      <c r="J5">
-        <v>21.056999999999999</v>
-      </c>
-      <c r="K5">
-        <v>21.045999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>23.663</v>
-      </c>
-      <c r="D6">
-        <v>24.138000000000002</v>
-      </c>
-      <c r="E6">
-        <v>24.042000000000002</v>
-      </c>
-      <c r="F6">
-        <v>28.606000000000002</v>
-      </c>
-      <c r="G6">
-        <v>28.794</v>
-      </c>
-      <c r="H6">
-        <v>28.888000000000002</v>
-      </c>
-      <c r="I6">
-        <v>21.09</v>
-      </c>
-      <c r="J6">
-        <v>21.201000000000001</v>
-      </c>
-      <c r="K6">
-        <v>21.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>24.175000000000001</v>
-      </c>
-      <c r="D7">
-        <v>24.556999999999999</v>
-      </c>
-      <c r="E7">
-        <v>24.550999999999998</v>
-      </c>
-      <c r="F7">
-        <v>28.609000000000002</v>
-      </c>
-      <c r="G7">
-        <v>29.114999999999998</v>
-      </c>
-      <c r="H7">
-        <v>29.077000000000002</v>
-      </c>
-      <c r="I7">
-        <v>21.32</v>
-      </c>
-      <c r="J7">
-        <v>21.381</v>
-      </c>
-      <c r="K7">
-        <v>21.504999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>24.158000000000001</v>
-      </c>
-      <c r="D8">
-        <v>24.238</v>
-      </c>
-      <c r="E8">
-        <v>24.271000000000001</v>
-      </c>
-      <c r="F8">
-        <v>27.021000000000001</v>
-      </c>
-      <c r="G8">
-        <v>27.937000000000001</v>
-      </c>
-      <c r="H8">
-        <v>28.001000000000001</v>
-      </c>
-      <c r="I8">
-        <v>21.065000000000001</v>
-      </c>
-      <c r="J8">
-        <v>21.032</v>
-      </c>
-      <c r="K8">
-        <v>21.120999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>24.152999999999999</v>
-      </c>
-      <c r="D9">
-        <v>24.541</v>
-      </c>
-      <c r="E9">
-        <v>24.263000000000002</v>
-      </c>
-      <c r="F9">
-        <v>27.404</v>
-      </c>
-      <c r="G9">
-        <v>27.986999999999998</v>
-      </c>
-      <c r="H9">
-        <v>27.846</v>
-      </c>
-      <c r="I9">
-        <v>20.960999999999999</v>
-      </c>
-      <c r="J9">
-        <v>21.016999999999999</v>
-      </c>
-      <c r="K9">
-        <v>20.984000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>24.963000000000001</v>
-      </c>
-      <c r="D10">
-        <v>25.146999999999998</v>
-      </c>
-      <c r="E10">
-        <v>25.053000000000001</v>
-      </c>
-      <c r="F10">
-        <v>27.236000000000001</v>
-      </c>
-      <c r="G10">
-        <v>27.600999999999999</v>
-      </c>
-      <c r="H10">
-        <v>27.713000000000001</v>
-      </c>
-      <c r="I10">
-        <v>21.56</v>
-      </c>
-      <c r="J10">
-        <v>21.600999999999999</v>
-      </c>
-      <c r="K10">
-        <v>21.555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>24.425999999999998</v>
-      </c>
-      <c r="D11">
-        <v>24.652000000000001</v>
-      </c>
-      <c r="E11">
-        <v>24.652000000000001</v>
-      </c>
-      <c r="F11">
-        <v>26.937999999999999</v>
-      </c>
-      <c r="G11">
-        <v>27.103999999999999</v>
-      </c>
-      <c r="H11">
-        <v>27.128</v>
-      </c>
-      <c r="I11">
-        <v>21.23</v>
-      </c>
-      <c r="J11">
-        <v>21.469000000000001</v>
-      </c>
-      <c r="K11">
-        <v>21.225999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>24.934000000000001</v>
-      </c>
-      <c r="D12">
-        <v>24.888999999999999</v>
-      </c>
-      <c r="E12">
-        <v>24.812999999999999</v>
-      </c>
-      <c r="F12">
-        <v>26.22</v>
-      </c>
-      <c r="G12">
-        <v>26.391999999999999</v>
-      </c>
-      <c r="H12">
-        <v>26.448</v>
-      </c>
-      <c r="I12">
-        <v>21.274000000000001</v>
-      </c>
-      <c r="J12">
-        <v>21.413</v>
-      </c>
-      <c r="K12">
-        <v>21.202000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>27.085000000000001</v>
-      </c>
-      <c r="D13">
-        <v>27.135000000000002</v>
-      </c>
-      <c r="E13">
-        <v>27.027000000000001</v>
-      </c>
-      <c r="F13">
-        <v>28.041</v>
-      </c>
-      <c r="G13">
-        <v>28.350999999999999</v>
-      </c>
-      <c r="H13">
-        <v>28.027000000000001</v>
-      </c>
-      <c r="I13">
-        <v>21.928000000000001</v>
-      </c>
-      <c r="J13">
-        <v>21.905999999999999</v>
-      </c>
-      <c r="K13">
-        <v>21.841000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>25.706</v>
-      </c>
-      <c r="D14">
-        <v>25.593</v>
-      </c>
-      <c r="E14">
-        <v>25.628</v>
-      </c>
-      <c r="F14">
-        <v>26.273</v>
-      </c>
-      <c r="G14">
-        <v>26.532</v>
-      </c>
-      <c r="H14">
-        <v>26.486999999999998</v>
-      </c>
-      <c r="I14">
-        <v>21.42</v>
-      </c>
-      <c r="J14">
-        <v>21.536999999999999</v>
-      </c>
-      <c r="K14">
-        <v>21.382999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>25.911999999999999</v>
-      </c>
-      <c r="D15">
-        <v>26.114000000000001</v>
-      </c>
-      <c r="E15">
-        <v>26.222000000000001</v>
-      </c>
-      <c r="F15">
-        <v>26.571000000000002</v>
-      </c>
-      <c r="G15">
-        <v>26.946000000000002</v>
-      </c>
-      <c r="H15">
-        <v>26.744</v>
-      </c>
-      <c r="I15">
-        <v>21.382000000000001</v>
-      </c>
-      <c r="J15">
-        <v>21.588999999999999</v>
-      </c>
-      <c r="K15">
-        <v>21.422000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2.5</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>25.611999999999998</v>
-      </c>
-      <c r="D16">
-        <v>25.817</v>
-      </c>
-      <c r="E16">
-        <v>25.606000000000002</v>
-      </c>
-      <c r="F16">
-        <v>26.173999999999999</v>
-      </c>
-      <c r="G16">
-        <v>26.335000000000001</v>
-      </c>
-      <c r="H16">
-        <v>26.248000000000001</v>
-      </c>
-      <c r="I16">
-        <v>21.297999999999998</v>
-      </c>
-      <c r="J16">
-        <v>21.35</v>
-      </c>
-      <c r="K16">
-        <v>21.201000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2.5</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>25.869</v>
-      </c>
-      <c r="D17">
-        <v>26.126999999999999</v>
-      </c>
-      <c r="E17">
-        <v>26.25</v>
-      </c>
-      <c r="F17">
-        <v>26.279</v>
-      </c>
-      <c r="G17">
-        <v>26.706</v>
-      </c>
-      <c r="H17">
-        <v>26.707999999999998</v>
-      </c>
-      <c r="I17">
-        <v>21.701000000000001</v>
-      </c>
-      <c r="J17">
-        <v>21.795999999999999</v>
-      </c>
-      <c r="K17">
-        <v>21.562000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>26.109000000000002</v>
-      </c>
-      <c r="D18">
-        <v>26.143999999999998</v>
-      </c>
-      <c r="E18">
-        <v>26.13</v>
-      </c>
-      <c r="F18">
-        <v>26.19</v>
-      </c>
-      <c r="G18">
-        <v>26.501000000000001</v>
-      </c>
-      <c r="H18">
-        <v>26.46</v>
-      </c>
-      <c r="I18">
-        <v>21.506</v>
-      </c>
-      <c r="J18">
-        <v>21.481999999999999</v>
-      </c>
-      <c r="K18">
-        <v>21.353999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>26.388999999999999</v>
-      </c>
-      <c r="D19">
-        <v>26.495999999999999</v>
-      </c>
-      <c r="E19">
-        <v>26.579000000000001</v>
-      </c>
-      <c r="F19">
-        <v>26.638999999999999</v>
-      </c>
-      <c r="G19">
-        <v>26.687999999999999</v>
-      </c>
-      <c r="H19">
-        <v>26.768000000000001</v>
-      </c>
-      <c r="I19">
-        <v>21.568000000000001</v>
-      </c>
-      <c r="J19">
-        <v>21.79</v>
-      </c>
-      <c r="K19">
-        <v>22.338999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0.5</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>26.041</v>
-      </c>
-      <c r="D20">
-        <v>26.274000000000001</v>
-      </c>
-      <c r="E20">
-        <v>26.081</v>
-      </c>
-      <c r="F20">
-        <v>26.077999999999999</v>
-      </c>
-      <c r="G20">
-        <v>26.382999999999999</v>
-      </c>
-      <c r="H20">
-        <v>26.178000000000001</v>
-      </c>
-      <c r="I20">
-        <v>21.364000000000001</v>
-      </c>
-      <c r="J20">
-        <v>21.399000000000001</v>
-      </c>
-      <c r="K20">
-        <v>21.343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0.5</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>26.893000000000001</v>
-      </c>
-      <c r="D21">
-        <v>27.616</v>
-      </c>
-      <c r="E21">
-        <v>27.257000000000001</v>
-      </c>
-      <c r="F21">
-        <v>27.12</v>
-      </c>
-      <c r="G21">
-        <v>27.146999999999998</v>
-      </c>
-      <c r="H21">
-        <v>26.986999999999998</v>
-      </c>
-      <c r="I21">
-        <v>21.777000000000001</v>
-      </c>
-      <c r="J21">
-        <v>21.913</v>
-      </c>
-      <c r="K21">
-        <v>21.640999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>25.588000000000001</v>
-      </c>
-      <c r="D22">
-        <v>25.675999999999998</v>
-      </c>
-      <c r="E22">
-        <v>25.632000000000001</v>
-      </c>
-      <c r="F22">
-        <v>25.667999999999999</v>
-      </c>
-      <c r="G22">
-        <v>26.062000000000001</v>
-      </c>
-      <c r="H22">
-        <v>26.452000000000002</v>
-      </c>
-      <c r="I22">
-        <v>21.373999999999999</v>
-      </c>
-      <c r="J22">
-        <v>21.510999999999999</v>
-      </c>
-      <c r="K22">
-        <v>21.634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>25.690999999999999</v>
-      </c>
-      <c r="D23">
-        <v>26.18</v>
-      </c>
-      <c r="E23">
-        <v>25.75</v>
-      </c>
-      <c r="F23">
-        <v>25.968</v>
-      </c>
-      <c r="G23">
-        <v>25.885000000000002</v>
-      </c>
-      <c r="H23">
-        <v>25.759</v>
-      </c>
-      <c r="I23">
-        <v>21.472999999999999</v>
-      </c>
-      <c r="J23">
-        <v>21.594999999999999</v>
-      </c>
-      <c r="K23">
-        <v>21.623000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDA7C04-E9E6-2048-8430-D78856DF3574}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -16584,7 +11188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BECFC7C-9ECD-9048-B12A-B900717F42D9}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -17372,7 +11976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCC631E-1E53-4341-A8E6-1F6538BABB30}">
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -18467,7 +13071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C84D04-EFA7-6B4F-8A05-94A6644E7A92}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -19288,7 +13892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BDE610-D5A8-A74B-9A2D-1F649E5DA72C}">
   <dimension ref="A1:J23"/>
   <sheetViews>
@@ -20029,7 +14633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EC178C-7D09-CA41-84A5-4860D2D7E2B9}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -20850,4 +15454,1556 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C703571-85D0-F647-A0E7-718AAC439EF6}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>250</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.809639000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16.665997000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16.790161000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>16.835311999999998</v>
+      </c>
+      <c r="G4" s="2">
+        <v>24.425608</v>
+      </c>
+      <c r="H4" s="2">
+        <v>24.593498</v>
+      </c>
+      <c r="I4" s="2">
+        <v>24.556622000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>24.450997999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17.091345</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17.101621999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16.949850000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16.719929</v>
+      </c>
+      <c r="G5" s="2">
+        <v>24.67249</v>
+      </c>
+      <c r="H5" s="2">
+        <v>24.793469999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>24.715332</v>
+      </c>
+      <c r="J5" s="2">
+        <v>24.821311999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17.975871999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17.948243999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18.151405</v>
+      </c>
+      <c r="F6" s="2">
+        <v>18.009444999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25.288848999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>25.267004</v>
+      </c>
+      <c r="I6" s="2">
+        <v>25.174752999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>25.232130000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17.952463000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17.613610999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>17.793427999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>17.889004</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25.229652000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>24.953112000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>24.876846</v>
+      </c>
+      <c r="J7" s="2">
+        <v>24.857455999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18.304760000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>18.356310000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18.414650000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>18.300476</v>
+      </c>
+      <c r="G8" s="2">
+        <v>25.011621000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>24.823153000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>24.835940999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>24.817083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>18.270178000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18.271042000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18.76071</v>
+      </c>
+      <c r="F9" s="2">
+        <v>18.578458999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25.132946</v>
+      </c>
+      <c r="H9" s="2">
+        <v>24.997451999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>25.088799999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <v>25.104766999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>18.337440000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18.38269</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18.339234999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>18.314713999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>24.401257999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>24.091339999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>24.187044</v>
+      </c>
+      <c r="J10" s="2">
+        <v>24.130184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18.219511000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18.378793999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18.395140000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>18.159697000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>23.989023</v>
+      </c>
+      <c r="H11" s="2">
+        <v>23.950558000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>23.882866</v>
+      </c>
+      <c r="J11" s="2">
+        <v>24.05536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18.4102</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18.595891999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18.560226</v>
+      </c>
+      <c r="F12" s="2">
+        <v>18.33419</v>
+      </c>
+      <c r="G12" s="2">
+        <v>22.265996999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>22.424627000000001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>22.331378999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>22.287963999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18.467644</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18.823370000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>18.610136000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>18.551413</v>
+      </c>
+      <c r="G13" s="2">
+        <v>22.53173</v>
+      </c>
+      <c r="H13" s="2">
+        <v>22.406185000000001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>22.455625999999999</v>
+      </c>
+      <c r="J13" s="2">
+        <v>22.469975999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19.050149999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18.964939999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>19.165600000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>19.072379999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>21.789784999999998</v>
+      </c>
+      <c r="H14" s="2">
+        <v>21.698232999999998</v>
+      </c>
+      <c r="I14" s="2">
+        <v>21.618402</v>
+      </c>
+      <c r="J14" s="2">
+        <v>21.810265000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>18.043776999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18.137623000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18.069835999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>18.051690000000001</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20.644860999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20.670114999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>20.703223999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>20.723033999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>19.398256</v>
+      </c>
+      <c r="D16" s="2">
+        <v>19.440804</v>
+      </c>
+      <c r="E16" s="2">
+        <v>19.509851000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>19.467907</v>
+      </c>
+      <c r="G16" s="2">
+        <v>21.282927999999998</v>
+      </c>
+      <c r="H16" s="2">
+        <v>21.107574</v>
+      </c>
+      <c r="I16" s="2">
+        <v>21.109684000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <v>21.021201999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>19.127655000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>19.107603000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>18.848002999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>19.056854000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <v>21.028863999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20.742892999999999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>20.773181999999998</v>
+      </c>
+      <c r="J17" s="2">
+        <v>20.906272999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>20.229208</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19.53903</v>
+      </c>
+      <c r="E18" s="2">
+        <v>19.746663999999999</v>
+      </c>
+      <c r="F18" s="2">
+        <v>19.860351999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>20.776696999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20.876346999999999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>20.747921000000002</v>
+      </c>
+      <c r="J18" s="2">
+        <v>20.739597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>19.764643</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19.669650000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19.648904999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>19.857655000000001</v>
+      </c>
+      <c r="G19" s="2">
+        <v>20.715277</v>
+      </c>
+      <c r="H19" s="2">
+        <v>20.630562000000001</v>
+      </c>
+      <c r="I19" s="2">
+        <v>20.557327000000001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>20.665150000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>20.062881000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19.936710000000001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19.884546</v>
+      </c>
+      <c r="F20" s="2">
+        <v>19.688770000000002</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20.495833999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20.6022</v>
+      </c>
+      <c r="I20" s="2">
+        <v>20.292925</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20.368867999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19.670116</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19.855028000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>19.575627999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>19.759357000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20.295107000000002</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20.334599000000001</v>
+      </c>
+      <c r="I21" s="2">
+        <v>20.429988999999999</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20.485647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19.366164999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>19.462536</v>
+      </c>
+      <c r="E22" s="2">
+        <v>19.508047000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>19.340506000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>19.770095999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>19.674377</v>
+      </c>
+      <c r="I22" s="2">
+        <v>19.806757000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>19.764244000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19.803595999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>19.489412000000002</v>
+      </c>
+      <c r="E23" s="2">
+        <v>19.599257999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>19.822903</v>
+      </c>
+      <c r="G23" s="2">
+        <v>19.964466000000002</v>
+      </c>
+      <c r="H23" s="2">
+        <v>19.963297000000001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>19.861525</v>
+      </c>
+      <c r="J23" s="2">
+        <v>19.811116999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C320A2A-CDEB-EC44-B802-6C7DD71BD45A}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>250</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19.520766999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19.644366999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>19.947171999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19.649284000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>28.589797999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28.514669999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>28.902536000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>28.472017000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>250</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19.632860000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19.831102000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>19.937372</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19.674353</v>
+      </c>
+      <c r="G5" s="2">
+        <v>28.921710999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28.682825000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>28.977385999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>28.588089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20.330057</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20.373161</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20.403974999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20.036052999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>29.114682999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28.786633999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28.868099999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <v>28.835249000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B21" si="0">B5</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20.193773</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20.201332000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20.266342000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20.123235999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>28.749881999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28.673037999999998</v>
+      </c>
+      <c r="I7" s="2">
+        <v>28.805890000000002</v>
+      </c>
+      <c r="J7" s="2">
+        <v>28.701115000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21.292261</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21.101275999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>21.352823000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21.374497999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29.037521000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>29.148313999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>29.428740999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>29.079170000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21.495353999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21.417206</v>
+      </c>
+      <c r="E9" s="2">
+        <v>21.48659</v>
+      </c>
+      <c r="F9" s="2">
+        <v>21.393003</v>
+      </c>
+      <c r="G9" s="2">
+        <v>29.245861000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>29.491071999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>29.380068000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>29.166841999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f>A4/10</f>
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22.259544000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22.131976999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22.331727999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>22.322104</v>
+      </c>
+      <c r="G10" s="2">
+        <v>28.603065000000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>28.598436</v>
+      </c>
+      <c r="I10" s="2">
+        <v>28.699159999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>28.599857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" ref="A11:A19" si="1">A5/10</f>
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>22.334467</v>
+      </c>
+      <c r="D11" s="2">
+        <v>22.221073000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>22.490518999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>22.333404999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>28.800556</v>
+      </c>
+      <c r="H11" s="2">
+        <v>28.863527000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>29.044143999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>28.93797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22.293379999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22.416906000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>22.421005000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>22.406355000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>26.616565999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>26.536042999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>26.825310000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <v>26.572635999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22.205266999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>22.085008999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22.209569999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>22.130285000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>26.403880999999998</v>
+      </c>
+      <c r="H13" s="2">
+        <v>26.389866000000001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>26.524075</v>
+      </c>
+      <c r="J13" s="2">
+        <v>26.481956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>22.860035</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22.918531000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>22.932556000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>22.955840999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>25.615158000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>25.595635999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>25.77758</v>
+      </c>
+      <c r="J14" s="2">
+        <v>25.654921999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>22.989644999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23.300087000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>23.057358000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>23.029143999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>26.009664999999998</v>
+      </c>
+      <c r="H15" s="2">
+        <v>25.943102</v>
+      </c>
+      <c r="I15" s="2">
+        <v>25.981691000000001</v>
+      </c>
+      <c r="J15" s="2">
+        <v>26.059024999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>22.989740000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>23.110506000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>22.965527999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>22.948696000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>24.774044</v>
+      </c>
+      <c r="H16" s="2">
+        <v>24.70429</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25.072742000000002</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25.099530999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>23.373221999999998</v>
+      </c>
+      <c r="D17" s="2">
+        <v>23.672152000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>23.306979999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>23.163150000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <v>25.158446999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>25.016762</v>
+      </c>
+      <c r="I17" s="2">
+        <v>25.297028000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25.257977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>23.879923000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <v>23.639326000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>23.574762</v>
+      </c>
+      <c r="F18" s="2">
+        <v>23.688192000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>24.627103999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>24.563987999999998</v>
+      </c>
+      <c r="I18" s="2">
+        <v>24.897608000000002</v>
+      </c>
+      <c r="J18" s="2">
+        <v>24.531464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23.747903999999998</v>
+      </c>
+      <c r="D19" s="2">
+        <v>23.642430000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>23.866112000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>23.641338000000001</v>
+      </c>
+      <c r="G19" s="2">
+        <v>24.720981999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>24.707457000000002</v>
+      </c>
+      <c r="I19" s="2">
+        <v>24.950340000000001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>24.706097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19.441875</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19.561031</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19.787054000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>19.572367</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20.601953999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20.791519999999998</v>
+      </c>
+      <c r="I20" s="2">
+        <v>20.508717000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>20.899516999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>19.536871000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19.696670000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>19.661366999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>19.5976</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20.429902999999999</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20.536379</v>
+      </c>
+      <c r="I21" s="2">
+        <v>20.604558999999998</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20.610046000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>23.894736999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>23.640965999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>23.882750000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>23.517582000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>24.002731000000001</v>
+      </c>
+      <c r="H22" s="2">
+        <v>23.948264999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>24.064779999999999</v>
+      </c>
+      <c r="J22" s="2">
+        <v>24.033318000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>23.98189</v>
+      </c>
+      <c r="D23" s="2">
+        <v>23.907634999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>23.829274999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>23.677112999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>24.402752</v>
+      </c>
+      <c r="H23" s="2">
+        <v>24.50996</v>
+      </c>
+      <c r="I23" s="2">
+        <v>24.386862000000001</v>
+      </c>
+      <c r="J23" s="2">
+        <v>24.216429999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24.207176</v>
+      </c>
+      <c r="D24" s="2">
+        <v>24.212430000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>24.096785000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>24.508572000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>24.514365999999999</v>
+      </c>
+      <c r="H24" s="2">
+        <v>24.72401</v>
+      </c>
+      <c r="I24" s="2">
+        <v>24.665955</v>
+      </c>
+      <c r="J24" s="2">
+        <v>24.596084999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24.370609999999999</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24.073485999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>24.054829999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>23.893024</v>
+      </c>
+      <c r="G25" s="2">
+        <v>24.435016999999998</v>
+      </c>
+      <c r="H25" s="2">
+        <v>24.347998</v>
+      </c>
+      <c r="I25" s="2">
+        <v>24.53098</v>
+      </c>
+      <c r="J25" s="2">
+        <v>24.606777000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>